--- a/BSX_Model.xlsx
+++ b/BSX_Model.xlsx
@@ -1,32 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C587E9F8-2D96-462F-8E0F-83E0F496AAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Notes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibre"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +73,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,12 +355,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="2.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E9BBBF-231F-4413-9D35-B81B3144EF2A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E640DF-CF2F-4558-930D-400D9219BA62}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.06640625" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BSX_Model.xlsx
+++ b/BSX_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C587E9F8-2D96-462F-8E0F-83E0F496AAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C835B5-85FD-4127-98A5-CFD94C3B5B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,294 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>BSX</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Q3 2024</t>
+  </si>
+  <si>
+    <t>Q2 2024</t>
+  </si>
+  <si>
+    <t>Q1 2024</t>
+  </si>
+  <si>
+    <t>Q3 2023</t>
+  </si>
+  <si>
+    <t>Q2 2023</t>
+  </si>
+  <si>
+    <t>Q1 2023</t>
+  </si>
+  <si>
+    <t>Q3 2022</t>
+  </si>
+  <si>
+    <t>Q2 2022</t>
+  </si>
+  <si>
+    <t>Q1 2022</t>
+  </si>
+  <si>
+    <t>Q3 2021</t>
+  </si>
+  <si>
+    <t>Q2 2021</t>
+  </si>
+  <si>
+    <t>Q1 2021</t>
+  </si>
+  <si>
+    <t>Q3 2020</t>
+  </si>
+  <si>
+    <t>Q2 2020</t>
+  </si>
+  <si>
+    <t>Q1 2020</t>
+  </si>
+  <si>
+    <t>Q3 2019</t>
+  </si>
+  <si>
+    <t>Q2 2019</t>
+  </si>
+  <si>
+    <t>Q1 2019</t>
+  </si>
+  <si>
+    <t>Q3 2018</t>
+  </si>
+  <si>
+    <t>Q2 2018</t>
+  </si>
+  <si>
+    <t>Q1 2018</t>
+  </si>
+  <si>
+    <t>Q3 2017</t>
+  </si>
+  <si>
+    <t>Q2 2017</t>
+  </si>
+  <si>
+    <t>Q1 2017</t>
+  </si>
+  <si>
+    <t>Q3 2016</t>
+  </si>
+  <si>
+    <t>Q2 2016</t>
+  </si>
+  <si>
+    <t>Q1 2016</t>
+  </si>
+  <si>
+    <t>Q3 2015</t>
+  </si>
+  <si>
+    <t>Q2 2015</t>
+  </si>
+  <si>
+    <t>Q1 2015</t>
+  </si>
+  <si>
+    <t>Q3 2014</t>
+  </si>
+  <si>
+    <t>Q2 2014</t>
+  </si>
+  <si>
+    <t>Q1 2014</t>
+  </si>
+  <si>
+    <t>Q3 2013</t>
+  </si>
+  <si>
+    <t>Q2 2013</t>
+  </si>
+  <si>
+    <t>Q1 2013</t>
+  </si>
+  <si>
+    <t>Q3 2012</t>
+  </si>
+  <si>
+    <t>Q2 2012</t>
+  </si>
+  <si>
+    <t>Q1 2012</t>
+  </si>
+  <si>
+    <t>Q3 2011</t>
+  </si>
+  <si>
+    <t>Q2 2011</t>
+  </si>
+  <si>
+    <t>Q1 2011</t>
+  </si>
+  <si>
+    <t>Q3 2010</t>
+  </si>
+  <si>
+    <t>Q2 2010</t>
+  </si>
+  <si>
+    <t>Q1 2010</t>
+  </si>
+  <si>
+    <t>Q3 2009</t>
+  </si>
+  <si>
+    <t>Q2 2009</t>
+  </si>
+  <si>
+    <t>SG&amp;A as % of Revenue</t>
+  </si>
+  <si>
+    <t>R&amp;D as % of Revenue</t>
+  </si>
+  <si>
+    <t>Net Profit Margin</t>
+  </si>
+  <si>
+    <t>Operating Profit Margin</t>
+  </si>
+  <si>
+    <t>Gross Profit Margin</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Income Taxes</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Other Income</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>R&amp;D Expense</t>
+  </si>
+  <si>
+    <t>SG&amp;A Expense</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Q4 2024</t>
+  </si>
+  <si>
+    <t>Q4 2023</t>
+  </si>
+  <si>
+    <t>Q4 2022</t>
+  </si>
+  <si>
+    <t>Q4 2021</t>
+  </si>
+  <si>
+    <t>Q4 2020</t>
+  </si>
+  <si>
+    <t>Q4 2019</t>
+  </si>
+  <si>
+    <t>Q4 2018</t>
+  </si>
+  <si>
+    <t>Q4 2017</t>
+  </si>
+  <si>
+    <t>Q4 2016</t>
+  </si>
+  <si>
+    <t>Q4 2015</t>
+  </si>
+  <si>
+    <t>Q4 2014</t>
+  </si>
+  <si>
+    <t>Q4 2013</t>
+  </si>
+  <si>
+    <t>Q4 2012</t>
+  </si>
+  <si>
+    <t>Q4 2011</t>
+  </si>
+  <si>
+    <t>Q4 2010</t>
+  </si>
+  <si>
+    <t>Q4 2009</t>
+  </si>
+  <si>
+    <t>Q1 2009</t>
+  </si>
+  <si>
+    <t>Q3 2008</t>
+  </si>
+  <si>
+    <t>Q2 2008</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>Revenue YoY Growth</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +336,25 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibre"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -73,9 +377,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,17 +674,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.796875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1475.778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
+        <f>C3*C4</f>
+        <v>141969.84359999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5">
+        <f>2502</f>
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6">
+        <f>1652+9233</f>
+        <v>10885</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5">
+        <f>C5-C6+C7</f>
+        <v>150352.84359999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -375,16 +753,5468 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E9BBBF-231F-4413-9D35-B81B3144EF2A}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:DZ49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="BU3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="CD49" sqref="CD49"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:130">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="2:130" s="2" customFormat="1">
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="BF2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="BJ2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="BL2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="BN2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="BP2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU2" s="2">
+        <f>2008</f>
+        <v>2008</v>
+      </c>
+      <c r="BV2" s="2">
+        <f>BU2+1</f>
+        <v>2009</v>
+      </c>
+      <c r="BW2" s="2">
+        <f t="shared" ref="BW2:DZ2" si="0">BV2+1</f>
+        <v>2010</v>
+      </c>
+      <c r="BX2" s="2">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="BY2" s="2">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="BZ2" s="2">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="CA2" s="2">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="CB2" s="2">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="CC2" s="2">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="CD2" s="2">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="CE2" s="2">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="CF2" s="2">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="CG2" s="2">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="CH2" s="2">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="CI2" s="2">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="CJ2" s="2">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="CK2" s="2">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="CL2" s="2">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="CM2" s="2">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="CN2" s="2">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="CO2" s="2">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="CP2" s="2">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="CQ2" s="2">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="CR2" s="2">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="CS2" s="2">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="CT2" s="2">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="CU2" s="2">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="CV2" s="2">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="CW2" s="2">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="CX2" s="2">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="CY2" s="2">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="CZ2" s="2">
+        <f t="shared" si="0"/>
+        <v>2039</v>
+      </c>
+      <c r="DA2" s="2">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="DB2" s="2">
+        <f t="shared" si="0"/>
+        <v>2041</v>
+      </c>
+      <c r="DC2" s="2">
+        <f t="shared" si="0"/>
+        <v>2042</v>
+      </c>
+      <c r="DD2" s="2">
+        <f t="shared" si="0"/>
+        <v>2043</v>
+      </c>
+      <c r="DE2" s="2">
+        <f t="shared" si="0"/>
+        <v>2044</v>
+      </c>
+      <c r="DF2" s="2">
+        <f t="shared" si="0"/>
+        <v>2045</v>
+      </c>
+      <c r="DG2" s="2">
+        <f t="shared" si="0"/>
+        <v>2046</v>
+      </c>
+      <c r="DH2" s="2">
+        <f t="shared" si="0"/>
+        <v>2047</v>
+      </c>
+      <c r="DI2" s="2">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="DJ2" s="2">
+        <f t="shared" si="0"/>
+        <v>2049</v>
+      </c>
+      <c r="DK2" s="2">
+        <f t="shared" si="0"/>
+        <v>2050</v>
+      </c>
+      <c r="DL2" s="2">
+        <f t="shared" si="0"/>
+        <v>2051</v>
+      </c>
+      <c r="DM2" s="2">
+        <f t="shared" si="0"/>
+        <v>2052</v>
+      </c>
+      <c r="DN2" s="2">
+        <f t="shared" si="0"/>
+        <v>2053</v>
+      </c>
+      <c r="DO2" s="2">
+        <f t="shared" si="0"/>
+        <v>2054</v>
+      </c>
+      <c r="DP2" s="2">
+        <f t="shared" si="0"/>
+        <v>2055</v>
+      </c>
+      <c r="DQ2" s="2">
+        <f t="shared" si="0"/>
+        <v>2056</v>
+      </c>
+      <c r="DR2" s="2">
+        <f t="shared" si="0"/>
+        <v>2057</v>
+      </c>
+      <c r="DS2" s="2">
+        <f t="shared" si="0"/>
+        <v>2058</v>
+      </c>
+      <c r="DT2" s="2">
+        <f t="shared" si="0"/>
+        <v>2059</v>
+      </c>
+      <c r="DU2" s="2">
+        <f t="shared" si="0"/>
+        <v>2060</v>
+      </c>
+      <c r="DV2" s="2">
+        <f t="shared" si="0"/>
+        <v>2061</v>
+      </c>
+      <c r="DW2" s="2">
+        <f t="shared" si="0"/>
+        <v>2062</v>
+      </c>
+      <c r="DX2" s="2">
+        <f t="shared" si="0"/>
+        <v>2063</v>
+      </c>
+      <c r="DY2" s="2">
+        <f t="shared" si="0"/>
+        <v>2064</v>
+      </c>
+      <c r="DZ2" s="2">
+        <f t="shared" si="0"/>
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="21" spans="2:89" s="7" customFormat="1" ht="12.75"/>
+    <row r="22" spans="2:89" s="7" customFormat="1" ht="12.75"/>
+    <row r="23" spans="2:89" s="7" customFormat="1" ht="12.75"/>
+    <row r="24" spans="2:89" s="7" customFormat="1" ht="12.75"/>
+    <row r="25" spans="2:89" s="7" customFormat="1" ht="12.75"/>
+    <row r="26" spans="2:89" s="7" customFormat="1" ht="12.75"/>
+    <row r="27" spans="2:89" s="7" customFormat="1" ht="12.75"/>
+    <row r="28" spans="2:89" s="7" customFormat="1" ht="12.75"/>
+    <row r="29" spans="2:89" s="7" customFormat="1" ht="12.75"/>
+    <row r="30" spans="2:89" s="7" customFormat="1" ht="12.75"/>
+    <row r="31" spans="2:89" s="7" customFormat="1" ht="12.75">
+      <c r="B31" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:89" s="7" customFormat="1" ht="12.75">
+      <c r="B32" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="8">
+        <v>2024</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1978</v>
+      </c>
+      <c r="E32" s="8">
+        <v>2010</v>
+      </c>
+      <c r="F32" s="8">
+        <v>2074</v>
+      </c>
+      <c r="G32" s="8">
+        <v>2025</v>
+      </c>
+      <c r="H32" s="8">
+        <v>2079</v>
+      </c>
+      <c r="I32" s="8">
+        <v>1960</v>
+      </c>
+      <c r="J32" s="8">
+        <v>1928</v>
+      </c>
+      <c r="K32" s="8">
+        <v>1916</v>
+      </c>
+      <c r="L32" s="8">
+        <v>2002</v>
+      </c>
+      <c r="M32" s="8">
+        <v>1925</v>
+      </c>
+      <c r="N32" s="8">
+        <v>1975</v>
+      </c>
+      <c r="O32" s="8">
+        <v>1874</v>
+      </c>
+      <c r="P32" s="8">
+        <v>1848</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>1866</v>
+      </c>
+      <c r="R32" s="8">
+        <v>1828</v>
+      </c>
+      <c r="S32" s="8">
+        <v>1735</v>
+      </c>
+      <c r="T32" s="8">
+        <v>1820</v>
+      </c>
+      <c r="U32" s="8">
+        <v>1761</v>
+      </c>
+      <c r="V32" s="8">
+        <v>1809</v>
+      </c>
+      <c r="W32" s="8">
+        <v>1735</v>
+      </c>
+      <c r="X32" s="8">
+        <v>1838</v>
+      </c>
+      <c r="Y32" s="8">
+        <v>1774</v>
+      </c>
+      <c r="Z32" s="8">
+        <v>1873</v>
+      </c>
+      <c r="AA32" s="8">
+        <v>1846</v>
+      </c>
+      <c r="AB32" s="8">
+        <v>1887</v>
+      </c>
+      <c r="AC32" s="8">
+        <v>1768</v>
+      </c>
+      <c r="AD32" s="8">
+        <v>1843</v>
+      </c>
+      <c r="AE32" s="8">
+        <v>1888</v>
+      </c>
+      <c r="AF32" s="8">
+        <v>1978</v>
+      </c>
+      <c r="AG32" s="8">
+        <v>1964</v>
+      </c>
+      <c r="AH32" s="8">
+        <v>2126</v>
+      </c>
+      <c r="AI32" s="8">
+        <v>2105</v>
+      </c>
+      <c r="AJ32" s="8">
+        <v>2191</v>
+      </c>
+      <c r="AK32" s="8">
+        <v>2160</v>
+      </c>
+      <c r="AL32" s="8">
+        <v>2257</v>
+      </c>
+      <c r="AM32" s="8">
+        <v>2222</v>
+      </c>
+      <c r="AN32" s="8">
+        <v>2409</v>
+      </c>
+      <c r="AO32" s="8">
+        <v>2379</v>
+      </c>
+      <c r="AP32" s="8">
+        <v>2490</v>
+      </c>
+      <c r="AQ32" s="8">
+        <v>2393</v>
+      </c>
+      <c r="AR32" s="8">
+        <v>2561</v>
+      </c>
+      <c r="AS32" s="8">
+        <v>2493</v>
+      </c>
+      <c r="AT32" s="8">
+        <v>2631</v>
+      </c>
+      <c r="AU32" s="8">
+        <v>2707</v>
+      </c>
+      <c r="AV32" s="8">
+        <v>2904</v>
+      </c>
+      <c r="AW32" s="8">
+        <v>2543</v>
+      </c>
+      <c r="AX32" s="8">
+        <v>2003</v>
+      </c>
+      <c r="AY32" s="8">
+        <v>2659</v>
+      </c>
+      <c r="AZ32" s="8">
+        <v>2708</v>
+      </c>
+      <c r="BA32" s="8">
+        <v>2752</v>
+      </c>
+      <c r="BB32" s="8">
+        <v>3077</v>
+      </c>
+      <c r="BC32" s="8">
+        <v>2932</v>
+      </c>
+      <c r="BD32" s="8">
+        <v>3127</v>
+      </c>
+      <c r="BE32" s="8">
+        <v>3026</v>
+      </c>
+      <c r="BF32" s="8">
+        <v>3244</v>
+      </c>
+      <c r="BG32" s="8">
+        <v>3170</v>
+      </c>
+      <c r="BH32" s="8">
+        <v>3242</v>
+      </c>
+      <c r="BI32" s="8">
+        <v>3389</v>
+      </c>
+      <c r="BJ32" s="8">
+        <v>3599</v>
+      </c>
+      <c r="BK32" s="8">
+        <v>3527</v>
+      </c>
+      <c r="BL32" s="8">
+        <v>3725</v>
+      </c>
+      <c r="BM32" s="8">
+        <v>3856</v>
+      </c>
+      <c r="BN32" s="8">
+        <v>4120</v>
+      </c>
+      <c r="BO32" s="8">
+        <v>4209</v>
+      </c>
+      <c r="BP32" s="8">
+        <v>4562</v>
+      </c>
+      <c r="BV32" s="7">
+        <f>SUM(E32:H32)</f>
+        <v>8188</v>
+      </c>
+      <c r="BW32" s="7">
+        <f>SUM(I32:L32)</f>
+        <v>7806</v>
+      </c>
+      <c r="BX32" s="7">
+        <f>SUM(M32:P32)</f>
+        <v>7622</v>
+      </c>
+      <c r="BY32" s="7">
+        <f>SUM(Q32:T32)</f>
+        <v>7249</v>
+      </c>
+      <c r="BZ32" s="7">
+        <f>SUM(U32:X32)</f>
+        <v>7143</v>
+      </c>
+      <c r="CA32" s="7">
+        <f>SUM(Y32:AB32)</f>
+        <v>7380</v>
+      </c>
+      <c r="CB32" s="7">
+        <f>SUM(AC32:AF32)</f>
+        <v>7477</v>
+      </c>
+      <c r="CC32" s="7">
+        <f>SUM(AG32:AJ32)</f>
+        <v>8386</v>
+      </c>
+      <c r="CD32" s="7">
+        <f>SUM(AK32:AN32)</f>
+        <v>9048</v>
+      </c>
+      <c r="CE32" s="7">
+        <f>SUM(AO32:AR32)</f>
+        <v>9823</v>
+      </c>
+      <c r="CF32" s="7">
+        <f>SUM(AS32:AV32)</f>
+        <v>10735</v>
+      </c>
+      <c r="CG32" s="7">
+        <f>SUM(AW32:AZ32)</f>
+        <v>9913</v>
+      </c>
+      <c r="CH32" s="7">
+        <f>SUM(BA32:BD32)</f>
+        <v>11888</v>
+      </c>
+      <c r="CI32" s="7">
+        <f>SUM(BE32:BH32)</f>
+        <v>12682</v>
+      </c>
+      <c r="CJ32" s="7">
+        <f>SUM(BI32:BL32)</f>
+        <v>14240</v>
+      </c>
+      <c r="CK32" s="7">
+        <f>SUM(BM32:BP32)</f>
+        <v>16747</v>
+      </c>
+    </row>
+    <row r="33" spans="2:89" s="7" customFormat="1" ht="12.75">
+      <c r="B33" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="7">
+        <v>604</v>
+      </c>
+      <c r="D33" s="7">
+        <v>655</v>
+      </c>
+      <c r="E33" s="7">
+        <v>607</v>
+      </c>
+      <c r="F33" s="7">
+        <v>630</v>
+      </c>
+      <c r="G33" s="7">
+        <v>629</v>
+      </c>
+      <c r="H33" s="7">
+        <v>710</v>
+      </c>
+      <c r="I33" s="7">
+        <v>663</v>
+      </c>
+      <c r="J33" s="7">
+        <v>654</v>
+      </c>
+      <c r="K33" s="7">
+        <v>623</v>
+      </c>
+      <c r="L33" s="7">
+        <v>659</v>
+      </c>
+      <c r="M33" s="7">
+        <v>631</v>
+      </c>
+      <c r="N33" s="7">
+        <v>688</v>
+      </c>
+      <c r="O33" s="7">
+        <v>680</v>
+      </c>
+      <c r="P33" s="7">
+        <v>660</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>631</v>
+      </c>
+      <c r="R33" s="7">
+        <v>578</v>
+      </c>
+      <c r="S33" s="7">
+        <v>558</v>
+      </c>
+      <c r="T33" s="7">
+        <v>582</v>
+      </c>
+      <c r="U33" s="7">
+        <v>578</v>
+      </c>
+      <c r="V33" s="7">
+        <v>530</v>
+      </c>
+      <c r="W33" s="7">
+        <v>510</v>
+      </c>
+      <c r="X33" s="7">
+        <v>556</v>
+      </c>
+      <c r="Y33" s="7">
+        <v>537</v>
+      </c>
+      <c r="Z33" s="7">
+        <v>563</v>
+      </c>
+      <c r="AA33" s="7">
+        <v>550</v>
+      </c>
+      <c r="AB33" s="7">
+        <v>560</v>
+      </c>
+      <c r="AC33" s="7">
+        <v>520</v>
+      </c>
+      <c r="AD33" s="7">
+        <v>540</v>
+      </c>
+      <c r="AE33" s="7">
+        <v>539</v>
+      </c>
+      <c r="AF33" s="7">
+        <v>574</v>
+      </c>
+      <c r="AG33" s="7">
+        <v>573</v>
+      </c>
+      <c r="AH33" s="7">
+        <v>639</v>
+      </c>
+      <c r="AI33" s="7">
+        <v>594</v>
+      </c>
+      <c r="AJ33" s="7">
+        <v>618</v>
+      </c>
+      <c r="AK33" s="7">
+        <v>650</v>
+      </c>
+      <c r="AL33" s="7">
+        <v>632</v>
+      </c>
+      <c r="AM33" s="7">
+        <v>637</v>
+      </c>
+      <c r="AN33" s="7">
+        <v>674</v>
+      </c>
+      <c r="AO33" s="7">
+        <v>672</v>
+      </c>
+      <c r="AP33" s="7">
+        <v>739</v>
+      </c>
+      <c r="AQ33" s="7">
+        <v>672</v>
+      </c>
+      <c r="AR33" s="7">
+        <v>730</v>
+      </c>
+      <c r="AS33" s="7">
+        <v>730</v>
+      </c>
+      <c r="AT33" s="7">
+        <v>758</v>
+      </c>
+      <c r="AU33" s="7">
+        <v>777</v>
+      </c>
+      <c r="AV33" s="7">
+        <v>851</v>
+      </c>
+      <c r="AW33" s="7">
+        <v>806</v>
+      </c>
+      <c r="AX33" s="7">
+        <v>791</v>
+      </c>
+      <c r="AY33" s="7">
+        <v>869</v>
+      </c>
+      <c r="AZ33" s="7">
+        <v>999</v>
+      </c>
+      <c r="BA33" s="7">
+        <v>894</v>
+      </c>
+      <c r="BB33" s="7">
+        <v>945</v>
+      </c>
+      <c r="BC33" s="7">
+        <v>900</v>
+      </c>
+      <c r="BD33" s="7">
+        <v>972</v>
+      </c>
+      <c r="BE33" s="7">
+        <v>955</v>
+      </c>
+      <c r="BF33" s="7">
+        <v>1011</v>
+      </c>
+      <c r="BG33" s="7">
+        <v>979</v>
+      </c>
+      <c r="BH33" s="7">
+        <v>1011</v>
+      </c>
+      <c r="BI33" s="7">
+        <v>1040</v>
+      </c>
+      <c r="BJ33" s="7">
+        <v>1058</v>
+      </c>
+      <c r="BK33" s="7">
+        <v>1101</v>
+      </c>
+      <c r="BL33" s="7">
+        <v>1146</v>
+      </c>
+      <c r="BM33" s="7">
+        <v>1209</v>
+      </c>
+      <c r="BN33" s="7">
+        <v>1270</v>
+      </c>
+      <c r="BO33" s="7">
+        <v>1312</v>
+      </c>
+      <c r="BP33" s="7">
+        <v>1466</v>
+      </c>
+      <c r="BV33" s="7">
+        <f t="shared" ref="BV33:BV41" si="1">SUM(E33:H33)</f>
+        <v>2576</v>
+      </c>
+      <c r="BW33" s="7">
+        <f t="shared" ref="BW33:BW42" si="2">SUM(I33:L33)</f>
+        <v>2599</v>
+      </c>
+      <c r="BX33" s="7">
+        <f t="shared" ref="BX33:BX42" si="3">SUM(M33:P33)</f>
+        <v>2659</v>
+      </c>
+      <c r="BY33" s="7">
+        <f t="shared" ref="BY33:BY42" si="4">SUM(Q33:T33)</f>
+        <v>2349</v>
+      </c>
+      <c r="BZ33" s="7">
+        <f t="shared" ref="BZ33:BZ42" si="5">SUM(U33:X33)</f>
+        <v>2174</v>
+      </c>
+      <c r="CA33" s="7">
+        <f t="shared" ref="CA33:CA42" si="6">SUM(Y33:AB33)</f>
+        <v>2210</v>
+      </c>
+      <c r="CB33" s="7">
+        <f t="shared" ref="CB33:CB42" si="7">SUM(AC33:AF33)</f>
+        <v>2173</v>
+      </c>
+      <c r="CC33" s="7">
+        <f t="shared" ref="CC33:CC42" si="8">SUM(AG33:AJ33)</f>
+        <v>2424</v>
+      </c>
+      <c r="CD33" s="7">
+        <f t="shared" ref="CD33:CD42" si="9">SUM(AK33:AN33)</f>
+        <v>2593</v>
+      </c>
+      <c r="CE33" s="7">
+        <f t="shared" ref="CE33:CE42" si="10">SUM(AO33:AR33)</f>
+        <v>2813</v>
+      </c>
+      <c r="CF33" s="7">
+        <f t="shared" ref="CF33:CF42" si="11">SUM(AS33:AV33)</f>
+        <v>3116</v>
+      </c>
+      <c r="CG33" s="7">
+        <f t="shared" ref="CG33:CG42" si="12">SUM(AW33:AZ33)</f>
+        <v>3465</v>
+      </c>
+      <c r="CH33" s="7">
+        <f t="shared" ref="CH33:CH42" si="13">SUM(BA33:BD33)</f>
+        <v>3711</v>
+      </c>
+      <c r="CI33" s="7">
+        <f t="shared" ref="CI33:CI42" si="14">SUM(BE33:BH33)</f>
+        <v>3956</v>
+      </c>
+      <c r="CJ33" s="7">
+        <f t="shared" ref="CJ33:CJ42" si="15">SUM(BI33:BL33)</f>
+        <v>4345</v>
+      </c>
+      <c r="CK33" s="7">
+        <f t="shared" ref="CK33:CK42" si="16">SUM(BM33:BP33)</f>
+        <v>5257</v>
+      </c>
+    </row>
+    <row r="34" spans="2:89" s="7" customFormat="1" ht="12.75">
+      <c r="B34" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1420</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1323</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1403</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1444</v>
+      </c>
+      <c r="G34" s="7">
+        <v>1396</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1369</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1297</v>
+      </c>
+      <c r="J34" s="7">
+        <v>1274</v>
+      </c>
+      <c r="K34" s="7">
+        <v>1293</v>
+      </c>
+      <c r="L34" s="7">
+        <v>1343</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1294</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1287</v>
+      </c>
+      <c r="O34" s="7">
+        <v>1194</v>
+      </c>
+      <c r="P34" s="7">
+        <v>1188</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>1235</v>
+      </c>
+      <c r="R34" s="7">
+        <v>1250</v>
+      </c>
+      <c r="S34" s="7">
+        <v>1177</v>
+      </c>
+      <c r="T34" s="7">
+        <v>1238</v>
+      </c>
+      <c r="U34" s="7">
+        <v>1183</v>
+      </c>
+      <c r="V34" s="7">
+        <v>1279</v>
+      </c>
+      <c r="W34" s="7">
+        <v>1225</v>
+      </c>
+      <c r="X34" s="7">
+        <v>1282</v>
+      </c>
+      <c r="Y34" s="7">
+        <v>1237</v>
+      </c>
+      <c r="Z34" s="7">
+        <v>1310</v>
+      </c>
+      <c r="AA34" s="7">
+        <v>1296</v>
+      </c>
+      <c r="AB34" s="7">
+        <v>1327</v>
+      </c>
+      <c r="AC34" s="7">
+        <v>1248</v>
+      </c>
+      <c r="AD34" s="7">
+        <v>1303</v>
+      </c>
+      <c r="AE34" s="7">
+        <v>1349</v>
+      </c>
+      <c r="AF34" s="7">
+        <v>1404</v>
+      </c>
+      <c r="AG34" s="7">
+        <v>1391</v>
+      </c>
+      <c r="AH34" s="7">
+        <v>1487</v>
+      </c>
+      <c r="AI34" s="7">
+        <v>1511</v>
+      </c>
+      <c r="AJ34" s="7">
+        <v>1573</v>
+      </c>
+      <c r="AK34" s="7">
+        <v>1510</v>
+      </c>
+      <c r="AL34" s="7">
+        <v>1625</v>
+      </c>
+      <c r="AM34" s="7">
+        <v>1585</v>
+      </c>
+      <c r="AN34" s="7">
+        <v>1735</v>
+      </c>
+      <c r="AO34" s="7">
+        <v>1707</v>
+      </c>
+      <c r="AP34" s="7">
+        <v>1751</v>
+      </c>
+      <c r="AQ34" s="7">
+        <v>1720</v>
+      </c>
+      <c r="AR34" s="7">
+        <v>1833</v>
+      </c>
+      <c r="AS34" s="7">
+        <v>1763</v>
+      </c>
+      <c r="AT34" s="7">
+        <v>1873</v>
+      </c>
+      <c r="AU34" s="7">
+        <v>1930</v>
+      </c>
+      <c r="AV34" s="7">
+        <v>2054</v>
+      </c>
+      <c r="AW34" s="7">
+        <v>1737</v>
+      </c>
+      <c r="AX34" s="7">
+        <v>1212</v>
+      </c>
+      <c r="AY34" s="7">
+        <v>1790</v>
+      </c>
+      <c r="AZ34" s="7">
+        <v>1709</v>
+      </c>
+      <c r="BA34" s="7">
+        <v>1858</v>
+      </c>
+      <c r="BB34" s="7">
+        <v>2132</v>
+      </c>
+      <c r="BC34" s="7">
+        <v>2032</v>
+      </c>
+      <c r="BD34" s="7">
+        <v>2155</v>
+      </c>
+      <c r="BE34" s="7">
+        <v>2071</v>
+      </c>
+      <c r="BF34" s="7">
+        <v>2233</v>
+      </c>
+      <c r="BG34" s="7">
+        <v>2191</v>
+      </c>
+      <c r="BH34" s="7">
+        <v>2232</v>
+      </c>
+      <c r="BI34" s="7">
+        <v>2349</v>
+      </c>
+      <c r="BJ34" s="7">
+        <v>2542</v>
+      </c>
+      <c r="BK34" s="7">
+        <v>2426</v>
+      </c>
+      <c r="BL34" s="7">
+        <v>2579</v>
+      </c>
+      <c r="BM34" s="7">
+        <v>2648</v>
+      </c>
+      <c r="BN34" s="7">
+        <v>2850</v>
+      </c>
+      <c r="BO34" s="7">
+        <v>2897</v>
+      </c>
+      <c r="BP34" s="7">
+        <v>3095</v>
+      </c>
+      <c r="BV34" s="7">
+        <f t="shared" si="1"/>
+        <v>5612</v>
+      </c>
+      <c r="BW34" s="7">
+        <f t="shared" si="2"/>
+        <v>5207</v>
+      </c>
+      <c r="BX34" s="7">
+        <f t="shared" si="3"/>
+        <v>4963</v>
+      </c>
+      <c r="BY34" s="7">
+        <f t="shared" si="4"/>
+        <v>4900</v>
+      </c>
+      <c r="BZ34" s="7">
+        <f t="shared" si="5"/>
+        <v>4969</v>
+      </c>
+      <c r="CA34" s="7">
+        <f t="shared" si="6"/>
+        <v>5170</v>
+      </c>
+      <c r="CB34" s="7">
+        <f t="shared" si="7"/>
+        <v>5304</v>
+      </c>
+      <c r="CC34" s="7">
+        <f t="shared" si="8"/>
+        <v>5962</v>
+      </c>
+      <c r="CD34" s="7">
+        <f t="shared" si="9"/>
+        <v>6455</v>
+      </c>
+      <c r="CE34" s="7">
+        <f t="shared" si="10"/>
+        <v>7011</v>
+      </c>
+      <c r="CF34" s="7">
+        <f t="shared" si="11"/>
+        <v>7620</v>
+      </c>
+      <c r="CG34" s="7">
+        <f t="shared" si="12"/>
+        <v>6448</v>
+      </c>
+      <c r="CH34" s="7">
+        <f t="shared" si="13"/>
+        <v>8177</v>
+      </c>
+      <c r="CI34" s="7">
+        <f t="shared" si="14"/>
+        <v>8727</v>
+      </c>
+      <c r="CJ34" s="7">
+        <f t="shared" si="15"/>
+        <v>9896</v>
+      </c>
+      <c r="CK34" s="7">
+        <f t="shared" si="16"/>
+        <v>11490</v>
+      </c>
+    </row>
+    <row r="35" spans="2:89" s="7" customFormat="1" ht="12.75">
+      <c r="B35" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="7">
+        <v>655</v>
+      </c>
+      <c r="D35" s="7">
+        <v>610</v>
+      </c>
+      <c r="E35" s="7">
+        <v>651</v>
+      </c>
+      <c r="F35" s="7">
+        <v>671</v>
+      </c>
+      <c r="G35" s="7">
+        <v>665</v>
+      </c>
+      <c r="H35" s="7">
+        <v>648</v>
+      </c>
+      <c r="I35" s="7">
+        <v>628</v>
+      </c>
+      <c r="J35" s="7">
+        <v>634</v>
+      </c>
+      <c r="K35" s="7">
+        <v>634</v>
+      </c>
+      <c r="L35" s="7">
+        <v>686</v>
+      </c>
+      <c r="M35" s="7">
+        <v>602</v>
+      </c>
+      <c r="N35" s="7">
+        <v>649</v>
+      </c>
+      <c r="O35" s="7">
+        <v>635</v>
+      </c>
+      <c r="P35" s="7">
+        <v>608</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>669</v>
+      </c>
+      <c r="R35" s="7">
+        <v>649</v>
+      </c>
+      <c r="S35" s="7">
+        <v>569</v>
+      </c>
+      <c r="T35" s="7">
+        <v>642</v>
+      </c>
+      <c r="U35" s="7">
+        <v>608</v>
+      </c>
+      <c r="V35" s="7">
+        <v>661</v>
+      </c>
+      <c r="W35" s="7">
+        <v>658</v>
+      </c>
+      <c r="X35" s="7">
+        <v>751</v>
+      </c>
+      <c r="Y35" s="7">
+        <v>666</v>
+      </c>
+      <c r="Z35" s="7">
+        <v>743</v>
+      </c>
+      <c r="AA35" s="7">
+        <v>741</v>
+      </c>
+      <c r="AB35" s="7">
+        <v>752</v>
+      </c>
+      <c r="AC35" s="7">
+        <v>668</v>
+      </c>
+      <c r="AD35" s="7">
+        <v>700</v>
+      </c>
+      <c r="AE35" s="7">
+        <v>729</v>
+      </c>
+      <c r="AF35" s="7">
+        <v>776</v>
+      </c>
+      <c r="AG35" s="7">
+        <v>716</v>
+      </c>
+      <c r="AH35" s="7">
+        <v>779</v>
+      </c>
+      <c r="AI35" s="7">
+        <v>772</v>
+      </c>
+      <c r="AJ35" s="7">
+        <v>832</v>
+      </c>
+      <c r="AK35" s="7">
+        <v>794</v>
+      </c>
+      <c r="AL35" s="7">
+        <v>815</v>
+      </c>
+      <c r="AM35" s="7">
+        <v>800</v>
+      </c>
+      <c r="AN35" s="7">
+        <v>885</v>
+      </c>
+      <c r="AO35" s="7">
+        <v>860</v>
+      </c>
+      <c r="AP35" s="7">
+        <v>886</v>
+      </c>
+      <c r="AQ35" s="7">
+        <v>870</v>
+      </c>
+      <c r="AR35" s="7">
+        <v>953</v>
+      </c>
+      <c r="AS35" s="7">
+        <v>869</v>
+      </c>
+      <c r="AT35" s="7">
+        <v>968</v>
+      </c>
+      <c r="AU35" s="7">
+        <v>1012</v>
+      </c>
+      <c r="AV35" s="7">
+        <v>1092</v>
+      </c>
+      <c r="AW35" s="7">
+        <v>978</v>
+      </c>
+      <c r="AX35" s="7">
+        <v>798</v>
+      </c>
+      <c r="AY35" s="7">
+        <v>984</v>
+      </c>
+      <c r="AZ35" s="7">
+        <v>1027</v>
+      </c>
+      <c r="BA35" s="7">
+        <v>1019</v>
+      </c>
+      <c r="BB35" s="7">
+        <v>1121</v>
+      </c>
+      <c r="BC35" s="7">
+        <v>1066</v>
+      </c>
+      <c r="BD35" s="7">
+        <v>1153</v>
+      </c>
+      <c r="BE35" s="7">
+        <v>1060</v>
+      </c>
+      <c r="BF35" s="7">
+        <v>1165</v>
+      </c>
+      <c r="BG35" s="7">
+        <v>1132</v>
+      </c>
+      <c r="BH35" s="7">
+        <v>1163</v>
+      </c>
+      <c r="BI35" s="7">
+        <v>1215</v>
+      </c>
+      <c r="BJ35" s="7">
+        <v>1354</v>
+      </c>
+      <c r="BK35" s="7">
+        <v>1242</v>
+      </c>
+      <c r="BL35" s="7">
+        <v>1379</v>
+      </c>
+      <c r="BM35" s="7">
+        <v>1364</v>
+      </c>
+      <c r="BN35" s="7">
+        <v>1446</v>
+      </c>
+      <c r="BO35" s="7">
+        <v>1562</v>
+      </c>
+      <c r="BP35" s="7">
+        <v>1612</v>
+      </c>
+      <c r="BV35" s="7">
+        <f t="shared" si="1"/>
+        <v>2635</v>
+      </c>
+      <c r="BW35" s="7">
+        <f t="shared" si="2"/>
+        <v>2582</v>
+      </c>
+      <c r="BX35" s="7">
+        <f t="shared" si="3"/>
+        <v>2494</v>
+      </c>
+      <c r="BY35" s="7">
+        <f t="shared" si="4"/>
+        <v>2529</v>
+      </c>
+      <c r="BZ35" s="7">
+        <f t="shared" si="5"/>
+        <v>2678</v>
+      </c>
+      <c r="CA35" s="7">
+        <f t="shared" si="6"/>
+        <v>2902</v>
+      </c>
+      <c r="CB35" s="7">
+        <f t="shared" si="7"/>
+        <v>2873</v>
+      </c>
+      <c r="CC35" s="7">
+        <f t="shared" si="8"/>
+        <v>3099</v>
+      </c>
+      <c r="CD35" s="7">
+        <f t="shared" si="9"/>
+        <v>3294</v>
+      </c>
+      <c r="CE35" s="7">
+        <f t="shared" si="10"/>
+        <v>3569</v>
+      </c>
+      <c r="CF35" s="7">
+        <f t="shared" si="11"/>
+        <v>3941</v>
+      </c>
+      <c r="CG35" s="7">
+        <f t="shared" si="12"/>
+        <v>3787</v>
+      </c>
+      <c r="CH35" s="7">
+        <f t="shared" si="13"/>
+        <v>4359</v>
+      </c>
+      <c r="CI35" s="7">
+        <f t="shared" si="14"/>
+        <v>4520</v>
+      </c>
+      <c r="CJ35" s="7">
+        <f t="shared" si="15"/>
+        <v>5190</v>
+      </c>
+      <c r="CK35" s="7">
+        <f t="shared" si="16"/>
+        <v>5984</v>
+      </c>
+    </row>
+    <row r="36" spans="2:89" s="7" customFormat="1" ht="12.75">
+      <c r="B36" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="7">
+        <v>269</v>
+      </c>
+      <c r="D36" s="7">
+        <v>244</v>
+      </c>
+      <c r="E36" s="7">
+        <v>257</v>
+      </c>
+      <c r="F36" s="7">
+        <v>280</v>
+      </c>
+      <c r="G36" s="7">
+        <v>258</v>
+      </c>
+      <c r="H36" s="7">
+        <v>261</v>
+      </c>
+      <c r="I36" s="7">
+        <v>253</v>
+      </c>
+      <c r="J36" s="7">
+        <v>232</v>
+      </c>
+      <c r="K36" s="7">
+        <v>230</v>
+      </c>
+      <c r="L36" s="7">
+        <v>224</v>
+      </c>
+      <c r="M36" s="7">
+        <v>212</v>
+      </c>
+      <c r="N36" s="7">
+        <v>223</v>
+      </c>
+      <c r="O36" s="7">
+        <v>229</v>
+      </c>
+      <c r="P36" s="7">
+        <v>231</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>215</v>
+      </c>
+      <c r="R36" s="7">
+        <v>213</v>
+      </c>
+      <c r="S36" s="7">
+        <v>220</v>
+      </c>
+      <c r="T36" s="7">
+        <v>238</v>
+      </c>
+      <c r="U36" s="7">
+        <v>204</v>
+      </c>
+      <c r="V36" s="7">
+        <v>223</v>
+      </c>
+      <c r="W36" s="7">
+        <v>217</v>
+      </c>
+      <c r="X36" s="7">
+        <v>217</v>
+      </c>
+      <c r="Y36" s="7">
+        <v>191</v>
+      </c>
+      <c r="Z36" s="7">
+        <v>206</v>
+      </c>
+      <c r="AA36" s="7">
+        <v>212</v>
+      </c>
+      <c r="AB36" s="7">
+        <v>208</v>
+      </c>
+      <c r="AC36" s="7">
+        <v>192</v>
+      </c>
+      <c r="AD36" s="7">
+        <v>220</v>
+      </c>
+      <c r="AE36" s="7">
+        <v>221</v>
+      </c>
+      <c r="AF36" s="7">
+        <v>243</v>
+      </c>
+      <c r="AG36" s="7">
+        <v>210</v>
+      </c>
+      <c r="AH36" s="7">
+        <v>222</v>
+      </c>
+      <c r="AI36" s="7">
+        <v>232</v>
+      </c>
+      <c r="AJ36" s="7">
+        <v>256</v>
+      </c>
+      <c r="AK36" s="7">
+        <v>235</v>
+      </c>
+      <c r="AL36" s="7">
+        <v>244</v>
+      </c>
+      <c r="AM36" s="7">
+        <v>254</v>
+      </c>
+      <c r="AN36" s="7">
+        <v>264</v>
+      </c>
+      <c r="AO36" s="7">
+        <v>261</v>
+      </c>
+      <c r="AP36" s="7">
+        <v>275</v>
+      </c>
+      <c r="AQ36" s="7">
+        <v>289</v>
+      </c>
+      <c r="AR36" s="7">
+        <v>288</v>
+      </c>
+      <c r="AS36" s="7">
+        <v>280</v>
+      </c>
+      <c r="AT36" s="7">
+        <v>280</v>
+      </c>
+      <c r="AU36" s="7">
+        <v>306</v>
+      </c>
+      <c r="AV36" s="7">
+        <v>308</v>
+      </c>
+      <c r="AW36" s="7">
+        <v>300</v>
+      </c>
+      <c r="AX36" s="7">
+        <v>242</v>
+      </c>
+      <c r="AY36" s="7">
+        <v>315</v>
+      </c>
+      <c r="AZ36" s="7">
+        <v>286</v>
+      </c>
+      <c r="BA36" s="7">
+        <v>276</v>
+      </c>
+      <c r="BB36" s="7">
+        <v>298</v>
+      </c>
+      <c r="BC36" s="7">
+        <v>310</v>
+      </c>
+      <c r="BD36" s="7">
+        <v>320</v>
+      </c>
+      <c r="BE36" s="7">
+        <v>319</v>
+      </c>
+      <c r="BF36" s="7">
+        <v>335</v>
+      </c>
+      <c r="BG36" s="7">
+        <v>339</v>
+      </c>
+      <c r="BH36" s="7">
+        <v>330</v>
+      </c>
+      <c r="BI36" s="7">
+        <v>337</v>
+      </c>
+      <c r="BJ36" s="7">
+        <v>359</v>
+      </c>
+      <c r="BK36" s="7">
+        <v>356</v>
+      </c>
+      <c r="BL36" s="7">
+        <v>362</v>
+      </c>
+      <c r="BM36" s="7">
+        <v>366</v>
+      </c>
+      <c r="BN36" s="7">
+        <v>383</v>
+      </c>
+      <c r="BO36" s="7">
+        <v>407</v>
+      </c>
+      <c r="BP36" s="7">
+        <v>459</v>
+      </c>
+      <c r="BV36" s="7">
+        <f t="shared" si="1"/>
+        <v>1056</v>
+      </c>
+      <c r="BW36" s="7">
+        <f t="shared" si="2"/>
+        <v>939</v>
+      </c>
+      <c r="BX36" s="7">
+        <f t="shared" si="3"/>
+        <v>895</v>
+      </c>
+      <c r="BY36" s="7">
+        <f t="shared" si="4"/>
+        <v>886</v>
+      </c>
+      <c r="BZ36" s="7">
+        <f t="shared" si="5"/>
+        <v>861</v>
+      </c>
+      <c r="CA36" s="7">
+        <f t="shared" si="6"/>
+        <v>817</v>
+      </c>
+      <c r="CB36" s="7">
+        <f t="shared" si="7"/>
+        <v>876</v>
+      </c>
+      <c r="CC36" s="7">
+        <f t="shared" si="8"/>
+        <v>920</v>
+      </c>
+      <c r="CD36" s="7">
+        <f t="shared" si="9"/>
+        <v>997</v>
+      </c>
+      <c r="CE36" s="7">
+        <f t="shared" si="10"/>
+        <v>1113</v>
+      </c>
+      <c r="CF36" s="7">
+        <f t="shared" si="11"/>
+        <v>1174</v>
+      </c>
+      <c r="CG36" s="7">
+        <f t="shared" si="12"/>
+        <v>1143</v>
+      </c>
+      <c r="CH36" s="7">
+        <f t="shared" si="13"/>
+        <v>1204</v>
+      </c>
+      <c r="CI36" s="7">
+        <f t="shared" si="14"/>
+        <v>1323</v>
+      </c>
+      <c r="CJ36" s="7">
+        <f t="shared" si="15"/>
+        <v>1414</v>
+      </c>
+      <c r="CK36" s="7">
+        <f t="shared" si="16"/>
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="37" spans="2:89" s="7" customFormat="1" ht="12.75">
+      <c r="B37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1117</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1295</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1392</v>
+      </c>
+      <c r="F37" s="7">
+        <v>1169</v>
+      </c>
+      <c r="G37" s="7">
+        <v>1345</v>
+      </c>
+      <c r="H37" s="7">
+        <v>2600</v>
+      </c>
+      <c r="I37" s="7">
+        <v>2783</v>
+      </c>
+      <c r="J37" s="7">
+        <v>1043</v>
+      </c>
+      <c r="K37" s="7">
+        <v>1042</v>
+      </c>
+      <c r="L37" s="7">
+        <v>995</v>
+      </c>
+      <c r="M37" s="7">
+        <v>972</v>
+      </c>
+      <c r="N37" s="7">
+        <v>1050</v>
+      </c>
+      <c r="O37" s="7">
+        <v>1020</v>
+      </c>
+      <c r="P37" s="7">
+        <v>1017</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>1039</v>
+      </c>
+      <c r="R37" s="7">
+        <v>4837</v>
+      </c>
+      <c r="S37" s="7">
+        <v>1771</v>
+      </c>
+      <c r="T37" s="7">
+        <v>1121</v>
+      </c>
+      <c r="U37" s="7">
+        <v>1513</v>
+      </c>
+      <c r="V37" s="7">
+        <v>1059</v>
+      </c>
+      <c r="W37" s="7">
+        <v>1122</v>
+      </c>
+      <c r="X37" s="7">
+        <v>1155</v>
+      </c>
+      <c r="Y37" s="7">
+        <v>1040</v>
+      </c>
+      <c r="Z37" s="7">
+        <v>1379</v>
+      </c>
+      <c r="AA37" s="7">
+        <v>1232</v>
+      </c>
+      <c r="AB37" s="7">
+        <v>1820</v>
+      </c>
+      <c r="AC37" s="7">
+        <v>1224</v>
+      </c>
+      <c r="AD37" s="7">
+        <v>1084</v>
+      </c>
+      <c r="AE37" s="7">
+        <v>1648</v>
+      </c>
+      <c r="AF37" s="7">
+        <v>1631</v>
+      </c>
+      <c r="AG37" s="7">
+        <v>1098</v>
+      </c>
+      <c r="AH37" s="7">
+        <v>1821</v>
+      </c>
+      <c r="AI37" s="7">
+        <v>1163</v>
+      </c>
+      <c r="AJ37" s="7">
+        <v>1433</v>
+      </c>
+      <c r="AK37" s="7">
+        <v>1146</v>
+      </c>
+      <c r="AL37" s="7">
+        <v>1400</v>
+      </c>
+      <c r="AM37" s="7">
+        <v>1208</v>
+      </c>
+      <c r="AN37" s="7">
+        <v>1416</v>
+      </c>
+      <c r="AO37" s="7">
+        <v>1299</v>
+      </c>
+      <c r="AP37" s="7">
+        <v>1360</v>
+      </c>
+      <c r="AQ37" s="7">
+        <v>1332</v>
+      </c>
+      <c r="AR37" s="7">
+        <v>1513</v>
+      </c>
+      <c r="AS37" s="7">
+        <v>1222</v>
+      </c>
+      <c r="AT37" s="7">
+        <v>1489</v>
+      </c>
+      <c r="AU37" s="7">
+        <v>1547</v>
+      </c>
+      <c r="AV37" s="7">
+        <v>1844</v>
+      </c>
+      <c r="AW37" s="7">
+        <v>1591</v>
+      </c>
+      <c r="AX37" s="7">
+        <v>1282</v>
+      </c>
+      <c r="AY37" s="7">
+        <v>1996</v>
+      </c>
+      <c r="AZ37" s="7">
+        <v>1659</v>
+      </c>
+      <c r="BA37" s="7">
+        <v>1488</v>
+      </c>
+      <c r="BB37" s="7">
+        <v>1870</v>
+      </c>
+      <c r="BC37" s="7">
+        <v>1645</v>
+      </c>
+      <c r="BD37" s="7">
+        <v>1975</v>
+      </c>
+      <c r="BE37" s="7">
+        <v>1605</v>
+      </c>
+      <c r="BF37" s="7">
+        <v>1810</v>
+      </c>
+      <c r="BG37" s="7">
+        <v>1833</v>
+      </c>
+      <c r="BH37" s="7">
+        <v>1830</v>
+      </c>
+      <c r="BI37" s="7">
+        <v>1797</v>
+      </c>
+      <c r="BJ37" s="7">
+        <v>2028</v>
+      </c>
+      <c r="BK37" s="7">
+        <v>1733</v>
+      </c>
+      <c r="BL37" s="7">
+        <v>1995</v>
+      </c>
+      <c r="BM37" s="7">
+        <v>1973</v>
+      </c>
+      <c r="BN37" s="7">
+        <v>2330</v>
+      </c>
+      <c r="BO37" s="7">
+        <v>2164</v>
+      </c>
+      <c r="BP37" s="7">
+        <v>2420</v>
+      </c>
+      <c r="BV37" s="7">
+        <f t="shared" si="1"/>
+        <v>6506</v>
+      </c>
+      <c r="BW37" s="7">
+        <f t="shared" si="2"/>
+        <v>5863</v>
+      </c>
+      <c r="BX37" s="7">
+        <f t="shared" si="3"/>
+        <v>4059</v>
+      </c>
+      <c r="BY37" s="7">
+        <f t="shared" si="4"/>
+        <v>8768</v>
+      </c>
+      <c r="BZ37" s="7">
+        <f t="shared" si="5"/>
+        <v>4849</v>
+      </c>
+      <c r="CA37" s="7">
+        <f t="shared" si="6"/>
+        <v>5471</v>
+      </c>
+      <c r="CB37" s="7">
+        <f t="shared" si="7"/>
+        <v>5587</v>
+      </c>
+      <c r="CC37" s="7">
+        <f t="shared" si="8"/>
+        <v>5515</v>
+      </c>
+      <c r="CD37" s="7">
+        <f t="shared" si="9"/>
+        <v>5170</v>
+      </c>
+      <c r="CE37" s="7">
+        <f t="shared" si="10"/>
+        <v>5504</v>
+      </c>
+      <c r="CF37" s="7">
+        <f t="shared" si="11"/>
+        <v>6102</v>
+      </c>
+      <c r="CG37" s="7">
+        <f t="shared" si="12"/>
+        <v>6528</v>
+      </c>
+      <c r="CH37" s="7">
+        <f t="shared" si="13"/>
+        <v>6978</v>
+      </c>
+      <c r="CI37" s="7">
+        <f t="shared" si="14"/>
+        <v>7078</v>
+      </c>
+      <c r="CJ37" s="7">
+        <f t="shared" si="15"/>
+        <v>7553</v>
+      </c>
+      <c r="CK37" s="7">
+        <f t="shared" si="16"/>
+        <v>8887</v>
+      </c>
+    </row>
+    <row r="38" spans="2:89" s="7" customFormat="1" ht="12.75">
+      <c r="B38" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="7">
+        <v>303</v>
+      </c>
+      <c r="D38" s="7">
+        <v>28</v>
+      </c>
+      <c r="E38" s="7">
+        <v>11</v>
+      </c>
+      <c r="F38" s="7">
+        <v>275</v>
+      </c>
+      <c r="G38" s="7">
+        <v>51</v>
+      </c>
+      <c r="H38" s="7">
+        <v>-1231</v>
+      </c>
+      <c r="I38" s="7">
+        <v>-1486</v>
+      </c>
+      <c r="J38" s="7">
+        <v>231</v>
+      </c>
+      <c r="K38" s="7">
+        <v>251</v>
+      </c>
+      <c r="L38" s="7">
+        <v>348</v>
+      </c>
+      <c r="M38" s="7">
+        <v>322</v>
+      </c>
+      <c r="N38" s="7">
+        <v>237</v>
+      </c>
+      <c r="O38" s="7">
+        <v>174</v>
+      </c>
+      <c r="P38" s="7">
+        <v>171</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>196</v>
+      </c>
+      <c r="R38" s="7">
+        <v>-3587</v>
+      </c>
+      <c r="S38" s="7">
+        <v>-594</v>
+      </c>
+      <c r="T38" s="7">
+        <v>117</v>
+      </c>
+      <c r="U38" s="7">
+        <v>-330</v>
+      </c>
+      <c r="V38" s="7">
+        <v>220</v>
+      </c>
+      <c r="W38" s="7">
+        <v>103</v>
+      </c>
+      <c r="X38" s="7">
+        <v>127</v>
+      </c>
+      <c r="Y38" s="7">
+        <v>197</v>
+      </c>
+      <c r="Z38" s="7">
+        <v>-69</v>
+      </c>
+      <c r="AA38" s="7">
+        <v>64</v>
+      </c>
+      <c r="AB38" s="7">
+        <v>-493</v>
+      </c>
+      <c r="AC38" s="7">
+        <v>24</v>
+      </c>
+      <c r="AD38" s="7">
+        <v>219</v>
+      </c>
+      <c r="AE38" s="7">
+        <v>-299</v>
+      </c>
+      <c r="AF38" s="7">
+        <v>-227</v>
+      </c>
+      <c r="AG38" s="7">
+        <v>293</v>
+      </c>
+      <c r="AH38" s="7">
+        <v>-334</v>
+      </c>
+      <c r="AI38" s="7">
+        <v>348</v>
+      </c>
+      <c r="AJ38" s="7">
+        <v>140</v>
+      </c>
+      <c r="AK38" s="7">
+        <v>364</v>
+      </c>
+      <c r="AL38" s="7">
+        <v>225</v>
+      </c>
+      <c r="AM38" s="7">
+        <v>377</v>
+      </c>
+      <c r="AN38" s="7">
+        <v>319</v>
+      </c>
+      <c r="AO38" s="7">
+        <v>407</v>
+      </c>
+      <c r="AP38" s="7">
+        <v>392</v>
+      </c>
+      <c r="AQ38" s="7">
+        <v>388</v>
+      </c>
+      <c r="AR38" s="7">
+        <v>319</v>
+      </c>
+      <c r="AS38" s="7">
+        <v>541</v>
+      </c>
+      <c r="AT38" s="7">
+        <v>384</v>
+      </c>
+      <c r="AU38" s="7">
+        <v>383</v>
+      </c>
+      <c r="AV38" s="7">
+        <v>210</v>
+      </c>
+      <c r="AW38" s="7">
+        <v>146</v>
+      </c>
+      <c r="AX38" s="7">
+        <v>-71</v>
+      </c>
+      <c r="AY38" s="7">
+        <v>-205</v>
+      </c>
+      <c r="AZ38" s="7">
+        <v>50</v>
+      </c>
+      <c r="BA38" s="7">
+        <v>370</v>
+      </c>
+      <c r="BB38" s="7">
+        <v>262</v>
+      </c>
+      <c r="BC38" s="7">
+        <v>387</v>
+      </c>
+      <c r="BD38" s="7">
+        <v>180</v>
+      </c>
+      <c r="BE38" s="7">
+        <v>466</v>
+      </c>
+      <c r="BF38" s="7">
+        <v>423</v>
+      </c>
+      <c r="BG38" s="7">
+        <v>358</v>
+      </c>
+      <c r="BH38" s="7">
+        <v>402</v>
+      </c>
+      <c r="BI38" s="7">
+        <v>552</v>
+      </c>
+      <c r="BJ38" s="7">
+        <v>514</v>
+      </c>
+      <c r="BK38" s="7">
+        <v>693</v>
+      </c>
+      <c r="BL38" s="7">
+        <v>584</v>
+      </c>
+      <c r="BM38" s="7">
+        <v>675</v>
+      </c>
+      <c r="BN38" s="7">
+        <v>520</v>
+      </c>
+      <c r="BO38" s="7">
+        <v>733</v>
+      </c>
+      <c r="BP38" s="7">
+        <v>675</v>
+      </c>
+      <c r="BV38" s="7">
+        <f t="shared" si="1"/>
+        <v>-894</v>
+      </c>
+      <c r="BW38" s="7">
+        <f t="shared" si="2"/>
+        <v>-656</v>
+      </c>
+      <c r="BX38" s="7">
+        <f t="shared" si="3"/>
+        <v>904</v>
+      </c>
+      <c r="BY38" s="7">
+        <f t="shared" si="4"/>
+        <v>-3868</v>
+      </c>
+      <c r="BZ38" s="7">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="CA38" s="7">
+        <f t="shared" si="6"/>
+        <v>-301</v>
+      </c>
+      <c r="CB38" s="7">
+        <f t="shared" si="7"/>
+        <v>-283</v>
+      </c>
+      <c r="CC38" s="7">
+        <f t="shared" si="8"/>
+        <v>447</v>
+      </c>
+      <c r="CD38" s="7">
+        <f t="shared" si="9"/>
+        <v>1285</v>
+      </c>
+      <c r="CE38" s="7">
+        <f t="shared" si="10"/>
+        <v>1506</v>
+      </c>
+      <c r="CF38" s="7">
+        <f t="shared" si="11"/>
+        <v>1518</v>
+      </c>
+      <c r="CG38" s="7">
+        <f t="shared" si="12"/>
+        <v>-80</v>
+      </c>
+      <c r="CH38" s="7">
+        <f t="shared" si="13"/>
+        <v>1199</v>
+      </c>
+      <c r="CI38" s="7">
+        <f t="shared" si="14"/>
+        <v>1649</v>
+      </c>
+      <c r="CJ38" s="7">
+        <f t="shared" si="15"/>
+        <v>2343</v>
+      </c>
+      <c r="CK38" s="7">
+        <f t="shared" si="16"/>
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="39" spans="2:89" s="7" customFormat="1" ht="12.75">
+      <c r="B39" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="7">
+        <v>-203</v>
+      </c>
+      <c r="D39" s="7">
+        <v>-96</v>
+      </c>
+      <c r="E39" s="7">
+        <v>-108</v>
+      </c>
+      <c r="F39" s="7">
+        <v>-95</v>
+      </c>
+      <c r="G39" s="7">
+        <v>-95</v>
+      </c>
+      <c r="H39" s="7">
+        <v>-116</v>
+      </c>
+      <c r="I39" s="7">
+        <v>-89</v>
+      </c>
+      <c r="J39" s="7">
+        <v>-112</v>
+      </c>
+      <c r="K39" s="7">
+        <v>-88</v>
+      </c>
+      <c r="L39" s="7">
+        <v>-118</v>
+      </c>
+      <c r="M39" s="7">
+        <v>-49</v>
+      </c>
+      <c r="N39" s="7">
+        <v>-79</v>
+      </c>
+      <c r="O39" s="7">
+        <v>-63</v>
+      </c>
+      <c r="P39" s="7">
+        <v>-71</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>-73</v>
+      </c>
+      <c r="R39" s="7">
+        <v>-31</v>
+      </c>
+      <c r="S39" s="7">
+        <v>-69</v>
+      </c>
+      <c r="T39" s="7">
+        <v>-66</v>
+      </c>
+      <c r="U39" s="7">
+        <v>-64</v>
+      </c>
+      <c r="V39" s="7">
+        <v>-68</v>
+      </c>
+      <c r="W39" s="7">
+        <v>-143</v>
+      </c>
+      <c r="X39" s="7">
+        <v>-68</v>
+      </c>
+      <c r="Y39" s="7">
+        <v>-51</v>
+      </c>
+      <c r="Z39" s="7">
+        <v>-35</v>
+      </c>
+      <c r="AA39" s="7">
+        <v>-61</v>
+      </c>
+      <c r="AB39" s="7">
+        <v>-61</v>
+      </c>
+      <c r="AC39" s="7">
+        <v>-75</v>
+      </c>
+      <c r="AD39" s="7">
+        <v>-114</v>
+      </c>
+      <c r="AE39" s="7">
+        <v>-68</v>
+      </c>
+      <c r="AF39" s="7">
+        <v>-110</v>
+      </c>
+      <c r="AG39" s="7">
+        <v>-65</v>
+      </c>
+      <c r="AH39" s="7">
+        <v>-63</v>
+      </c>
+      <c r="AI39" s="7">
+        <v>-91</v>
+      </c>
+      <c r="AJ39" s="7">
+        <v>-51</v>
+      </c>
+      <c r="AK39" s="7">
+        <v>-59</v>
+      </c>
+      <c r="AL39" s="7">
+        <v>-134</v>
+      </c>
+      <c r="AM39" s="7">
+        <v>-68</v>
+      </c>
+      <c r="AN39" s="7">
+        <v>-92</v>
+      </c>
+      <c r="AO39" s="7">
+        <v>-84</v>
+      </c>
+      <c r="AP39" s="7">
+        <v>-45</v>
+      </c>
+      <c r="AQ39" s="7">
+        <v>68</v>
+      </c>
+      <c r="AR39" s="7">
+        <v>-24</v>
+      </c>
+      <c r="AS39" s="7">
+        <v>-84</v>
+      </c>
+      <c r="AT39" s="7">
+        <v>-239</v>
+      </c>
+      <c r="AU39" s="7">
+        <v>-292</v>
+      </c>
+      <c r="AV39" s="7">
+        <v>-216</v>
+      </c>
+      <c r="AW39" s="7">
+        <v>-124</v>
+      </c>
+      <c r="AX39" s="7">
+        <v>-109</v>
+      </c>
+      <c r="AY39" s="7">
+        <v>-22</v>
+      </c>
+      <c r="AZ39" s="7">
+        <v>256</v>
+      </c>
+      <c r="BA39" s="7">
+        <v>-45</v>
+      </c>
+      <c r="BB39" s="7">
+        <v>-112</v>
+      </c>
+      <c r="BC39" s="7">
+        <v>95</v>
+      </c>
+      <c r="BD39" s="7">
+        <v>-61</v>
+      </c>
+      <c r="BE39" s="7">
+        <v>-310</v>
+      </c>
+      <c r="BF39" s="7">
+        <v>-78</v>
+      </c>
+      <c r="BG39" s="7">
+        <v>-114</v>
+      </c>
+      <c r="BH39" s="7">
+        <v>-6</v>
+      </c>
+      <c r="BI39" s="7">
+        <v>-108</v>
+      </c>
+      <c r="BJ39" s="7">
+        <v>-88</v>
+      </c>
+      <c r="BK39" s="7">
+        <v>-84</v>
+      </c>
+      <c r="BL39" s="7">
+        <v>-78</v>
+      </c>
+      <c r="BM39" s="7">
+        <v>-67</v>
+      </c>
+      <c r="BN39" s="7">
+        <v>-100</v>
+      </c>
+      <c r="BO39" s="7">
+        <v>-65</v>
+      </c>
+      <c r="BP39" s="7">
+        <v>-73</v>
+      </c>
+      <c r="BV39" s="7">
+        <f t="shared" si="1"/>
+        <v>-414</v>
+      </c>
+      <c r="BW39" s="7">
+        <f t="shared" si="2"/>
+        <v>-407</v>
+      </c>
+      <c r="BX39" s="7">
+        <f t="shared" si="3"/>
+        <v>-262</v>
+      </c>
+      <c r="BY39" s="7">
+        <f t="shared" si="4"/>
+        <v>-239</v>
+      </c>
+      <c r="BZ39" s="7">
+        <f t="shared" si="5"/>
+        <v>-343</v>
+      </c>
+      <c r="CA39" s="7">
+        <f t="shared" si="6"/>
+        <v>-208</v>
+      </c>
+      <c r="CB39" s="7">
+        <f t="shared" si="7"/>
+        <v>-367</v>
+      </c>
+      <c r="CC39" s="7">
+        <f t="shared" si="8"/>
+        <v>-270</v>
+      </c>
+      <c r="CD39" s="7">
+        <f t="shared" si="9"/>
+        <v>-353</v>
+      </c>
+      <c r="CE39" s="7">
+        <f t="shared" si="10"/>
+        <v>-85</v>
+      </c>
+      <c r="CF39" s="7">
+        <f t="shared" si="11"/>
+        <v>-831</v>
+      </c>
+      <c r="CG39" s="7">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="CH39" s="7">
+        <f t="shared" si="13"/>
+        <v>-123</v>
+      </c>
+      <c r="CI39" s="7">
+        <f t="shared" si="14"/>
+        <v>-508</v>
+      </c>
+      <c r="CJ39" s="7">
+        <f t="shared" si="15"/>
+        <v>-358</v>
+      </c>
+      <c r="CK39" s="7">
+        <f t="shared" si="16"/>
+        <v>-305</v>
+      </c>
+    </row>
+    <row r="40" spans="2:89" s="7" customFormat="1" ht="12.75">
+      <c r="B40" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="7">
+        <v>100</v>
+      </c>
+      <c r="D40" s="7">
+        <v>-68</v>
+      </c>
+      <c r="E40" s="7">
+        <v>-97</v>
+      </c>
+      <c r="F40" s="7">
+        <v>180</v>
+      </c>
+      <c r="G40" s="7">
+        <v>-44</v>
+      </c>
+      <c r="H40" s="7">
+        <v>-1347</v>
+      </c>
+      <c r="I40" s="7">
+        <v>-1575</v>
+      </c>
+      <c r="J40" s="7">
+        <v>119</v>
+      </c>
+      <c r="K40" s="7">
+        <v>163</v>
+      </c>
+      <c r="L40" s="7">
+        <v>230</v>
+      </c>
+      <c r="M40" s="7">
+        <v>273</v>
+      </c>
+      <c r="N40" s="7">
+        <v>158</v>
+      </c>
+      <c r="O40" s="7">
+        <v>111</v>
+      </c>
+      <c r="P40" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>123</v>
+      </c>
+      <c r="R40" s="7">
+        <v>-3618</v>
+      </c>
+      <c r="S40" s="7">
+        <v>-663</v>
+      </c>
+      <c r="T40" s="7">
+        <v>51</v>
+      </c>
+      <c r="U40" s="7">
+        <v>-394</v>
+      </c>
+      <c r="V40" s="7">
+        <v>152</v>
+      </c>
+      <c r="W40" s="7">
+        <v>-40</v>
+      </c>
+      <c r="X40" s="7">
+        <v>59</v>
+      </c>
+      <c r="Y40" s="7">
+        <v>146</v>
+      </c>
+      <c r="Z40" s="7">
+        <v>-104</v>
+      </c>
+      <c r="AA40" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB40" s="7">
+        <v>-554</v>
+      </c>
+      <c r="AC40" s="7">
+        <v>-51</v>
+      </c>
+      <c r="AD40" s="7">
+        <v>105</v>
+      </c>
+      <c r="AE40" s="7">
+        <v>-367</v>
+      </c>
+      <c r="AF40" s="7">
+        <v>-337</v>
+      </c>
+      <c r="AG40" s="7">
+        <v>228</v>
+      </c>
+      <c r="AH40" s="7">
+        <v>-397</v>
+      </c>
+      <c r="AI40" s="7">
+        <v>257</v>
+      </c>
+      <c r="AJ40" s="7">
+        <v>89</v>
+      </c>
+      <c r="AK40" s="7">
+        <v>305</v>
+      </c>
+      <c r="AL40" s="7">
+        <v>91</v>
+      </c>
+      <c r="AM40" s="7">
+        <v>309</v>
+      </c>
+      <c r="AN40" s="7">
+        <v>228</v>
+      </c>
+      <c r="AO40" s="7">
+        <v>323</v>
+      </c>
+      <c r="AP40" s="7">
+        <v>347</v>
+      </c>
+      <c r="AQ40" s="7">
+        <v>456</v>
+      </c>
+      <c r="AR40" s="7">
+        <v>296</v>
+      </c>
+      <c r="AS40" s="7">
+        <v>457</v>
+      </c>
+      <c r="AT40" s="7">
+        <v>145</v>
+      </c>
+      <c r="AU40" s="7">
+        <v>91</v>
+      </c>
+      <c r="AV40" s="7">
+        <v>-6</v>
+      </c>
+      <c r="AW40" s="7">
+        <v>22</v>
+      </c>
+      <c r="AX40" s="7">
+        <v>-181</v>
+      </c>
+      <c r="AY40" s="7">
+        <v>-227</v>
+      </c>
+      <c r="AZ40" s="7">
+        <v>307</v>
+      </c>
+      <c r="BA40" s="7">
+        <v>325</v>
+      </c>
+      <c r="BB40" s="7">
+        <v>149</v>
+      </c>
+      <c r="BC40" s="7">
+        <v>483</v>
+      </c>
+      <c r="BD40" s="7">
+        <v>119</v>
+      </c>
+      <c r="BE40" s="7">
+        <v>156</v>
+      </c>
+      <c r="BF40" s="7">
+        <v>345</v>
+      </c>
+      <c r="BG40" s="7">
+        <v>245</v>
+      </c>
+      <c r="BH40" s="7">
+        <v>395</v>
+      </c>
+      <c r="BI40" s="7">
+        <v>444</v>
+      </c>
+      <c r="BJ40" s="7">
+        <v>426</v>
+      </c>
+      <c r="BK40" s="7">
+        <v>610</v>
+      </c>
+      <c r="BL40" s="7">
+        <v>505</v>
+      </c>
+      <c r="BM40" s="7">
+        <v>608</v>
+      </c>
+      <c r="BN40" s="7">
+        <v>420</v>
+      </c>
+      <c r="BO40" s="7">
+        <v>669</v>
+      </c>
+      <c r="BP40" s="7">
+        <v>585</v>
+      </c>
+      <c r="BV40" s="7">
+        <f t="shared" si="1"/>
+        <v>-1308</v>
+      </c>
+      <c r="BW40" s="7">
+        <f t="shared" si="2"/>
+        <v>-1063</v>
+      </c>
+      <c r="BX40" s="7">
+        <f t="shared" si="3"/>
+        <v>642</v>
+      </c>
+      <c r="BY40" s="7">
+        <f t="shared" si="4"/>
+        <v>-4107</v>
+      </c>
+      <c r="BZ40" s="7">
+        <f t="shared" si="5"/>
+        <v>-223</v>
+      </c>
+      <c r="CA40" s="7">
+        <f t="shared" si="6"/>
+        <v>-509</v>
+      </c>
+      <c r="CB40" s="7">
+        <f t="shared" si="7"/>
+        <v>-650</v>
+      </c>
+      <c r="CC40" s="7">
+        <f t="shared" si="8"/>
+        <v>177</v>
+      </c>
+      <c r="CD40" s="7">
+        <f t="shared" si="9"/>
+        <v>933</v>
+      </c>
+      <c r="CE40" s="7">
+        <f t="shared" si="10"/>
+        <v>1422</v>
+      </c>
+      <c r="CF40" s="7">
+        <f t="shared" si="11"/>
+        <v>687</v>
+      </c>
+      <c r="CG40" s="7">
+        <f t="shared" si="12"/>
+        <v>-79</v>
+      </c>
+      <c r="CH40" s="7">
+        <f t="shared" si="13"/>
+        <v>1076</v>
+      </c>
+      <c r="CI40" s="7">
+        <f t="shared" si="14"/>
+        <v>1141</v>
+      </c>
+      <c r="CJ40" s="7">
+        <f t="shared" si="15"/>
+        <v>1985</v>
+      </c>
+      <c r="CK40" s="7">
+        <f t="shared" si="16"/>
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="41" spans="2:89" s="7" customFormat="1" ht="12.75">
+      <c r="B41" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="7">
+        <v>2</v>
+      </c>
+      <c r="D41" s="7">
+        <v>-6</v>
+      </c>
+      <c r="E41" s="7">
+        <v>-84</v>
+      </c>
+      <c r="F41" s="7">
+        <v>22</v>
+      </c>
+      <c r="G41" s="7">
+        <v>50</v>
+      </c>
+      <c r="H41" s="7">
+        <v>-271</v>
+      </c>
+      <c r="I41" s="7">
+        <v>14</v>
+      </c>
+      <c r="J41" s="7">
+        <v>21</v>
+      </c>
+      <c r="K41" s="7">
+        <v>-27</v>
+      </c>
+      <c r="L41" s="7">
+        <v>-6</v>
+      </c>
+      <c r="M41" s="7">
+        <v>227</v>
+      </c>
+      <c r="N41" s="7">
+        <v>12</v>
+      </c>
+      <c r="O41" s="7">
+        <v>-31</v>
+      </c>
+      <c r="P41" s="7">
+        <v>-7</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>10</v>
+      </c>
+      <c r="R41" s="7">
+        <v>-40</v>
+      </c>
+      <c r="S41" s="7">
+        <v>1</v>
+      </c>
+      <c r="T41" s="7">
+        <v>-10</v>
+      </c>
+      <c r="U41" s="7">
+        <v>-40</v>
+      </c>
+      <c r="V41" s="7">
+        <v>22</v>
+      </c>
+      <c r="W41" s="7">
+        <v>-35</v>
+      </c>
+      <c r="X41" s="7">
+        <v>-49</v>
+      </c>
+      <c r="Y41" s="7">
+        <v>13</v>
+      </c>
+      <c r="Z41" s="7">
+        <v>-108</v>
+      </c>
+      <c r="AA41" s="7">
+        <v>-40</v>
+      </c>
+      <c r="AB41" s="7">
+        <v>-255</v>
+      </c>
+      <c r="AC41" s="7">
+        <v>-50</v>
+      </c>
+      <c r="AD41" s="7">
+        <v>3</v>
+      </c>
+      <c r="AE41" s="7">
+        <v>-169</v>
+      </c>
+      <c r="AF41" s="7">
+        <v>-195</v>
+      </c>
+      <c r="AG41" s="7">
+        <v>26</v>
+      </c>
+      <c r="AH41" s="7">
+        <v>-190</v>
+      </c>
+      <c r="AI41" s="7">
+        <v>29</v>
+      </c>
+      <c r="AJ41" s="7">
+        <v>-35</v>
+      </c>
+      <c r="AK41" s="7">
+        <v>15</v>
+      </c>
+      <c r="AL41" s="7">
+        <v>-55</v>
+      </c>
+      <c r="AM41" s="7">
+        <v>26</v>
+      </c>
+      <c r="AN41" s="7">
+        <v>842</v>
+      </c>
+      <c r="AO41" s="7">
+        <v>26</v>
+      </c>
+      <c r="AP41" s="7">
+        <v>-209</v>
+      </c>
+      <c r="AQ41" s="7">
+        <v>24</v>
+      </c>
+      <c r="AR41" s="7">
+        <v>-90</v>
+      </c>
+      <c r="AS41" s="7">
+        <v>33</v>
+      </c>
+      <c r="AT41" s="7">
+        <v>-9</v>
+      </c>
+      <c r="AU41" s="7">
+        <v>-35</v>
+      </c>
+      <c r="AV41" s="7">
+        <v>-4002</v>
+      </c>
+      <c r="AW41" s="7">
+        <v>12</v>
+      </c>
+      <c r="AX41" s="7">
+        <v>-33</v>
+      </c>
+      <c r="AY41" s="7">
+        <v>-72</v>
+      </c>
+      <c r="AZ41" s="7">
+        <v>95</v>
+      </c>
+      <c r="BA41" s="7">
+        <v>-16</v>
+      </c>
+      <c r="BB41" s="7">
+        <v>-37</v>
+      </c>
+      <c r="BC41" s="7">
+        <v>64</v>
+      </c>
+      <c r="BD41" s="7">
+        <v>25</v>
+      </c>
+      <c r="BE41" s="7">
+        <v>45</v>
+      </c>
+      <c r="BF41" s="7">
+        <v>85</v>
+      </c>
+      <c r="BG41" s="7">
+        <v>57</v>
+      </c>
+      <c r="BH41" s="7">
+        <v>256</v>
+      </c>
+      <c r="BI41" s="7">
+        <v>131</v>
+      </c>
+      <c r="BJ41" s="7">
+        <v>156</v>
+      </c>
+      <c r="BK41" s="7">
+        <v>105</v>
+      </c>
+      <c r="BL41" s="7">
+        <v>1</v>
+      </c>
+      <c r="BM41" s="7">
+        <v>115</v>
+      </c>
+      <c r="BN41" s="7">
+        <v>98</v>
+      </c>
+      <c r="BO41" s="7">
+        <v>200</v>
+      </c>
+      <c r="BP41" s="7">
+        <v>23</v>
+      </c>
+      <c r="BV41" s="7">
+        <f t="shared" si="1"/>
+        <v>-283</v>
+      </c>
+      <c r="BW41" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="BX41" s="7">
+        <f t="shared" si="3"/>
+        <v>201</v>
+      </c>
+      <c r="BY41" s="7">
+        <f t="shared" si="4"/>
+        <v>-39</v>
+      </c>
+      <c r="BZ41" s="7">
+        <f t="shared" si="5"/>
+        <v>-102</v>
+      </c>
+      <c r="CA41" s="7">
+        <f t="shared" si="6"/>
+        <v>-390</v>
+      </c>
+      <c r="CB41" s="7">
+        <f t="shared" si="7"/>
+        <v>-411</v>
+      </c>
+      <c r="CC41" s="7">
+        <f t="shared" si="8"/>
+        <v>-170</v>
+      </c>
+      <c r="CD41" s="7">
+        <f t="shared" si="9"/>
+        <v>828</v>
+      </c>
+      <c r="CE41" s="7">
+        <f t="shared" si="10"/>
+        <v>-249</v>
+      </c>
+      <c r="CF41" s="7">
+        <f t="shared" si="11"/>
+        <v>-4013</v>
+      </c>
+      <c r="CG41" s="7">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="CH41" s="7">
+        <f t="shared" si="13"/>
+        <v>36</v>
+      </c>
+      <c r="CI41" s="7">
+        <f t="shared" si="14"/>
+        <v>443</v>
+      </c>
+      <c r="CJ41" s="7">
+        <f t="shared" si="15"/>
+        <v>393</v>
+      </c>
+      <c r="CK41" s="7">
+        <f t="shared" si="16"/>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="42" spans="2:89" s="7" customFormat="1" ht="12.75">
+      <c r="B42" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="8">
+        <v>98</v>
+      </c>
+      <c r="D42" s="8">
+        <v>-62</v>
+      </c>
+      <c r="E42" s="8">
+        <v>-13</v>
+      </c>
+      <c r="F42" s="8">
+        <v>158</v>
+      </c>
+      <c r="G42" s="8">
+        <v>-94</v>
+      </c>
+      <c r="H42" s="8">
+        <v>-1076</v>
+      </c>
+      <c r="I42" s="8">
+        <v>-1589</v>
+      </c>
+      <c r="J42" s="8">
+        <v>98</v>
+      </c>
+      <c r="K42" s="8">
+        <v>190</v>
+      </c>
+      <c r="L42" s="8">
+        <v>236</v>
+      </c>
+      <c r="M42" s="8">
+        <v>46</v>
+      </c>
+      <c r="N42" s="8">
+        <v>146</v>
+      </c>
+      <c r="O42" s="8">
+        <v>142</v>
+      </c>
+      <c r="P42" s="8">
+        <v>107</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>113</v>
+      </c>
+      <c r="R42" s="8">
+        <v>-3578</v>
+      </c>
+      <c r="S42" s="8">
+        <v>-664</v>
+      </c>
+      <c r="T42" s="8">
+        <v>61</v>
+      </c>
+      <c r="U42" s="8">
+        <v>-354</v>
+      </c>
+      <c r="V42" s="8">
+        <v>130</v>
+      </c>
+      <c r="W42" s="8">
+        <v>-5</v>
+      </c>
+      <c r="X42" s="8">
+        <v>108</v>
+      </c>
+      <c r="Y42" s="8">
+        <v>133</v>
+      </c>
+      <c r="Z42" s="8">
+        <v>4</v>
+      </c>
+      <c r="AA42" s="8">
+        <v>43</v>
+      </c>
+      <c r="AB42" s="8">
+        <v>-299</v>
+      </c>
+      <c r="AC42" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AD42" s="8">
+        <v>102</v>
+      </c>
+      <c r="AE42" s="8">
+        <v>-198</v>
+      </c>
+      <c r="AF42" s="8">
+        <v>-142</v>
+      </c>
+      <c r="AG42" s="8">
+        <v>202</v>
+      </c>
+      <c r="AH42" s="8">
+        <v>-207</v>
+      </c>
+      <c r="AI42" s="8">
+        <v>228</v>
+      </c>
+      <c r="AJ42" s="8">
+        <v>124</v>
+      </c>
+      <c r="AK42" s="8">
+        <v>290</v>
+      </c>
+      <c r="AL42" s="8">
+        <v>146</v>
+      </c>
+      <c r="AM42" s="8">
+        <v>283</v>
+      </c>
+      <c r="AN42" s="8">
+        <v>-615</v>
+      </c>
+      <c r="AO42" s="8">
+        <v>298</v>
+      </c>
+      <c r="AP42" s="8">
+        <v>555</v>
+      </c>
+      <c r="AQ42" s="8">
+        <v>432</v>
+      </c>
+      <c r="AR42" s="8">
+        <v>386</v>
+      </c>
+      <c r="AS42" s="8">
+        <v>424</v>
+      </c>
+      <c r="AT42" s="8">
+        <v>154</v>
+      </c>
+      <c r="AU42" s="8">
+        <v>126</v>
+      </c>
+      <c r="AV42" s="8">
+        <v>3996</v>
+      </c>
+      <c r="AW42" s="8">
+        <v>11</v>
+      </c>
+      <c r="AX42" s="8">
+        <v>-147</v>
+      </c>
+      <c r="AY42" s="8">
+        <v>-155</v>
+      </c>
+      <c r="AZ42" s="8">
+        <v>209</v>
+      </c>
+      <c r="BA42" s="8">
+        <v>341</v>
+      </c>
+      <c r="BB42" s="8">
+        <v>186</v>
+      </c>
+      <c r="BC42" s="8">
+        <v>419</v>
+      </c>
+      <c r="BD42" s="8">
+        <v>95</v>
+      </c>
+      <c r="BE42" s="8">
+        <v>110</v>
+      </c>
+      <c r="BF42" s="8">
+        <v>260</v>
+      </c>
+      <c r="BG42" s="8">
+        <v>188</v>
+      </c>
+      <c r="BH42" s="8">
+        <v>140</v>
+      </c>
+      <c r="BI42" s="8">
+        <v>314</v>
+      </c>
+      <c r="BJ42" s="8">
+        <v>270</v>
+      </c>
+      <c r="BK42" s="8">
+        <v>504</v>
+      </c>
+      <c r="BL42" s="8">
+        <v>504</v>
+      </c>
+      <c r="BM42" s="8">
+        <v>493</v>
+      </c>
+      <c r="BN42" s="8">
+        <v>322</v>
+      </c>
+      <c r="BO42" s="8">
+        <v>468</v>
+      </c>
+      <c r="BP42" s="8">
+        <v>563</v>
+      </c>
+      <c r="BV42" s="7">
+        <f>SUM(E42:H42)</f>
+        <v>-1025</v>
+      </c>
+      <c r="BW42" s="7">
+        <f t="shared" si="2"/>
+        <v>-1065</v>
+      </c>
+      <c r="BX42" s="7">
+        <f t="shared" si="3"/>
+        <v>441</v>
+      </c>
+      <c r="BY42" s="7">
+        <f t="shared" si="4"/>
+        <v>-4068</v>
+      </c>
+      <c r="BZ42" s="7">
+        <f t="shared" si="5"/>
+        <v>-121</v>
+      </c>
+      <c r="CA42" s="7">
+        <f t="shared" si="6"/>
+        <v>-119</v>
+      </c>
+      <c r="CB42" s="7">
+        <f t="shared" si="7"/>
+        <v>-239</v>
+      </c>
+      <c r="CC42" s="7">
+        <f t="shared" si="8"/>
+        <v>347</v>
+      </c>
+      <c r="CD42" s="7">
+        <f t="shared" si="9"/>
+        <v>104</v>
+      </c>
+      <c r="CE42" s="7">
+        <f t="shared" si="10"/>
+        <v>1671</v>
+      </c>
+      <c r="CF42" s="7">
+        <f t="shared" si="11"/>
+        <v>4700</v>
+      </c>
+      <c r="CG42" s="7">
+        <f t="shared" si="12"/>
+        <v>-82</v>
+      </c>
+      <c r="CH42" s="7">
+        <f t="shared" si="13"/>
+        <v>1041</v>
+      </c>
+      <c r="CI42" s="7">
+        <f t="shared" si="14"/>
+        <v>698</v>
+      </c>
+      <c r="CJ42" s="7">
+        <f t="shared" si="15"/>
+        <v>1592</v>
+      </c>
+      <c r="CK42" s="7">
+        <f t="shared" si="16"/>
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="43" spans="2:89" s="7" customFormat="1" ht="12.75">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
+      <c r="AK43" s="8"/>
+      <c r="AL43" s="8"/>
+      <c r="AM43" s="8"/>
+      <c r="AN43" s="8"/>
+      <c r="AO43" s="8"/>
+      <c r="AP43" s="8"/>
+      <c r="AQ43" s="8"/>
+      <c r="AR43" s="8"/>
+      <c r="AS43" s="8"/>
+      <c r="AT43" s="8"/>
+      <c r="AU43" s="8"/>
+      <c r="AV43" s="8"/>
+      <c r="AW43" s="8"/>
+      <c r="AX43" s="8"/>
+      <c r="AY43" s="8"/>
+      <c r="AZ43" s="8"/>
+      <c r="BA43" s="8"/>
+      <c r="BB43" s="8"/>
+      <c r="BC43" s="8"/>
+      <c r="BD43" s="8"/>
+      <c r="BE43" s="8"/>
+      <c r="BF43" s="8"/>
+      <c r="BG43" s="8"/>
+      <c r="BH43" s="8"/>
+      <c r="BI43" s="8"/>
+      <c r="BJ43" s="8"/>
+      <c r="BK43" s="8"/>
+      <c r="BL43" s="8"/>
+      <c r="BM43" s="8"/>
+      <c r="BN43" s="8"/>
+      <c r="BO43" s="8"/>
+      <c r="BP43" s="8"/>
+    </row>
+    <row r="44" spans="2:89" s="7" customFormat="1" ht="12.75">
+      <c r="B44" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="9">
+        <f t="shared" ref="C44:BN44" si="17">C34/C32</f>
+        <v>0.70158102766798414</v>
+      </c>
+      <c r="D44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.66885743174924162</v>
+      </c>
+      <c r="E44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.69800995024875623</v>
+      </c>
+      <c r="F44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.6962391513982642</v>
+      </c>
+      <c r="G44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.68938271604938273</v>
+      </c>
+      <c r="H44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.65848965848965846</v>
+      </c>
+      <c r="I44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.66173469387755102</v>
+      </c>
+      <c r="J44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.66078838174273857</v>
+      </c>
+      <c r="K44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.67484342379958251</v>
+      </c>
+      <c r="L44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.67082917082917082</v>
+      </c>
+      <c r="M44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.67220779220779225</v>
+      </c>
+      <c r="N44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.65164556962025322</v>
+      </c>
+      <c r="O44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.63713980789754532</v>
+      </c>
+      <c r="P44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="Q44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.66184351554126475</v>
+      </c>
+      <c r="R44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.6838074398249453</v>
+      </c>
+      <c r="S44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.67838616714697408</v>
+      </c>
+      <c r="T44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.68021978021978025</v>
+      </c>
+      <c r="U44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.67177739920499713</v>
+      </c>
+      <c r="V44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.70702045328911001</v>
+      </c>
+      <c r="W44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.70605187319884721</v>
+      </c>
+      <c r="X44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.69749727965179542</v>
+      </c>
+      <c r="Y44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.69729425028184888</v>
+      </c>
+      <c r="Z44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.69941270688734647</v>
+      </c>
+      <c r="AA44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.70205850487540633</v>
+      </c>
+      <c r="AB44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.70323264440911504</v>
+      </c>
+      <c r="AC44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="AD44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.70699945740640258</v>
+      </c>
+      <c r="AE44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.71451271186440679</v>
+      </c>
+      <c r="AF44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.70980788675429729</v>
+      </c>
+      <c r="AG44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.7082484725050916</v>
+      </c>
+      <c r="AH44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.69943555973659455</v>
+      </c>
+      <c r="AI44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.71781472684085512</v>
+      </c>
+      <c r="AJ44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.71793701506161567</v>
+      </c>
+      <c r="AK44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.69907407407407407</v>
+      </c>
+      <c r="AL44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.71998227735932652</v>
+      </c>
+      <c r="AM44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.71332133213321336</v>
+      </c>
+      <c r="AN44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.72021585720215853</v>
+      </c>
+      <c r="AO44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.71752837326607821</v>
+      </c>
+      <c r="AP44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.70321285140562251</v>
+      </c>
+      <c r="AQ44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.71876305892185544</v>
+      </c>
+      <c r="AR44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.71573604060913709</v>
+      </c>
+      <c r="AS44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.70718010429201761</v>
+      </c>
+      <c r="AT44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.71189661725579623</v>
+      </c>
+      <c r="AU44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.71296638345031405</v>
+      </c>
+      <c r="AV44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.70730027548209362</v>
+      </c>
+      <c r="AW44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.68305151395988994</v>
+      </c>
+      <c r="AX44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.60509236145781331</v>
+      </c>
+      <c r="AY44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.67318540804813842</v>
+      </c>
+      <c r="AZ44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.63109305760709011</v>
+      </c>
+      <c r="BA44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.67514534883720934</v>
+      </c>
+      <c r="BB44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.69288267793305169</v>
+      </c>
+      <c r="BC44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.69304229195088674</v>
+      </c>
+      <c r="BD44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.68915893827950114</v>
+      </c>
+      <c r="BE44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.68440185062789161</v>
+      </c>
+      <c r="BF44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.68834771886559798</v>
+      </c>
+      <c r="BG44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.69116719242902214</v>
+      </c>
+      <c r="BH44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.68846391116594696</v>
+      </c>
+      <c r="BI44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.69312481557981709</v>
+      </c>
+      <c r="BJ44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.70630730758544036</v>
+      </c>
+      <c r="BK44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.68783668840374257</v>
+      </c>
+      <c r="BL44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.69234899328859056</v>
+      </c>
+      <c r="BM44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.68672199170124482</v>
+      </c>
+      <c r="BN44" s="9">
+        <f t="shared" si="17"/>
+        <v>0.69174757281553401</v>
+      </c>
+      <c r="BO44" s="9">
+        <f t="shared" ref="BO44" si="18">BO34/BO32</f>
+        <v>0.68828700403896415</v>
+      </c>
+      <c r="BP44" s="9">
+        <f>BP34/BP32</f>
+        <v>0.67843051293292411</v>
+      </c>
+      <c r="BV44" s="9">
+        <f t="shared" ref="BV44:CJ44" si="19">BV34/BV32</f>
+        <v>0.6853932584269663</v>
+      </c>
+      <c r="BW44" s="9">
+        <f>BW34/BW32</f>
+        <v>0.66705098642070204</v>
+      </c>
+      <c r="BX44" s="9">
+        <f t="shared" si="19"/>
+        <v>0.65114143269483071</v>
+      </c>
+      <c r="BY44" s="9">
+        <f t="shared" si="19"/>
+        <v>0.67595530417988692</v>
+      </c>
+      <c r="BZ44" s="9">
+        <f t="shared" si="19"/>
+        <v>0.69564608707825848</v>
+      </c>
+      <c r="CA44" s="9">
+        <f t="shared" si="19"/>
+        <v>0.70054200542005418</v>
+      </c>
+      <c r="CB44" s="9">
+        <f t="shared" si="19"/>
+        <v>0.709375417948375</v>
+      </c>
+      <c r="CC44" s="9">
+        <f t="shared" si="19"/>
+        <v>0.7109468161221083</v>
+      </c>
+      <c r="CD44" s="9">
+        <f t="shared" si="19"/>
+        <v>0.71341732979664019</v>
+      </c>
+      <c r="CE44" s="9">
+        <f t="shared" si="19"/>
+        <v>0.71373307543520315</v>
+      </c>
+      <c r="CF44" s="9">
+        <f t="shared" si="19"/>
+        <v>0.70982766651141127</v>
+      </c>
+      <c r="CG44" s="9">
+        <f t="shared" si="19"/>
+        <v>0.65045899324119838</v>
+      </c>
+      <c r="CH44" s="9">
+        <f t="shared" si="19"/>
+        <v>0.68783647375504708</v>
+      </c>
+      <c r="CI44" s="9">
+        <f t="shared" si="19"/>
+        <v>0.68814067181832517</v>
+      </c>
+      <c r="CJ44" s="9">
+        <f t="shared" si="19"/>
+        <v>0.69494382022471912</v>
+      </c>
+      <c r="CK44" s="9">
+        <f>CK34/CK32</f>
+        <v>0.68609303158774704</v>
+      </c>
+    </row>
+    <row r="45" spans="2:89" s="7" customFormat="1" ht="12.75">
+      <c r="B45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="9">
+        <f t="shared" ref="C45:BN45" si="20">C38/C32</f>
+        <v>0.14970355731225296</v>
+      </c>
+      <c r="D45" s="9">
+        <f t="shared" si="20"/>
+        <v>1.4155712841253791E-2</v>
+      </c>
+      <c r="E45" s="9">
+        <f t="shared" si="20"/>
+        <v>5.4726368159203984E-3</v>
+      </c>
+      <c r="F45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.13259402121504341</v>
+      </c>
+      <c r="G45" s="9">
+        <f t="shared" si="20"/>
+        <v>2.5185185185185185E-2</v>
+      </c>
+      <c r="H45" s="9">
+        <f t="shared" si="20"/>
+        <v>-0.59211159211159214</v>
+      </c>
+      <c r="I45" s="9">
+        <f t="shared" si="20"/>
+        <v>-0.75816326530612244</v>
+      </c>
+      <c r="J45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.11981327800829876</v>
+      </c>
+      <c r="K45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.13100208768267224</v>
+      </c>
+      <c r="L45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.17382617382617382</v>
+      </c>
+      <c r="M45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.16727272727272727</v>
+      </c>
+      <c r="N45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.12</v>
+      </c>
+      <c r="O45" s="9">
+        <f t="shared" si="20"/>
+        <v>9.2849519743863393E-2</v>
+      </c>
+      <c r="P45" s="9">
+        <f t="shared" si="20"/>
+        <v>9.2532467532467536E-2</v>
+      </c>
+      <c r="Q45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.10503751339764202</v>
+      </c>
+      <c r="R45" s="9">
+        <f t="shared" si="20"/>
+        <v>-1.9622538293216629</v>
+      </c>
+      <c r="S45" s="9">
+        <f t="shared" si="20"/>
+        <v>-0.34236311239193085</v>
+      </c>
+      <c r="T45" s="9">
+        <f t="shared" si="20"/>
+        <v>6.4285714285714279E-2</v>
+      </c>
+      <c r="U45" s="9">
+        <f t="shared" si="20"/>
+        <v>-0.18739352640545145</v>
+      </c>
+      <c r="V45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.12161415146489774</v>
+      </c>
+      <c r="W45" s="9">
+        <f t="shared" si="20"/>
+        <v>5.936599423631124E-2</v>
+      </c>
+      <c r="X45" s="9">
+        <f t="shared" si="20"/>
+        <v>6.9096844396082699E-2</v>
+      </c>
+      <c r="Y45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.11104847801578353</v>
+      </c>
+      <c r="Z45" s="9">
+        <f t="shared" si="20"/>
+        <v>-3.6839295248264813E-2</v>
+      </c>
+      <c r="AA45" s="9">
+        <f t="shared" si="20"/>
+        <v>3.4669555796316358E-2</v>
+      </c>
+      <c r="AB45" s="9">
+        <f t="shared" si="20"/>
+        <v>-0.26126126126126126</v>
+      </c>
+      <c r="AC45" s="9">
+        <f t="shared" si="20"/>
+        <v>1.3574660633484163E-2</v>
+      </c>
+      <c r="AD45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.11882799782962561</v>
+      </c>
+      <c r="AE45" s="9">
+        <f t="shared" si="20"/>
+        <v>-0.1583686440677966</v>
+      </c>
+      <c r="AF45" s="9">
+        <f t="shared" si="20"/>
+        <v>-0.1147623862487361</v>
+      </c>
+      <c r="AG45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.14918533604887985</v>
+      </c>
+      <c r="AH45" s="9">
+        <f t="shared" si="20"/>
+        <v>-0.15710253998118531</v>
+      </c>
+      <c r="AI45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.16532066508313539</v>
+      </c>
+      <c r="AJ45" s="9">
+        <f t="shared" si="20"/>
+        <v>6.3897763578274758E-2</v>
+      </c>
+      <c r="AK45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.16851851851851851</v>
+      </c>
+      <c r="AL45" s="9">
+        <f t="shared" si="20"/>
+        <v>9.9689853788214447E-2</v>
+      </c>
+      <c r="AM45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.16966696669666967</v>
+      </c>
+      <c r="AN45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.13242009132420091</v>
+      </c>
+      <c r="AO45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.1710802858343842</v>
+      </c>
+      <c r="AP45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.157429718875502</v>
+      </c>
+      <c r="AQ45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.16213957375679064</v>
+      </c>
+      <c r="AR45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.12456071846934791</v>
+      </c>
+      <c r="AS45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.21700762133975129</v>
+      </c>
+      <c r="AT45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.1459521094640821</v>
+      </c>
+      <c r="AU45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.14148503878832655</v>
+      </c>
+      <c r="AV45" s="9">
+        <f t="shared" si="20"/>
+        <v>7.2314049586776855E-2</v>
+      </c>
+      <c r="AW45" s="9">
+        <f t="shared" si="20"/>
+        <v>5.7412504915454188E-2</v>
+      </c>
+      <c r="AX45" s="9">
+        <f t="shared" si="20"/>
+        <v>-3.5446829755366949E-2</v>
+      </c>
+      <c r="AY45" s="9">
+        <f t="shared" si="20"/>
+        <v>-7.7096652877021443E-2</v>
+      </c>
+      <c r="AZ45" s="9">
+        <f t="shared" si="20"/>
+        <v>1.8463810930576072E-2</v>
+      </c>
+      <c r="BA45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.13444767441860464</v>
+      </c>
+      <c r="BB45" s="9">
+        <f t="shared" si="20"/>
+        <v>8.5147871303217423E-2</v>
+      </c>
+      <c r="BC45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.13199181446111868</v>
+      </c>
+      <c r="BD45" s="9">
+        <f t="shared" si="20"/>
+        <v>5.7563159577870164E-2</v>
+      </c>
+      <c r="BE45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.15399867812293458</v>
+      </c>
+      <c r="BF45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.13039457459926018</v>
+      </c>
+      <c r="BG45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.11293375394321767</v>
+      </c>
+      <c r="BH45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.12399753238741518</v>
+      </c>
+      <c r="BI45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.16287990557686632</v>
+      </c>
+      <c r="BJ45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.14281744929146986</v>
+      </c>
+      <c r="BK45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.19648426424723561</v>
+      </c>
+      <c r="BL45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.15677852348993288</v>
+      </c>
+      <c r="BM45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.175051867219917</v>
+      </c>
+      <c r="BN45" s="9">
+        <f t="shared" si="20"/>
+        <v>0.12621359223300971</v>
+      </c>
+      <c r="BO45" s="9">
+        <f t="shared" ref="BO45" si="21">BO38/BO32</f>
+        <v>0.17415062960323116</v>
+      </c>
+      <c r="BP45" s="9">
+        <f t="shared" ref="BP45" si="22">BP38/BP32</f>
+        <v>0.14796142042963611</v>
+      </c>
+      <c r="BV45" s="9">
+        <f t="shared" ref="BV45:CJ45" si="23">BV38/BV32</f>
+        <v>-0.10918417195896434</v>
+      </c>
+      <c r="BW45" s="9">
+        <f t="shared" si="23"/>
+        <v>-8.4037919549064824E-2</v>
+      </c>
+      <c r="BX45" s="9">
+        <f t="shared" si="23"/>
+        <v>0.11860404093413802</v>
+      </c>
+      <c r="BY45" s="9">
+        <f t="shared" si="23"/>
+        <v>-0.5335908401158781</v>
+      </c>
+      <c r="BZ45" s="9">
+        <f t="shared" si="23"/>
+        <v>1.6799664006719867E-2</v>
+      </c>
+      <c r="CA45" s="9">
+        <f t="shared" si="23"/>
+        <v>-4.0785907859078589E-2</v>
+      </c>
+      <c r="CB45" s="9">
+        <f t="shared" si="23"/>
+        <v>-3.7849404841513973E-2</v>
+      </c>
+      <c r="CC45" s="9">
+        <f t="shared" si="23"/>
+        <v>5.3303124254710232E-2</v>
+      </c>
+      <c r="CD45" s="9">
+        <f t="shared" si="23"/>
+        <v>0.14202033598585323</v>
+      </c>
+      <c r="CE45" s="9">
+        <f t="shared" si="23"/>
+        <v>0.15331365163392038</v>
+      </c>
+      <c r="CF45" s="9">
+        <f t="shared" si="23"/>
+        <v>0.14140661387983233</v>
+      </c>
+      <c r="CG45" s="9">
+        <f t="shared" si="23"/>
+        <v>-8.0702108342580441E-3</v>
+      </c>
+      <c r="CH45" s="9">
+        <f t="shared" si="23"/>
+        <v>0.10085800807537013</v>
+      </c>
+      <c r="CI45" s="9">
+        <f t="shared" si="23"/>
+        <v>0.13002680965147453</v>
+      </c>
+      <c r="CJ45" s="9">
+        <f t="shared" si="23"/>
+        <v>0.16453651685393259</v>
+      </c>
+      <c r="CK45" s="9">
+        <f>CK38/CK32</f>
+        <v>0.15543082343106229</v>
+      </c>
+    </row>
+    <row r="46" spans="2:89" s="7" customFormat="1" ht="12.75">
+      <c r="B46" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="9">
+        <f t="shared" ref="C46:BN46" si="24">C42/C32</f>
+        <v>4.8418972332015808E-2</v>
+      </c>
+      <c r="D46" s="9">
+        <f t="shared" si="24"/>
+        <v>-3.1344792719919107E-2</v>
+      </c>
+      <c r="E46" s="9">
+        <f t="shared" si="24"/>
+        <v>-6.4676616915422883E-3</v>
+      </c>
+      <c r="F46" s="9">
+        <f t="shared" si="24"/>
+        <v>7.6181292189006752E-2</v>
+      </c>
+      <c r="G46" s="9">
+        <f t="shared" si="24"/>
+        <v>-4.6419753086419754E-2</v>
+      </c>
+      <c r="H46" s="9">
+        <f t="shared" si="24"/>
+        <v>-0.51755651755651755</v>
+      </c>
+      <c r="I46" s="9">
+        <f t="shared" si="24"/>
+        <v>-0.81071428571428572</v>
+      </c>
+      <c r="J46" s="9">
+        <f t="shared" si="24"/>
+        <v>5.0829875518672199E-2</v>
+      </c>
+      <c r="K46" s="9">
+        <f t="shared" si="24"/>
+        <v>9.916492693110647E-2</v>
+      </c>
+      <c r="L46" s="9">
+        <f t="shared" si="24"/>
+        <v>0.11788211788211789</v>
+      </c>
+      <c r="M46" s="9">
+        <f t="shared" si="24"/>
+        <v>2.3896103896103898E-2</v>
+      </c>
+      <c r="N46" s="9">
+        <f t="shared" si="24"/>
+        <v>7.3924050632911395E-2</v>
+      </c>
+      <c r="O46" s="9">
+        <f t="shared" si="24"/>
+        <v>7.577374599786553E-2</v>
+      </c>
+      <c r="P46" s="9">
+        <f t="shared" si="24"/>
+        <v>5.7900432900432904E-2</v>
+      </c>
+      <c r="Q46" s="9">
+        <f t="shared" si="24"/>
+        <v>6.0557341907824226E-2</v>
+      </c>
+      <c r="R46" s="9">
+        <f t="shared" si="24"/>
+        <v>-1.9573304157549234</v>
+      </c>
+      <c r="S46" s="9">
+        <f t="shared" si="24"/>
+        <v>-0.38270893371757925</v>
+      </c>
+      <c r="T46" s="9">
+        <f t="shared" si="24"/>
+        <v>3.3516483516483515E-2</v>
+      </c>
+      <c r="U46" s="9">
+        <f t="shared" si="24"/>
+        <v>-0.20102214650766609</v>
+      </c>
+      <c r="V46" s="9">
+        <f t="shared" si="24"/>
+        <v>7.1862907683803212E-2</v>
+      </c>
+      <c r="W46" s="9">
+        <f t="shared" si="24"/>
+        <v>-2.881844380403458E-3</v>
+      </c>
+      <c r="X46" s="9">
+        <f t="shared" si="24"/>
+        <v>5.8759521218715999E-2</v>
+      </c>
+      <c r="Y46" s="9">
+        <f t="shared" si="24"/>
+        <v>7.4971815107102588E-2</v>
+      </c>
+      <c r="Z46" s="9">
+        <f t="shared" si="24"/>
+        <v>2.1356113187399892E-3</v>
+      </c>
+      <c r="AA46" s="9">
+        <f t="shared" si="24"/>
+        <v>2.3293607800650054E-2</v>
+      </c>
+      <c r="AB46" s="9">
+        <f t="shared" si="24"/>
+        <v>-0.1584525702172761</v>
+      </c>
+      <c r="AC46" s="9">
+        <f t="shared" si="24"/>
+        <v>-5.6561085972850684E-4</v>
+      </c>
+      <c r="AD46" s="9">
+        <f t="shared" si="24"/>
+        <v>5.5344546934346171E-2</v>
+      </c>
+      <c r="AE46" s="9">
+        <f t="shared" si="24"/>
+        <v>-0.1048728813559322</v>
+      </c>
+      <c r="AF46" s="9">
+        <f t="shared" si="24"/>
+        <v>-7.1789686552072796E-2</v>
+      </c>
+      <c r="AG46" s="9">
+        <f t="shared" si="24"/>
+        <v>0.10285132382892057</v>
+      </c>
+      <c r="AH46" s="9">
+        <f t="shared" si="24"/>
+        <v>-9.7365945437441204E-2</v>
+      </c>
+      <c r="AI46" s="9">
+        <f t="shared" si="24"/>
+        <v>0.10831353919239906</v>
+      </c>
+      <c r="AJ46" s="9">
+        <f t="shared" si="24"/>
+        <v>5.6595162026471933E-2</v>
+      </c>
+      <c r="AK46" s="9">
+        <f t="shared" si="24"/>
+        <v>0.13425925925925927</v>
+      </c>
+      <c r="AL46" s="9">
+        <f t="shared" si="24"/>
+        <v>6.4687638458130262E-2</v>
+      </c>
+      <c r="AM46" s="9">
+        <f t="shared" si="24"/>
+        <v>0.12736273627362737</v>
+      </c>
+      <c r="AN46" s="9">
+        <f t="shared" si="24"/>
+        <v>-0.25529265255292655</v>
+      </c>
+      <c r="AO46" s="9">
+        <f t="shared" si="24"/>
+        <v>0.12526271542664985</v>
+      </c>
+      <c r="AP46" s="9">
+        <f t="shared" si="24"/>
+        <v>0.22289156626506024</v>
+      </c>
+      <c r="AQ46" s="9">
+        <f t="shared" si="24"/>
+        <v>0.18052653572921021</v>
+      </c>
+      <c r="AR46" s="9">
+        <f t="shared" si="24"/>
+        <v>0.15072237407262787</v>
+      </c>
+      <c r="AS46" s="9">
+        <f t="shared" si="24"/>
+        <v>0.17007621339751303</v>
+      </c>
+      <c r="AT46" s="9">
+        <f t="shared" si="24"/>
+        <v>5.8532877232991255E-2</v>
+      </c>
+      <c r="AU46" s="9">
+        <f t="shared" si="24"/>
+        <v>4.6545991872922056E-2</v>
+      </c>
+      <c r="AV46" s="9">
+        <f t="shared" si="24"/>
+        <v>1.3760330578512396</v>
+      </c>
+      <c r="AW46" s="9">
+        <f t="shared" si="24"/>
+        <v>4.3255996854109323E-3</v>
+      </c>
+      <c r="AX46" s="9">
+        <f t="shared" si="24"/>
+        <v>-7.3389915127309038E-2</v>
+      </c>
+      <c r="AY46" s="9">
+        <f t="shared" si="24"/>
+        <v>-5.8292591199699137E-2</v>
+      </c>
+      <c r="AZ46" s="9">
+        <f t="shared" si="24"/>
+        <v>7.7178729689807976E-2</v>
+      </c>
+      <c r="BA46" s="9">
+        <f t="shared" si="24"/>
+        <v>0.12390988372093023</v>
+      </c>
+      <c r="BB46" s="9">
+        <f t="shared" si="24"/>
+        <v>6.0448488787780308E-2</v>
+      </c>
+      <c r="BC46" s="9">
+        <f t="shared" si="24"/>
+        <v>0.14290586630286495</v>
+      </c>
+      <c r="BD46" s="9">
+        <f t="shared" si="24"/>
+        <v>3.0380556443875918E-2</v>
+      </c>
+      <c r="BE46" s="9">
+        <f t="shared" si="24"/>
+        <v>3.6351619299405155E-2</v>
+      </c>
+      <c r="BF46" s="9">
+        <f t="shared" si="24"/>
+        <v>8.0147965474722568E-2</v>
+      </c>
+      <c r="BG46" s="9">
+        <f t="shared" si="24"/>
+        <v>5.9305993690851738E-2</v>
+      </c>
+      <c r="BH46" s="9">
+        <f t="shared" si="24"/>
+        <v>4.3183220234423197E-2</v>
+      </c>
+      <c r="BI46" s="9">
+        <f t="shared" si="24"/>
+        <v>9.2652699911478315E-2</v>
+      </c>
+      <c r="BJ46" s="9">
+        <f t="shared" si="24"/>
+        <v>7.5020839121978322E-2</v>
+      </c>
+      <c r="BK46" s="9">
+        <f t="shared" si="24"/>
+        <v>0.14289764672526226</v>
+      </c>
+      <c r="BL46" s="9">
+        <f t="shared" si="24"/>
+        <v>0.13530201342281878</v>
+      </c>
+      <c r="BM46" s="9">
+        <f t="shared" si="24"/>
+        <v>0.12785269709543567</v>
+      </c>
+      <c r="BN46" s="9">
+        <f t="shared" si="24"/>
+        <v>7.8155339805825244E-2</v>
+      </c>
+      <c r="BO46" s="9">
+        <f t="shared" ref="BO46" si="25">BO42/BO32</f>
+        <v>0.11119030648610122</v>
+      </c>
+      <c r="BP46" s="9">
+        <f t="shared" ref="BP46" si="26">BP42/BP32</f>
+        <v>0.12341078474353354</v>
+      </c>
+      <c r="BV46" s="9">
+        <f t="shared" ref="BV46:CJ46" si="27">BV42/BV32</f>
+        <v>-0.12518319491939423</v>
+      </c>
+      <c r="BW46" s="9">
+        <f t="shared" si="27"/>
+        <v>-0.13643351268255188</v>
+      </c>
+      <c r="BX46" s="9">
+        <f t="shared" si="27"/>
+        <v>5.7858829703489899E-2</v>
+      </c>
+      <c r="BY46" s="9">
+        <f t="shared" si="27"/>
+        <v>-0.56118085253138361</v>
+      </c>
+      <c r="BZ46" s="9">
+        <f t="shared" si="27"/>
+        <v>-1.6939661206775865E-2</v>
+      </c>
+      <c r="CA46" s="9">
+        <f t="shared" si="27"/>
+        <v>-1.6124661246612465E-2</v>
+      </c>
+      <c r="CB46" s="9">
+        <f t="shared" si="27"/>
+        <v>-3.1964691721278589E-2</v>
+      </c>
+      <c r="CC46" s="9">
+        <f t="shared" si="27"/>
+        <v>4.1378487956117337E-2</v>
+      </c>
+      <c r="CD46" s="9">
+        <f t="shared" si="27"/>
+        <v>1.1494252873563218E-2</v>
+      </c>
+      <c r="CE46" s="9">
+        <f t="shared" si="27"/>
+        <v>0.17011096406393159</v>
+      </c>
+      <c r="CF46" s="9">
+        <f t="shared" si="27"/>
+        <v>0.43782021425244527</v>
+      </c>
+      <c r="CG46" s="9">
+        <f t="shared" si="27"/>
+        <v>-8.2719661051144956E-3</v>
+      </c>
+      <c r="CH46" s="9">
+        <f t="shared" si="27"/>
+        <v>8.7567294751009425E-2</v>
+      </c>
+      <c r="CI46" s="9">
+        <f t="shared" si="27"/>
+        <v>5.5038637438889766E-2</v>
+      </c>
+      <c r="CJ46" s="9">
+        <f t="shared" si="27"/>
+        <v>0.11179775280898877</v>
+      </c>
+      <c r="CK46" s="9">
+        <f>CK42/CK32</f>
+        <v>0.11022869767719591</v>
+      </c>
+    </row>
+    <row r="47" spans="2:89" s="7" customFormat="1" ht="12.75">
+      <c r="B47" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="9">
+        <f t="shared" ref="C47:BN47" si="28">C36/C32</f>
+        <v>0.13290513833992096</v>
+      </c>
+      <c r="D47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.12335692618806876</v>
+      </c>
+      <c r="E47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.12786069651741294</v>
+      </c>
+      <c r="F47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.13500482160077146</v>
+      </c>
+      <c r="G47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.12740740740740741</v>
+      </c>
+      <c r="H47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.12554112554112554</v>
+      </c>
+      <c r="I47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.12908163265306122</v>
+      </c>
+      <c r="J47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.12033195020746888</v>
+      </c>
+      <c r="K47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.12004175365344467</v>
+      </c>
+      <c r="L47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.11188811188811189</v>
+      </c>
+      <c r="M47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.11012987012987013</v>
+      </c>
+      <c r="N47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.11291139240506329</v>
+      </c>
+      <c r="O47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.12219850586979722</v>
+      </c>
+      <c r="P47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.125</v>
+      </c>
+      <c r="Q47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.11521972132904609</v>
+      </c>
+      <c r="R47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.11652078774617068</v>
+      </c>
+      <c r="S47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.12680115273775217</v>
+      </c>
+      <c r="T47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.13076923076923078</v>
+      </c>
+      <c r="U47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.11584327086882454</v>
+      </c>
+      <c r="V47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.12327252625760088</v>
+      </c>
+      <c r="W47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.12507204610951009</v>
+      </c>
+      <c r="X47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.11806311207834602</v>
+      </c>
+      <c r="Y47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.10766629086809471</v>
+      </c>
+      <c r="Z47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.10998398291510945</v>
+      </c>
+      <c r="AA47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.11484290357529794</v>
+      </c>
+      <c r="AB47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.11022787493375728</v>
+      </c>
+      <c r="AC47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.10859728506787331</v>
+      </c>
+      <c r="AD47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.11937059142702117</v>
+      </c>
+      <c r="AE47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.11705508474576271</v>
+      </c>
+      <c r="AF47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.12285136501516683</v>
+      </c>
+      <c r="AG47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.10692464358452139</v>
+      </c>
+      <c r="AH47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.10442144873000941</v>
+      </c>
+      <c r="AI47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.11021377672209026</v>
+      </c>
+      <c r="AJ47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.11684162482884528</v>
+      </c>
+      <c r="AK47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.10879629629629629</v>
+      </c>
+      <c r="AL47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="AM47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.11431143114311432</v>
+      </c>
+      <c r="AN47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.1095890410958904</v>
+      </c>
+      <c r="AO47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.10970996216897856</v>
+      </c>
+      <c r="AP47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.11044176706827309</v>
+      </c>
+      <c r="AQ47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.12076890931884664</v>
+      </c>
+      <c r="AR47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.11245607184693479</v>
+      </c>
+      <c r="AS47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.11231448054552748</v>
+      </c>
+      <c r="AT47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.1064234131508932</v>
+      </c>
+      <c r="AU47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.11304026597709642</v>
+      </c>
+      <c r="AV47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.10606060606060606</v>
+      </c>
+      <c r="AW47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.11797090051120723</v>
+      </c>
+      <c r="AX47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.12081877184223665</v>
+      </c>
+      <c r="AY47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.11846558856713051</v>
+      </c>
+      <c r="AZ47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.10561299852289513</v>
+      </c>
+      <c r="BA47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.1002906976744186</v>
+      </c>
+      <c r="BB47" s="9">
+        <f t="shared" si="28"/>
+        <v>9.684757881052973E-2</v>
+      </c>
+      <c r="BC47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.10572987721691678</v>
+      </c>
+      <c r="BD47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.10233450591621363</v>
+      </c>
+      <c r="BE47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.10541969596827495</v>
+      </c>
+      <c r="BF47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.1032675709001233</v>
+      </c>
+      <c r="BG47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.10694006309148266</v>
+      </c>
+      <c r="BH47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.10178901912399753</v>
+      </c>
+      <c r="BI47" s="9">
+        <f t="shared" si="28"/>
+        <v>9.9439362643847742E-2</v>
+      </c>
+      <c r="BJ47" s="9">
+        <f t="shared" si="28"/>
+        <v>9.9749930536260079E-2</v>
+      </c>
+      <c r="BK47" s="9">
+        <f t="shared" si="28"/>
+        <v>0.10093563935355826</v>
+      </c>
+      <c r="BL47" s="9">
+        <f t="shared" si="28"/>
+        <v>9.7181208053691279E-2</v>
+      </c>
+      <c r="BM47" s="9">
+        <f t="shared" si="28"/>
+        <v>9.4917012448132776E-2</v>
+      </c>
+      <c r="BN47" s="9">
+        <f t="shared" si="28"/>
+        <v>9.2961165048543695E-2</v>
+      </c>
+      <c r="BO47" s="9">
+        <f t="shared" ref="BO47" si="29">BO36/BO32</f>
+        <v>9.6697552862912803E-2</v>
+      </c>
+      <c r="BP47" s="9">
+        <f t="shared" ref="BP47" si="30">BP36/BP32</f>
+        <v>0.10061376589215257</v>
+      </c>
+      <c r="BV47" s="9">
+        <f t="shared" ref="BV47:CJ47" si="31">BV36/BV32</f>
+        <v>0.12896922325354176</v>
+      </c>
+      <c r="BW47" s="9">
+        <f t="shared" si="31"/>
+        <v>0.12029208301306688</v>
+      </c>
+      <c r="BX47" s="9">
+        <f t="shared" si="31"/>
+        <v>0.11742324849120965</v>
+      </c>
+      <c r="BY47" s="9">
+        <f t="shared" si="31"/>
+        <v>0.12222375500068976</v>
+      </c>
+      <c r="BZ47" s="9">
+        <f t="shared" si="31"/>
+        <v>0.12053758924821503</v>
+      </c>
+      <c r="CA47" s="9">
+        <f t="shared" si="31"/>
+        <v>0.11070460704607046</v>
+      </c>
+      <c r="CB47" s="9">
+        <f t="shared" si="31"/>
+        <v>0.11715928848468637</v>
+      </c>
+      <c r="CC47" s="9">
+        <f t="shared" si="31"/>
+        <v>0.10970665394705462</v>
+      </c>
+      <c r="CD47" s="9">
+        <f t="shared" si="31"/>
+        <v>0.11019009725906277</v>
+      </c>
+      <c r="CE47" s="9">
+        <f t="shared" si="31"/>
+        <v>0.11330550748243917</v>
+      </c>
+      <c r="CF47" s="9">
+        <f t="shared" si="31"/>
+        <v>0.10936190032603633</v>
+      </c>
+      <c r="CG47" s="9">
+        <f t="shared" si="31"/>
+        <v>0.11530313729446182</v>
+      </c>
+      <c r="CH47" s="9">
+        <f t="shared" si="31"/>
+        <v>0.10127860026917901</v>
+      </c>
+      <c r="CI47" s="9">
+        <f t="shared" si="31"/>
+        <v>0.10432108500236556</v>
+      </c>
+      <c r="CJ47" s="9">
+        <f t="shared" si="31"/>
+        <v>9.9297752808988768E-2</v>
+      </c>
+      <c r="CK47" s="9">
+        <f>CK36/CK32</f>
+        <v>9.6435182420732068E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:89" s="7" customFormat="1" ht="12.75">
+      <c r="B48" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="9">
+        <f t="shared" ref="C48:BN48" si="32">C35/C32</f>
+        <v>0.32361660079051385</v>
+      </c>
+      <c r="D48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.30839231547017187</v>
+      </c>
+      <c r="E48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.32388059701492539</v>
+      </c>
+      <c r="F48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="G48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.32839506172839505</v>
+      </c>
+      <c r="H48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.31168831168831168</v>
+      </c>
+      <c r="I48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.32040816326530613</v>
+      </c>
+      <c r="J48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.32883817427385892</v>
+      </c>
+      <c r="K48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.33089770354906056</v>
+      </c>
+      <c r="L48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.34265734265734266</v>
+      </c>
+      <c r="M48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.31272727272727274</v>
+      </c>
+      <c r="N48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.32860759493670888</v>
+      </c>
+      <c r="O48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.33884738527214514</v>
+      </c>
+      <c r="P48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.32900432900432902</v>
+      </c>
+      <c r="Q48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.35852090032154343</v>
+      </c>
+      <c r="R48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.35503282275711162</v>
+      </c>
+      <c r="S48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.32795389048991352</v>
+      </c>
+      <c r="T48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.35274725274725277</v>
+      </c>
+      <c r="U48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.34525837592277114</v>
+      </c>
+      <c r="V48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.36539524599226092</v>
+      </c>
+      <c r="W48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.37925072046109509</v>
+      </c>
+      <c r="X48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.40859630032644179</v>
+      </c>
+      <c r="Y48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.37542277339346108</v>
+      </c>
+      <c r="Z48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.39668980245595303</v>
+      </c>
+      <c r="AA48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.40140845070422537</v>
+      </c>
+      <c r="AB48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.39851616322204558</v>
+      </c>
+      <c r="AC48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.37782805429864252</v>
+      </c>
+      <c r="AD48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.37981551817688552</v>
+      </c>
+      <c r="AE48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.3861228813559322</v>
+      </c>
+      <c r="AF48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.39231547017189078</v>
+      </c>
+      <c r="AG48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.36456211812627293</v>
+      </c>
+      <c r="AH48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.36641580432737536</v>
+      </c>
+      <c r="AI48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.36674584323040382</v>
+      </c>
+      <c r="AJ48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.37973528069374712</v>
+      </c>
+      <c r="AK48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.36759259259259258</v>
+      </c>
+      <c r="AL48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.36109880372175457</v>
+      </c>
+      <c r="AM48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.36003600360036003</v>
+      </c>
+      <c r="AN48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.36737235367372356</v>
+      </c>
+      <c r="AO48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.36149642707019758</v>
+      </c>
+      <c r="AP48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.35582329317269074</v>
+      </c>
+      <c r="AQ48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.36356038445465944</v>
+      </c>
+      <c r="AR48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.37212026552128075</v>
+      </c>
+      <c r="AS48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.34857601283594064</v>
+      </c>
+      <c r="AT48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.36792094260737362</v>
+      </c>
+      <c r="AU48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.37384558551902475</v>
+      </c>
+      <c r="AV48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.37603305785123969</v>
+      </c>
+      <c r="AW48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.38458513566653557</v>
+      </c>
+      <c r="AX48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.39840239640539193</v>
+      </c>
+      <c r="AY48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.37006393380970287</v>
+      </c>
+      <c r="AZ48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.37924667651403249</v>
+      </c>
+      <c r="BA48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.37027616279069769</v>
+      </c>
+      <c r="BB48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.36431589210269744</v>
+      </c>
+      <c r="BC48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.36357435197817189</v>
+      </c>
+      <c r="BD48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.36872401662935722</v>
+      </c>
+      <c r="BE48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.35029742233972239</v>
+      </c>
+      <c r="BF48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.35912453760789148</v>
+      </c>
+      <c r="BG48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.35709779179810724</v>
+      </c>
+      <c r="BH48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.35872917951881556</v>
+      </c>
+      <c r="BI48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.35851283564473296</v>
+      </c>
+      <c r="BJ48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.37621561544873577</v>
+      </c>
+      <c r="BK48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.3521406294301106</v>
+      </c>
+      <c r="BL48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.37020134228187918</v>
+      </c>
+      <c r="BM48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.35373443983402492</v>
+      </c>
+      <c r="BN48" s="9">
+        <f t="shared" si="32"/>
+        <v>0.35097087378640779</v>
+      </c>
+      <c r="BO48" s="9">
+        <f t="shared" ref="BO48" si="33">BO35/BO32</f>
+        <v>0.37110952720361129</v>
+      </c>
+      <c r="BP48" s="9">
+        <f t="shared" ref="BP48" si="34">BP35/BP32</f>
+        <v>0.35335379219640506</v>
+      </c>
+      <c r="BV48" s="9">
+        <f t="shared" ref="BV48:CJ48" si="35">BV35/BV32</f>
+        <v>0.32181240840254033</v>
+      </c>
+      <c r="BW48" s="9">
+        <f t="shared" si="35"/>
+        <v>0.33077120163976426</v>
+      </c>
+      <c r="BX48" s="9">
+        <f t="shared" si="35"/>
+        <v>0.32721070585148254</v>
+      </c>
+      <c r="BY48" s="9">
+        <f t="shared" si="35"/>
+        <v>0.34887570699406817</v>
+      </c>
+      <c r="BZ48" s="9">
+        <f t="shared" si="35"/>
+        <v>0.37491250174996499</v>
+      </c>
+      <c r="CA48" s="9">
+        <f t="shared" si="35"/>
+        <v>0.39322493224932248</v>
+      </c>
+      <c r="CB48" s="9">
+        <f t="shared" si="35"/>
+        <v>0.38424501805536981</v>
+      </c>
+      <c r="CC48" s="9">
+        <f t="shared" si="35"/>
+        <v>0.36954447889339376</v>
+      </c>
+      <c r="CD48" s="9">
+        <f t="shared" si="35"/>
+        <v>0.36405835543766579</v>
+      </c>
+      <c r="CE48" s="9">
+        <f t="shared" si="35"/>
+        <v>0.36333095795581799</v>
+      </c>
+      <c r="CF48" s="9">
+        <f t="shared" si="35"/>
+        <v>0.36711690731252911</v>
+      </c>
+      <c r="CG48" s="9">
+        <f t="shared" si="35"/>
+        <v>0.38202360536669022</v>
+      </c>
+      <c r="CH48" s="9">
+        <f t="shared" si="35"/>
+        <v>0.36667227456258411</v>
+      </c>
+      <c r="CI48" s="9">
+        <f t="shared" si="35"/>
+        <v>0.35641066077905692</v>
+      </c>
+      <c r="CJ48" s="9">
+        <f t="shared" si="35"/>
+        <v>0.36446629213483145</v>
+      </c>
+      <c r="CK48" s="9">
+        <f>CK35/CK32</f>
+        <v>0.35731772854839672</v>
+      </c>
+    </row>
+    <row r="49" spans="2:89" s="7" customFormat="1" ht="12.75">
+      <c r="B49" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9">
+        <f t="shared" ref="E49:BO49" si="36">G32/C32-1</f>
+        <v>4.9407114624511195E-4</v>
+      </c>
+      <c r="H49" s="9">
+        <f t="shared" si="36"/>
+        <v>5.1061678463093951E-2</v>
+      </c>
+      <c r="I49" s="9">
+        <f t="shared" si="36"/>
+        <v>-2.4875621890547261E-2</v>
+      </c>
+      <c r="J49" s="9">
+        <f t="shared" si="36"/>
+        <v>-7.0395371263259454E-2</v>
+      </c>
+      <c r="K49" s="9">
+        <f t="shared" si="36"/>
+        <v>-5.3827160493827186E-2</v>
+      </c>
+      <c r="L49" s="9">
+        <f t="shared" si="36"/>
+        <v>-3.703703703703709E-2</v>
+      </c>
+      <c r="M49" s="9">
+        <f t="shared" si="36"/>
+        <v>-1.7857142857142905E-2</v>
+      </c>
+      <c r="N49" s="9">
+        <f t="shared" si="36"/>
+        <v>2.4377593360995764E-2</v>
+      </c>
+      <c r="O49" s="9">
+        <f t="shared" si="36"/>
+        <v>-2.1920668058455162E-2</v>
+      </c>
+      <c r="P49" s="9">
+        <f t="shared" si="36"/>
+        <v>-7.6923076923076872E-2</v>
+      </c>
+      <c r="Q49" s="9">
+        <f t="shared" si="36"/>
+        <v>-3.0649350649350704E-2</v>
+      </c>
+      <c r="R49" s="9">
+        <f t="shared" si="36"/>
+        <v>-7.4430379746835418E-2</v>
+      </c>
+      <c r="S49" s="9">
+        <f t="shared" si="36"/>
+        <v>-7.4172892209178221E-2</v>
+      </c>
+      <c r="T49" s="9">
+        <f t="shared" si="36"/>
+        <v>-1.5151515151515138E-2</v>
+      </c>
+      <c r="U49" s="9">
+        <f t="shared" si="36"/>
+        <v>-5.6270096463022501E-2</v>
+      </c>
+      <c r="V49" s="9">
+        <f t="shared" si="36"/>
+        <v>-1.0393873085339123E-2</v>
+      </c>
+      <c r="W49" s="9">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="X49" s="9">
+        <f t="shared" si="36"/>
+        <v>9.890109890109855E-3</v>
+      </c>
+      <c r="Y49" s="9">
+        <f t="shared" si="36"/>
+        <v>7.3821692220328305E-3</v>
+      </c>
+      <c r="Z49" s="9">
+        <f t="shared" si="36"/>
+        <v>3.5378662244333947E-2</v>
+      </c>
+      <c r="AA49" s="9">
+        <f t="shared" si="36"/>
+        <v>6.3976945244956784E-2</v>
+      </c>
+      <c r="AB49" s="9">
+        <f t="shared" si="36"/>
+        <v>2.6659412404787863E-2</v>
+      </c>
+      <c r="AC49" s="9">
+        <f t="shared" si="36"/>
+        <v>-3.3821871476887866E-3</v>
+      </c>
+      <c r="AD49" s="9">
+        <f t="shared" si="36"/>
+        <v>-1.6017084890549871E-2</v>
+      </c>
+      <c r="AE49" s="9">
+        <f t="shared" si="36"/>
+        <v>2.2751895991332649E-2</v>
+      </c>
+      <c r="AF49" s="9">
+        <f t="shared" si="36"/>
+        <v>4.8224695283518804E-2</v>
+      </c>
+      <c r="AG49" s="9">
+        <f t="shared" si="36"/>
+        <v>0.11085972850678738</v>
+      </c>
+      <c r="AH49" s="9">
+        <f t="shared" si="36"/>
+        <v>0.15355398806294085</v>
+      </c>
+      <c r="AI49" s="9">
+        <f t="shared" si="36"/>
+        <v>0.11493644067796605</v>
+      </c>
+      <c r="AJ49" s="9">
+        <f t="shared" si="36"/>
+        <v>0.10768452982810928</v>
+      </c>
+      <c r="AK49" s="9">
+        <f t="shared" si="36"/>
+        <v>9.9796334012219878E-2</v>
+      </c>
+      <c r="AL49" s="9">
+        <f t="shared" si="36"/>
+        <v>6.1618062088429015E-2</v>
+      </c>
+      <c r="AM49" s="9">
+        <f t="shared" si="36"/>
+        <v>5.558194774346803E-2</v>
+      </c>
+      <c r="AN49" s="9">
+        <f t="shared" si="36"/>
+        <v>9.9497946143313643E-2</v>
+      </c>
+      <c r="AO49" s="9">
+        <f t="shared" si="36"/>
+        <v>0.10138888888888897</v>
+      </c>
+      <c r="AP49" s="9">
+        <f t="shared" si="36"/>
+        <v>0.10323438192290646</v>
+      </c>
+      <c r="AQ49" s="9">
+        <f t="shared" si="36"/>
+        <v>7.6957695769577006E-2</v>
+      </c>
+      <c r="AR49" s="9">
+        <f t="shared" si="36"/>
+        <v>6.3096720630967162E-2</v>
+      </c>
+      <c r="AS49" s="9">
+        <f t="shared" si="36"/>
+        <v>4.7919293820933184E-2</v>
+      </c>
+      <c r="AT49" s="9">
+        <f t="shared" si="36"/>
+        <v>5.6626506024096468E-2</v>
+      </c>
+      <c r="AU49" s="9">
+        <f t="shared" si="36"/>
+        <v>0.131216046803176</v>
+      </c>
+      <c r="AV49" s="9">
+        <f t="shared" si="36"/>
+        <v>0.1339320577899259</v>
+      </c>
+      <c r="AW49" s="9">
+        <f t="shared" si="36"/>
+        <v>2.0056157240272654E-2</v>
+      </c>
+      <c r="AX49" s="9">
+        <f t="shared" si="36"/>
+        <v>-0.2386925123527176</v>
+      </c>
+      <c r="AY49" s="9">
+        <f t="shared" si="36"/>
+        <v>-1.7731806427779828E-2</v>
+      </c>
+      <c r="AZ49" s="9">
+        <f t="shared" si="36"/>
+        <v>-6.7493112947658362E-2</v>
+      </c>
+      <c r="BA49" s="9">
+        <f t="shared" si="36"/>
+        <v>8.2186394022807807E-2</v>
+      </c>
+      <c r="BB49" s="9">
+        <f t="shared" si="36"/>
+        <v>0.53619570644033954</v>
+      </c>
+      <c r="BC49" s="9">
+        <f t="shared" si="36"/>
+        <v>0.10267017675817969</v>
+      </c>
+      <c r="BD49" s="9">
+        <f t="shared" si="36"/>
+        <v>0.15472673559822758</v>
+      </c>
+      <c r="BE49" s="9">
+        <f t="shared" si="36"/>
+        <v>9.9563953488372103E-2</v>
+      </c>
+      <c r="BF49" s="9">
+        <f t="shared" si="36"/>
+        <v>5.4273643158921026E-2</v>
+      </c>
+      <c r="BG49" s="9">
+        <f t="shared" si="36"/>
+        <v>8.1173260572987793E-2</v>
+      </c>
+      <c r="BH49" s="9">
+        <f t="shared" si="36"/>
+        <v>3.6776463063639353E-2</v>
+      </c>
+      <c r="BI49" s="9">
+        <f t="shared" si="36"/>
+        <v>0.11996034368803699</v>
+      </c>
+      <c r="BJ49" s="9">
+        <f t="shared" si="36"/>
+        <v>0.10943279901356351</v>
+      </c>
+      <c r="BK49" s="9">
+        <f t="shared" si="36"/>
+        <v>0.11261829652996846</v>
+      </c>
+      <c r="BL49" s="9">
+        <f t="shared" si="36"/>
+        <v>0.14898210980876003</v>
+      </c>
+      <c r="BM49" s="9">
+        <f t="shared" si="36"/>
+        <v>0.13779876069637065</v>
+      </c>
+      <c r="BN49" s="9">
+        <f t="shared" si="36"/>
+        <v>0.14476243400944711</v>
+      </c>
+      <c r="BO49" s="9">
+        <f t="shared" si="36"/>
+        <v>0.19336546640204144</v>
+      </c>
+      <c r="BP49" s="9">
+        <f>BP32/BL32-1</f>
+        <v>0.22469798657718121</v>
+      </c>
+      <c r="BV49" s="9"/>
+      <c r="BW49" s="9">
+        <f>BW32/BV32-1</f>
+        <v>-4.6653639472398645E-2</v>
+      </c>
+      <c r="BX49" s="9">
+        <f t="shared" ref="BW49:CJ49" si="37">BX32/BW32-1</f>
+        <v>-2.3571611580835206E-2</v>
+      </c>
+      <c r="BY49" s="9">
+        <f t="shared" si="37"/>
+        <v>-4.8937286801364444E-2</v>
+      </c>
+      <c r="BZ49" s="9">
+        <f t="shared" si="37"/>
+        <v>-1.4622706580217915E-2</v>
+      </c>
+      <c r="CA49" s="9">
+        <f t="shared" si="37"/>
+        <v>3.3179336413271754E-2</v>
+      </c>
+      <c r="CB49" s="9">
+        <f t="shared" si="37"/>
+        <v>1.3143631436314474E-2</v>
+      </c>
+      <c r="CC49" s="9">
+        <f t="shared" si="37"/>
+        <v>0.12157282332486297</v>
+      </c>
+      <c r="CD49" s="9">
+        <f t="shared" si="37"/>
+        <v>7.8941092296684889E-2</v>
+      </c>
+      <c r="CE49" s="9">
+        <f t="shared" si="37"/>
+        <v>8.5654288240495147E-2</v>
+      </c>
+      <c r="CF49" s="9">
+        <f t="shared" si="37"/>
+        <v>9.2843326885880151E-2</v>
+      </c>
+      <c r="CG49" s="9">
+        <f t="shared" si="37"/>
+        <v>-7.6571960875640444E-2</v>
+      </c>
+      <c r="CH49" s="9">
+        <f t="shared" si="37"/>
+        <v>0.19923332997074539</v>
+      </c>
+      <c r="CI49" s="9">
+        <f t="shared" si="37"/>
+        <v>6.6790040376850657E-2</v>
+      </c>
+      <c r="CJ49" s="9">
+        <f t="shared" si="37"/>
+        <v>0.12285128528623246</v>
+      </c>
+      <c r="CK49" s="9">
+        <f>CK32/CJ32-1</f>
+        <v>0.17605337078651684</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="BV32:CK42" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -392,11 +6222,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E640DF-CF2F-4558-930D-400D9219BA62}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.06640625" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BSX_Model.xlsx
+++ b/BSX_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A56195E-58B9-476B-BDDB-642D195FF5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F0E1B8-961A-4258-B552-74FFA4F7F1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main | Overview" sheetId="1" r:id="rId1"/>
@@ -11537,7 +11537,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="&quot;$&quot;#,##0.0" sourceLinked="0"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -12377,7 +12377,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
-      <xdr:colOff>13607</xdr:colOff>
+      <xdr:colOff>13606</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>26414</xdr:rowOff>
     </xdr:to>
@@ -12465,7 +12465,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
+      <xdr:colOff>44824</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>2400</xdr:rowOff>
     </xdr:to>
@@ -12629,7 +12629,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:colOff>9523</xdr:colOff>
       <xdr:row>162</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
@@ -12672,8 +12672,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>605117</xdr:colOff>
       <xdr:row>162</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -13474,7 +13474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E9BBBF-231F-4413-9D35-B81B3144EF2A}">
   <dimension ref="B1:EH126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="CR38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -30983,13 +30983,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B620B-86E4-4271-A65B-3362B1B3C1E1}">
   <dimension ref="A1:BW2117"/>
   <sheetViews>
-    <sheetView topLeftCell="I60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="H69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G84" sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="7" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="7" width="9.140625" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="3.140625" style="1" customWidth="1"/>
     <col min="9" max="10" width="9.28515625" style="1" customWidth="1"/>
     <col min="11" max="13" width="10" style="1" bestFit="1" customWidth="1"/>

--- a/BSX_Model.xlsx
+++ b/BSX_Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F0E1B8-961A-4258-B552-74FFA4F7F1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660F90EC-1BF0-4B61-8B04-E8C27218EBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13005,7 +13005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:C9"/>
     </sheetView>
   </sheetViews>
@@ -13475,7 +13475,7 @@
   <dimension ref="B1:EH126"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CR38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BZ56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="CT68" sqref="CT68"/>
@@ -30983,8 +30983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B620B-86E4-4271-A65B-3362B1B3C1E1}">
   <dimension ref="A1:BW2117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G84" sqref="A1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2:AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>

--- a/BSX_Model.xlsx
+++ b/BSX_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660F90EC-1BF0-4B61-8B04-E8C27218EBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B209E7-33E2-4C6F-A351-6F16EEA9A44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main | Overview" sheetId="1" r:id="rId1"/>
@@ -7853,7 +7853,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7958,12 +7958,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -9713,13 +9707,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Notes | Quant Analysis'!$O$119</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-3σ</c:v>
-                </c:pt>
-              </c:strCache>
+              <c:f> </c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -9886,13 +9874,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Notes | Quant Analysis'!$O$121</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-2σ</c:v>
-                </c:pt>
-              </c:strCache>
+              <c:f> </c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -10023,13 +10005,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Notes | Quant Analysis'!$O$123</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-1σ</c:v>
-                </c:pt>
-              </c:strCache>
+              <c:f> </c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -10217,13 +10193,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Notes | Quant Analysis'!$O$125</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1σ</c:v>
-                </c:pt>
-              </c:strCache>
+              <c:f> </c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -10390,13 +10360,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Notes | Quant Analysis'!$O$127</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2σ</c:v>
-                </c:pt>
-              </c:strCache>
+              <c:f> </c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -10527,13 +10491,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Notes | Quant Analysis'!$O$129</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3σ</c:v>
-                </c:pt>
-              </c:strCache>
+              <c:f> </c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -15002,7 +14960,7 @@
         <v>1516</v>
       </c>
       <c r="CT8" s="41">
-        <f t="shared" ref="CT8:CT11" si="7">CS8*(1+CT23)</f>
+        <f t="shared" ref="CT8:CT10" si="7">CS8*(1+CT23)</f>
         <v>1591.8</v>
       </c>
       <c r="CU8" s="41"/>
@@ -17700,71 +17658,71 @@
         <v>201</v>
       </c>
       <c r="BA27" s="17">
-        <f>BA14/AW14-1</f>
+        <f t="shared" ref="BA27:BQ27" si="39">BA14/AW14-1</f>
         <v>8.2186394022807807E-2</v>
       </c>
       <c r="BB27" s="17">
-        <f>BB14/AX14-1</f>
+        <f t="shared" si="39"/>
         <v>0.53619570644033954</v>
       </c>
       <c r="BC27" s="17">
-        <f>BC14/AY14-1</f>
+        <f t="shared" si="39"/>
         <v>0.10267017675817969</v>
       </c>
       <c r="BD27" s="17">
-        <f>BD14/AZ14-1</f>
+        <f t="shared" si="39"/>
         <v>0.15472673559822758</v>
       </c>
       <c r="BE27" s="17">
-        <f>BE14/BA14-1</f>
+        <f t="shared" si="39"/>
         <v>9.9563953488372103E-2</v>
       </c>
       <c r="BF27" s="17">
-        <f>BF14/BB14-1</f>
+        <f t="shared" si="39"/>
         <v>5.4273643158921026E-2</v>
       </c>
       <c r="BG27" s="17">
-        <f>BG14/BC14-1</f>
+        <f t="shared" si="39"/>
         <v>8.1173260572987793E-2</v>
       </c>
       <c r="BH27" s="17">
-        <f>BH14/BD14-1</f>
+        <f t="shared" si="39"/>
         <v>3.6776463063639353E-2</v>
       </c>
       <c r="BI27" s="17">
-        <f>BI14/BE14-1</f>
+        <f t="shared" si="39"/>
         <v>0.11996034368803699</v>
       </c>
       <c r="BJ27" s="17">
-        <f>BJ14/BF14-1</f>
+        <f t="shared" si="39"/>
         <v>0.10943279901356351</v>
       </c>
       <c r="BK27" s="17">
-        <f>BK14/BG14-1</f>
+        <f t="shared" si="39"/>
         <v>0.11261829652996846</v>
       </c>
       <c r="BL27" s="17">
-        <f>BL14/BH14-1</f>
+        <f t="shared" si="39"/>
         <v>0.14898210980876003</v>
       </c>
       <c r="BM27" s="17">
-        <f>BM14/BI14-1</f>
+        <f t="shared" si="39"/>
         <v>0.1380938329890824</v>
       </c>
       <c r="BN27" s="17">
-        <f>BN14/BJ14-1</f>
+        <f t="shared" si="39"/>
         <v>0.14476243400944711</v>
       </c>
       <c r="BO27" s="17">
-        <f>BO14/BK14-1</f>
+        <f t="shared" si="39"/>
         <v>0.19336546640204144</v>
       </c>
       <c r="BP27" s="17">
-        <f>BP14/BL14-1</f>
+        <f t="shared" si="39"/>
         <v>0.22442953020134238</v>
       </c>
       <c r="BQ27" s="17">
-        <f>BQ14/BM14-1</f>
+        <f t="shared" si="39"/>
         <v>0.20897070261861561</v>
       </c>
       <c r="BR27" s="22"/>
@@ -17775,63 +17733,63 @@
       <c r="BW27" s="22"/>
       <c r="BX27" s="22"/>
       <c r="CO27" s="17">
-        <f t="shared" ref="CO27:CR27" si="39">CO14/CN14-1</f>
+        <f t="shared" ref="CO27:CR27" si="40">CO14/CN14-1</f>
         <v>-7.6571960875640444E-2</v>
       </c>
       <c r="CP27" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.19923332997074539</v>
       </c>
       <c r="CQ27" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>6.6790040376850657E-2</v>
       </c>
       <c r="CR27" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.12285128528623246</v>
       </c>
       <c r="CS27" s="17">
-        <f t="shared" ref="CS27:DC27" si="40">CS14/CR14-1</f>
+        <f t="shared" ref="CS27:DC27" si="41">CS14/CR14-1</f>
         <v>0.17605337078651684</v>
       </c>
       <c r="CT27" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.54419896100794163</v>
       </c>
       <c r="CU27" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-1</v>
       </c>
       <c r="CV27" s="22" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CW27" s="22" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CX27" s="22" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CY27" s="22" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CZ27" s="22" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DA27" s="22" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DB27" s="22" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DC27" s="22" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DD27" s="22"/>
@@ -18004,15 +17962,15 @@
         <v>5508</v>
       </c>
       <c r="CP29" s="9">
-        <f t="shared" ref="CP29:CP32" si="41">SUM(BA29:BD29)</f>
+        <f t="shared" ref="CP29:CP32" si="42">SUM(BA29:BD29)</f>
         <v>6901</v>
       </c>
       <c r="CQ29" s="9">
-        <f t="shared" ref="CQ29:CQ32" si="42">SUM(BE29:BH29)</f>
+        <f t="shared" ref="CQ29:CQ32" si="43">SUM(BE29:BH29)</f>
         <v>7632</v>
       </c>
       <c r="CR29" s="9">
-        <f t="shared" ref="CR29:CR32" si="43">SUM(BI29:BL29)</f>
+        <f t="shared" ref="CR29:CR32" si="44">SUM(BI29:BL29)</f>
         <v>8425</v>
       </c>
       <c r="CS29" s="9">
@@ -18149,15 +18107,15 @@
         <v>2097</v>
       </c>
       <c r="CP30" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>2518</v>
       </c>
       <c r="CQ30" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2526</v>
       </c>
       <c r="CR30" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2856</v>
       </c>
       <c r="CS30" s="9">
@@ -18294,15 +18252,15 @@
         <v>1781</v>
       </c>
       <c r="CP31" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>2070</v>
       </c>
       <c r="CQ31" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2116</v>
       </c>
       <c r="CR31" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2400</v>
       </c>
       <c r="CS31" s="9">
@@ -18439,15 +18397,15 @@
         <v>307</v>
       </c>
       <c r="CP32" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>386</v>
       </c>
       <c r="CQ32" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>469</v>
       </c>
       <c r="CR32" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>559</v>
       </c>
       <c r="CS32" s="9">
@@ -18521,11 +18479,11 @@
         <v>2752</v>
       </c>
       <c r="BB33" s="10">
-        <f t="shared" ref="BB33:BN33" si="44">SUM(BB29:BB32)</f>
+        <f t="shared" ref="BB33:BN33" si="45">SUM(BB29:BB32)</f>
         <v>3077</v>
       </c>
       <c r="BC33" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2932</v>
       </c>
       <c r="BD33" s="10">
@@ -18533,15 +18491,15 @@
         <v>3127</v>
       </c>
       <c r="BE33" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>3026</v>
       </c>
       <c r="BF33" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>3244</v>
       </c>
       <c r="BG33" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>3170</v>
       </c>
       <c r="BH33" s="10">
@@ -18549,31 +18507,31 @@
         <v>3242</v>
       </c>
       <c r="BI33" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>3389</v>
       </c>
       <c r="BJ33" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>3599</v>
       </c>
       <c r="BK33" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>3527</v>
       </c>
       <c r="BL33" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>3725</v>
       </c>
       <c r="BM33" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>3857</v>
       </c>
       <c r="BN33" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4120</v>
       </c>
       <c r="BO33" s="10">
-        <f t="shared" ref="BO33:BQ33" si="45">SUM(BO29:BO32)</f>
+        <f t="shared" ref="BO33:BQ33" si="46">SUM(BO29:BO32)</f>
         <v>4209</v>
       </c>
       <c r="BP33" s="10">
@@ -18581,7 +18539,7 @@
         <v>4561</v>
       </c>
       <c r="BQ33" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>4663</v>
       </c>
       <c r="BR33" s="20"/>
@@ -18608,11 +18566,11 @@
         <v>12682</v>
       </c>
       <c r="CR33" s="10">
-        <f t="shared" ref="CR33:CS33" si="46">SUM(CR29:CR32)</f>
+        <f t="shared" ref="CR33:CS33" si="47">SUM(CR29:CR32)</f>
         <v>14240</v>
       </c>
       <c r="CS33" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>16747</v>
       </c>
       <c r="CT33" s="20"/>
@@ -18758,87 +18716,87 @@
       <c r="AU35" s="13"/>
       <c r="AV35" s="13"/>
       <c r="AW35" s="18">
-        <f t="shared" ref="AW35:BQ35" si="47">AW29/AW33</f>
+        <f t="shared" ref="AW35:BQ35" si="48">AW29/AW33</f>
         <v>0.57097915847424296</v>
       </c>
       <c r="AX35" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.52820768846729904</v>
       </c>
       <c r="AY35" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.56261752538548326</v>
       </c>
       <c r="AZ35" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.55465288035450522</v>
       </c>
       <c r="BA35" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.57303779069767447</v>
       </c>
       <c r="BB35" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.5849853753656159</v>
       </c>
       <c r="BC35" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.58867667121418832</v>
       </c>
       <c r="BD35" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.57499200511672532</v>
       </c>
       <c r="BE35" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.58757435558493065</v>
       </c>
       <c r="BF35" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.59617755856966703</v>
       </c>
       <c r="BG35" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.61009463722397472</v>
       </c>
       <c r="BH35" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.61258482418260329</v>
       </c>
       <c r="BI35" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.59102980230156388</v>
       </c>
       <c r="BJ35" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.58627396499027506</v>
       </c>
       <c r="BK35" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.59512333427842357</v>
       </c>
       <c r="BL35" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.59409395973154366</v>
       </c>
       <c r="BM35" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.58542908996629506</v>
       </c>
       <c r="BN35" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.59854368932038837</v>
       </c>
       <c r="BO35" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.6160608220479924</v>
       </c>
       <c r="BP35" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.63429072571804423</v>
       </c>
       <c r="BQ35" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.63478447351490452</v>
       </c>
       <c r="BR35" s="21"/>
@@ -18849,27 +18807,27 @@
       <c r="BW35" s="19"/>
       <c r="BX35" s="19"/>
       <c r="CN35" s="18">
-        <f t="shared" ref="CN35:CS35" si="48">CN29/CN33</f>
+        <f t="shared" ref="CN35:CS35" si="49">CN29/CN33</f>
         <v>0.56795528644620397</v>
       </c>
       <c r="CO35" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.55563401593866635</v>
       </c>
       <c r="CP35" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.58050134589502023</v>
       </c>
       <c r="CQ35" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.60179782368711565</v>
       </c>
       <c r="CR35" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.5916432584269663</v>
       </c>
       <c r="CS35" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.60966143189825039</v>
       </c>
       <c r="CT35" s="19"/>
@@ -18965,87 +18923,87 @@
       <c r="AU36" s="13"/>
       <c r="AV36" s="13"/>
       <c r="AW36" s="18">
-        <f t="shared" ref="AW36:BQ36" si="49">AW30/AW33</f>
+        <f t="shared" ref="AW36:BQ36" si="50">AW30/AW33</f>
         <v>0.21706645694062132</v>
       </c>
       <c r="AX36" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.20768846729905141</v>
       </c>
       <c r="AY36" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.20308386611508086</v>
       </c>
       <c r="AZ36" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.21750369276218612</v>
       </c>
       <c r="BA36" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.21947674418604651</v>
       </c>
       <c r="BB36" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.21514462138446538</v>
       </c>
       <c r="BC36" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.20122783083219645</v>
       </c>
       <c r="BD36" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.21170450911416694</v>
       </c>
       <c r="BE36" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.2062128222075347</v>
       </c>
       <c r="BF36" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.20345252774352651</v>
       </c>
       <c r="BG36" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.18454258675078863</v>
       </c>
       <c r="BH36" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.20265268352868598</v>
       </c>
       <c r="BI36" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.21009147241074064</v>
       </c>
       <c r="BJ36" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.20088913587107529</v>
       </c>
       <c r="BK36" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.19024666855684719</v>
       </c>
       <c r="BL36" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.20134228187919462</v>
       </c>
       <c r="BM36" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.20819289603318641</v>
       </c>
       <c r="BN36" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.19951456310679611</v>
       </c>
       <c r="BO36" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.18365407460204325</v>
       </c>
       <c r="BP36" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.18197763648322737</v>
       </c>
       <c r="BQ36" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.18142826506540854</v>
       </c>
       <c r="BR36" s="21"/>
@@ -19056,27 +19014,27 @@
       <c r="BW36" s="19"/>
       <c r="BX36" s="19"/>
       <c r="CN36" s="18">
-        <f t="shared" ref="CN36:CS36" si="50">CN30/CN33</f>
+        <f t="shared" ref="CN36:CS36" si="51">CN30/CN33</f>
         <v>0.21089892873777363</v>
       </c>
       <c r="CO36" s="18">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.211540401492989</v>
       </c>
       <c r="CP36" s="18">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.21181022880215344</v>
       </c>
       <c r="CQ36" s="18">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.19917994007254378</v>
       </c>
       <c r="CR36" s="18">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.200561797752809</v>
       </c>
       <c r="CS36" s="18">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.19275094046694929</v>
       </c>
       <c r="CT36" s="19"/>
@@ -19172,87 +19130,87 @@
       <c r="AU37" s="13"/>
       <c r="AV37" s="13"/>
       <c r="AW37" s="18">
-        <f t="shared" ref="AW37:BQ37" si="51">AW31/AW33</f>
+        <f t="shared" ref="AW37:BQ37" si="52">AW31/AW33</f>
         <v>0.16083366103027918</v>
       </c>
       <c r="AX37" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.20469296055916125</v>
       </c>
       <c r="AY37" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.17751034223392254</v>
       </c>
       <c r="AZ37" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.18094534711964549</v>
       </c>
       <c r="BA37" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.171875</v>
       </c>
       <c r="BB37" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.16899577510562236</v>
       </c>
       <c r="BC37" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.17633015006821282</v>
       </c>
       <c r="BD37" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.17908538535337384</v>
       </c>
       <c r="BE37" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.17085261070720423</v>
       </c>
       <c r="BF37" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.16337854500616522</v>
       </c>
       <c r="BG37" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.16782334384858044</v>
       </c>
       <c r="BH37" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.16563849475632325</v>
       </c>
       <c r="BI37" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.16169961640601949</v>
       </c>
       <c r="BJ37" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.17393720477910532</v>
       </c>
       <c r="BK37" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.17323504394669692</v>
       </c>
       <c r="BL37" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.1651006711409396</v>
       </c>
       <c r="BM37" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.16774695359087374</v>
       </c>
       <c r="BN37" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.16262135922330098</v>
       </c>
       <c r="BO37" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.16250890947968638</v>
       </c>
       <c r="BP37" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.15018636263977198</v>
       </c>
       <c r="BQ37" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.15033240403173923</v>
       </c>
       <c r="BR37" s="21"/>
@@ -19263,27 +19221,27 @@
       <c r="BW37" s="19"/>
       <c r="BX37" s="19"/>
       <c r="CN37" s="18">
-        <f t="shared" ref="CN37:CS37" si="52">CN31/CN33</f>
+        <f t="shared" ref="CN37:CS37" si="53">CN31/CN33</f>
         <v>0.17680484396832791</v>
       </c>
       <c r="CO37" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.17966306869766974</v>
       </c>
       <c r="CP37" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.17412516823687751</v>
       </c>
       <c r="CQ37" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.16685065447090364</v>
       </c>
       <c r="CR37" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.16853932584269662</v>
       </c>
       <c r="CS37" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.16038693497342807</v>
       </c>
       <c r="CT37" s="19"/>
@@ -19379,87 +19337,87 @@
       <c r="AU38" s="13"/>
       <c r="AV38" s="13"/>
       <c r="AW38" s="18">
-        <f t="shared" ref="AW38:BQ38" si="53">AW32/AW33</f>
+        <f t="shared" ref="AW38:BQ38" si="54">AW32/AW33</f>
         <v>3.4998033818324815E-2</v>
       </c>
       <c r="AX38" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>2.5461807289066399E-2</v>
       </c>
       <c r="AY38" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>2.8958254983076345E-2</v>
       </c>
       <c r="AZ38" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>3.3234859675036928E-2</v>
       </c>
       <c r="BA38" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>3.0886627906976744E-2</v>
       </c>
       <c r="BB38" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>3.0874228144296391E-2</v>
       </c>
       <c r="BC38" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>3.3765347885402454E-2</v>
       </c>
       <c r="BD38" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>3.4218100415733928E-2</v>
       </c>
       <c r="BE38" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>3.5360211500330467E-2</v>
       </c>
       <c r="BF38" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>3.6991368680641186E-2</v>
       </c>
       <c r="BG38" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>3.7539432176656153E-2</v>
       </c>
       <c r="BH38" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>3.7939543491671807E-2</v>
       </c>
       <c r="BI38" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>3.7179108881676012E-2</v>
       </c>
       <c r="BJ38" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>3.8899694359544316E-2</v>
       </c>
       <c r="BK38" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>4.139495321803232E-2</v>
       </c>
       <c r="BL38" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>3.9463087248322148E-2</v>
       </c>
       <c r="BM38" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>3.8631060409644799E-2</v>
       </c>
       <c r="BN38" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>3.9320388349514561E-2</v>
       </c>
       <c r="BO38" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>3.7776193870277974E-2</v>
       </c>
       <c r="BP38" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>3.3545275158956368E-2</v>
       </c>
       <c r="BQ38" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>3.3454857387947672E-2</v>
       </c>
       <c r="BR38" s="21"/>
@@ -19470,27 +19428,27 @@
       <c r="BW38" s="19"/>
       <c r="BX38" s="19"/>
       <c r="CN38" s="18">
-        <f t="shared" ref="CN38:CS38" si="54">CN32/CN33</f>
+        <f t="shared" ref="CN38:CS38" si="55">CN32/CN33</f>
         <v>3.67955286446204E-2</v>
       </c>
       <c r="CO38" s="18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>3.0969434076465248E-2</v>
       </c>
       <c r="CP38" s="18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>3.2469717362045764E-2</v>
       </c>
       <c r="CQ38" s="18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>3.6981548651632237E-2</v>
       </c>
       <c r="CR38" s="18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>3.9255617977528093E-2</v>
       </c>
       <c r="CS38" s="18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>3.7200692661372187E-2</v>
       </c>
       <c r="CT38" s="19"/>
@@ -19707,71 +19665,71 @@
       <c r="AY40" s="18"/>
       <c r="AZ40" s="18"/>
       <c r="BA40" s="18">
-        <f t="shared" ref="BA40:BJ44" si="55">BA29/AW29-1</f>
+        <f t="shared" ref="BA40:BJ44" si="56">BA29/AW29-1</f>
         <v>8.6088154269972517E-2</v>
       </c>
       <c r="BB40" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.70132325141776941</v>
       </c>
       <c r="BC40" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.15374331550802145</v>
       </c>
       <c r="BD40" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.1970705725699069</v>
       </c>
       <c r="BE40" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.12745719720989213</v>
       </c>
       <c r="BF40" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>7.4444444444444535E-2</v>
       </c>
       <c r="BG40" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.12050984936268838</v>
       </c>
       <c r="BH40" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.1045606229143492</v>
       </c>
       <c r="BI40" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.12654668166479199</v>
       </c>
       <c r="BJ40" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>9.1003102378490075E-2</v>
       </c>
       <c r="BK40" s="18">
-        <f t="shared" ref="BK40:BQ44" si="56">BK29/BG29-1</f>
+        <f t="shared" ref="BK40:BQ44" si="57">BK29/BG29-1</f>
         <v>8.5315408479834431E-2</v>
       </c>
       <c r="BL40" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.11430010070493446</v>
       </c>
       <c r="BM40" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.12730903644533198</v>
       </c>
       <c r="BN40" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.1687203791469194</v>
       </c>
       <c r="BO40" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.23535016674606957</v>
       </c>
       <c r="BP40" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.30727519204699494</v>
       </c>
       <c r="BQ40" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.31089459698848532</v>
       </c>
       <c r="BR40" s="22"/>
@@ -19782,23 +19740,23 @@
       <c r="BW40" s="19"/>
       <c r="BX40" s="19"/>
       <c r="CO40" s="18">
-        <f t="shared" ref="CO40:CS44" si="57">CO29/CN29-1</f>
+        <f t="shared" ref="CO40:CS44" si="58">CO29/CN29-1</f>
         <v>-9.6604887649663795E-2</v>
       </c>
       <c r="CP40" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.25290486564996373</v>
       </c>
       <c r="CQ40" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.10592667729314598</v>
       </c>
       <c r="CR40" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.10390461215932922</v>
       </c>
       <c r="CS40" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.21186943620178034</v>
       </c>
       <c r="CT40" s="19"/>
@@ -19898,71 +19856,71 @@
       <c r="AY41" s="18"/>
       <c r="AZ41" s="18"/>
       <c r="BA41" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>9.4202898550724612E-2</v>
       </c>
       <c r="BB41" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.59134615384615374</v>
       </c>
       <c r="BC41" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>9.259259259259256E-2</v>
       </c>
       <c r="BD41" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.12393887945670623</v>
       </c>
       <c r="BE41" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>3.3112582781456901E-2</v>
       </c>
       <c r="BF41" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>-3.0211480362537513E-3</v>
       </c>
       <c r="BG41" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>-8.4745762711864181E-3</v>
       </c>
       <c r="BH41" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>-7.5528700906344337E-3</v>
       </c>
       <c r="BI41" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.14102564102564097</v>
       </c>
       <c r="BJ41" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>9.5454545454545459E-2</v>
       </c>
       <c r="BK41" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.14700854700854693</v>
       </c>
       <c r="BL41" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.14155251141552516</v>
       </c>
       <c r="BM41" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.12780898876404501</v>
       </c>
       <c r="BN41" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.13692946058091282</v>
       </c>
       <c r="BO41" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.15201192250372575</v>
       </c>
       <c r="BP41" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.10666666666666669</v>
       </c>
       <c r="BQ41" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>5.3549190535491897E-2</v>
       </c>
       <c r="BR41" s="22"/>
@@ -19973,23 +19931,23 @@
       <c r="BW41" s="19"/>
       <c r="BX41" s="19"/>
       <c r="CO41" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>-7.3763250883392195E-2</v>
       </c>
       <c r="CP41" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.20076299475441117</v>
       </c>
       <c r="CQ41" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>3.1771247021445959E-3</v>
       </c>
       <c r="CR41" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.13064133016627077</v>
       </c>
       <c r="CS41" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.13025210084033612</v>
       </c>
       <c r="CT41" s="19"/>
@@ -20089,71 +20047,71 @@
       <c r="AY42" s="18"/>
       <c r="AZ42" s="18"/>
       <c r="BA42" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.15647921760391204</v>
       </c>
       <c r="BB42" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.26829268292682928</v>
       </c>
       <c r="BC42" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>9.5338983050847537E-2</v>
       </c>
       <c r="BD42" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.14285714285714279</v>
       </c>
       <c r="BE42" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>9.3023255813953432E-2</v>
       </c>
       <c r="BF42" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>1.9230769230769162E-2</v>
       </c>
       <c r="BG42" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>2.9013539651837617E-2</v>
       </c>
       <c r="BH42" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>-4.1071428571428537E-2</v>
       </c>
       <c r="BI42" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>5.9961315280464111E-2</v>
       </c>
       <c r="BJ42" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.18113207547169807</v>
       </c>
       <c r="BK42" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.14849624060150379</v>
       </c>
       <c r="BL42" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.14525139664804465</v>
       </c>
       <c r="BM42" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.18065693430656937</v>
       </c>
       <c r="BN42" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>7.0287539936102261E-2</v>
       </c>
       <c r="BO42" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.11947626841243864</v>
       </c>
       <c r="BP42" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.11382113821138207</v>
       </c>
       <c r="BQ42" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>8.3462132921174659E-2</v>
       </c>
       <c r="BR42" s="22"/>
@@ -20164,23 +20122,23 @@
       <c r="BW42" s="19"/>
       <c r="BX42" s="19"/>
       <c r="CO42" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>-6.164383561643838E-2</v>
       </c>
       <c r="CP42" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.16226838854576076</v>
       </c>
       <c r="CQ42" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>2.2222222222222143E-2</v>
       </c>
       <c r="CR42" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.13421550094517953</v>
       </c>
       <c r="CS42" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.11916666666666664</v>
       </c>
       <c r="CT42" s="19"/>
@@ -20280,71 +20238,71 @@
       <c r="AY43" s="18"/>
       <c r="AZ43" s="18"/>
       <c r="BA43" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>-4.49438202247191E-2</v>
       </c>
       <c r="BB43" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.86274509803921573</v>
       </c>
       <c r="BC43" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.28571428571428581</v>
       </c>
       <c r="BD43" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.18888888888888888</v>
       </c>
       <c r="BE43" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.25882352941176467</v>
       </c>
       <c r="BF43" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.26315789473684204</v>
       </c>
       <c r="BG43" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.20202020202020199</v>
       </c>
       <c r="BH43" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.14953271028037385</v>
       </c>
       <c r="BI43" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.17757009345794383</v>
       </c>
       <c r="BJ43" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.16666666666666674</v>
       </c>
       <c r="BK43" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.22689075630252109</v>
       </c>
       <c r="BL43" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.19512195121951215</v>
       </c>
       <c r="BM43" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.18253968253968256</v>
       </c>
       <c r="BN43" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.15714285714285725</v>
       </c>
       <c r="BO43" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>8.9041095890410871E-2</v>
       </c>
       <c r="BP43" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>4.081632653061229E-2</v>
       </c>
       <c r="BQ43" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>4.6979865771812124E-2</v>
       </c>
       <c r="BR43" s="22"/>
@@ -20355,23 +20313,23 @@
       <c r="BW43" s="19"/>
       <c r="BX43" s="19"/>
       <c r="CO43" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>-0.22278481012658224</v>
       </c>
       <c r="CP43" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.25732899022801292</v>
       </c>
       <c r="CQ43" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.21502590673575139</v>
       </c>
       <c r="CR43" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.1918976545842217</v>
       </c>
       <c r="CS43" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.11449016100178899</v>
       </c>
       <c r="CT43" s="19"/>
@@ -20471,71 +20429,71 @@
       <c r="AY44" s="18"/>
       <c r="AZ44" s="18"/>
       <c r="BA44" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>8.2186394022807807E-2</v>
       </c>
       <c r="BB44" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.53619570644033954</v>
       </c>
       <c r="BC44" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.10267017675817969</v>
       </c>
       <c r="BD44" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.15472673559822758</v>
       </c>
       <c r="BE44" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>9.9563953488372103E-2</v>
       </c>
       <c r="BF44" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>5.4273643158921026E-2</v>
       </c>
       <c r="BG44" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>8.1173260572987793E-2</v>
       </c>
       <c r="BH44" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>3.6776463063639353E-2</v>
       </c>
       <c r="BI44" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.11996034368803699</v>
       </c>
       <c r="BJ44" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.10943279901356351</v>
       </c>
       <c r="BK44" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.11261829652996846</v>
       </c>
       <c r="BL44" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.14898210980876003</v>
       </c>
       <c r="BM44" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.1380938329890824</v>
       </c>
       <c r="BN44" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.14476243400944711</v>
       </c>
       <c r="BO44" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.19336546640204144</v>
       </c>
       <c r="BP44" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.22442953020134238</v>
       </c>
       <c r="BQ44" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.20897070261861561</v>
       </c>
       <c r="BR44" s="22"/>
@@ -20546,23 +20504,23 @@
       <c r="BW44" s="19"/>
       <c r="BX44" s="19"/>
       <c r="CO44" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>-7.6571960875640444E-2</v>
       </c>
       <c r="CP44" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.19923332997074539</v>
       </c>
       <c r="CQ44" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>6.6790040376850657E-2</v>
       </c>
       <c r="CR44" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.12285128528623246</v>
       </c>
       <c r="CS44" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.17605337078651684</v>
       </c>
       <c r="CT44" s="19"/>
@@ -20803,87 +20761,87 @@
         <v>2904</v>
       </c>
       <c r="AW46" s="10">
-        <f t="shared" ref="AW46:BQ46" si="58">AW33</f>
+        <f t="shared" ref="AW46:BQ46" si="59">AW33</f>
         <v>2543</v>
       </c>
       <c r="AX46" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>2003</v>
       </c>
       <c r="AY46" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>2659</v>
       </c>
       <c r="AZ46" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>2708</v>
       </c>
       <c r="BA46" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>2752</v>
       </c>
       <c r="BB46" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>3077</v>
       </c>
       <c r="BC46" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>2932</v>
       </c>
       <c r="BD46" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>3127</v>
       </c>
       <c r="BE46" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>3026</v>
       </c>
       <c r="BF46" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>3244</v>
       </c>
       <c r="BG46" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>3170</v>
       </c>
       <c r="BH46" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>3242</v>
       </c>
       <c r="BI46" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>3389</v>
       </c>
       <c r="BJ46" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>3599</v>
       </c>
       <c r="BK46" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>3527</v>
       </c>
       <c r="BL46" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>3725</v>
       </c>
       <c r="BM46" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>3857</v>
       </c>
       <c r="BN46" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>4120</v>
       </c>
       <c r="BO46" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>4209</v>
       </c>
       <c r="BP46" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>4561</v>
       </c>
       <c r="BQ46" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>4663</v>
       </c>
       <c r="BR46" s="20"/>
@@ -21217,67 +21175,67 @@
       <c r="BW47" s="19"/>
       <c r="BX47" s="19"/>
       <c r="CD47" s="9">
-        <f t="shared" ref="CD47:CD62" si="59">SUM(E47:H47)</f>
+        <f t="shared" ref="CD47:CD62" si="60">SUM(E47:H47)</f>
         <v>2576</v>
       </c>
       <c r="CE47" s="9">
-        <f t="shared" ref="CE47:CE63" si="60">SUM(I47:L47)</f>
+        <f t="shared" ref="CE47:CE63" si="61">SUM(I47:L47)</f>
         <v>2599</v>
       </c>
       <c r="CF47" s="9">
-        <f t="shared" ref="CF47:CF63" si="61">SUM(M47:P47)</f>
+        <f t="shared" ref="CF47:CF63" si="62">SUM(M47:P47)</f>
         <v>2659</v>
       </c>
       <c r="CG47" s="9">
-        <f t="shared" ref="CG47:CG63" si="62">SUM(Q47:T47)</f>
+        <f t="shared" ref="CG47:CG63" si="63">SUM(Q47:T47)</f>
         <v>2349</v>
       </c>
       <c r="CH47" s="9">
-        <f t="shared" ref="CH47:CH63" si="63">SUM(U47:X47)</f>
+        <f t="shared" ref="CH47:CH63" si="64">SUM(U47:X47)</f>
         <v>2174</v>
       </c>
       <c r="CI47" s="9">
-        <f t="shared" ref="CI47:CI63" si="64">SUM(Y47:AB47)</f>
+        <f t="shared" ref="CI47:CI63" si="65">SUM(Y47:AB47)</f>
         <v>2210</v>
       </c>
       <c r="CJ47" s="9">
-        <f t="shared" ref="CJ47:CJ63" si="65">SUM(AC47:AF47)</f>
+        <f t="shared" ref="CJ47:CJ63" si="66">SUM(AC47:AF47)</f>
         <v>2173</v>
       </c>
       <c r="CK47" s="9">
-        <f t="shared" ref="CK47:CK63" si="66">SUM(AG47:AJ47)</f>
+        <f t="shared" ref="CK47:CK63" si="67">SUM(AG47:AJ47)</f>
         <v>2424</v>
       </c>
       <c r="CL47" s="9">
-        <f t="shared" ref="CL47:CL63" si="67">SUM(AK47:AN47)</f>
+        <f t="shared" ref="CL47:CL63" si="68">SUM(AK47:AN47)</f>
         <v>2593</v>
       </c>
       <c r="CM47" s="9">
-        <f t="shared" ref="CM47:CM63" si="68">SUM(AO47:AR47)</f>
+        <f t="shared" ref="CM47:CM63" si="69">SUM(AO47:AR47)</f>
         <v>2813</v>
       </c>
       <c r="CN47" s="9">
-        <f t="shared" ref="CN47:CN63" si="69">SUM(AS47:AV47)</f>
+        <f t="shared" ref="CN47:CN63" si="70">SUM(AS47:AV47)</f>
         <v>3116</v>
       </c>
       <c r="CO47" s="9">
-        <f t="shared" ref="CO47:CO63" si="70">SUM(AW47:AZ47)</f>
+        <f t="shared" ref="CO47:CO63" si="71">SUM(AW47:AZ47)</f>
         <v>3465</v>
       </c>
       <c r="CP47" s="9">
-        <f t="shared" ref="CP47:CP63" si="71">SUM(BA47:BD47)</f>
+        <f t="shared" ref="CP47:CP63" si="72">SUM(BA47:BD47)</f>
         <v>3711</v>
       </c>
       <c r="CQ47" s="9">
-        <f t="shared" ref="CQ47:CQ63" si="72">SUM(BE47:BH47)</f>
+        <f t="shared" ref="CQ47:CQ63" si="73">SUM(BE47:BH47)</f>
         <v>3956</v>
       </c>
       <c r="CR47" s="9">
-        <f t="shared" ref="CR47:CR63" si="73">SUM(BI47:BL47)</f>
+        <f t="shared" ref="CR47:CR63" si="74">SUM(BI47:BL47)</f>
         <v>4345</v>
       </c>
       <c r="CS47" s="9">
-        <f t="shared" ref="CS47:CS68" si="74">SUM(BM47:BP47)</f>
+        <f t="shared" ref="CS47:CS68" si="75">SUM(BM47:BP47)</f>
         <v>5257</v>
       </c>
       <c r="CT47" s="19"/>
@@ -21327,263 +21285,263 @@
         <v>175</v>
       </c>
       <c r="C48" s="9">
-        <f t="shared" ref="C48:BN48" si="75">C46-C47</f>
+        <f t="shared" ref="C48:BN48" si="76">C46-C47</f>
         <v>1420</v>
       </c>
       <c r="D48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1323</v>
       </c>
       <c r="E48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1403</v>
       </c>
       <c r="F48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1444</v>
       </c>
       <c r="G48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1396</v>
       </c>
       <c r="H48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1369</v>
       </c>
       <c r="I48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1297</v>
       </c>
       <c r="J48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1274</v>
       </c>
       <c r="K48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1293</v>
       </c>
       <c r="L48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1343</v>
       </c>
       <c r="M48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1294</v>
       </c>
       <c r="N48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1287</v>
       </c>
       <c r="O48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1194</v>
       </c>
       <c r="P48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1188</v>
       </c>
       <c r="Q48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1235</v>
       </c>
       <c r="R48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1250</v>
       </c>
       <c r="S48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1177</v>
       </c>
       <c r="T48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1238</v>
       </c>
       <c r="U48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1183</v>
       </c>
       <c r="V48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1279</v>
       </c>
       <c r="W48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1225</v>
       </c>
       <c r="X48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1282</v>
       </c>
       <c r="Y48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1237</v>
       </c>
       <c r="Z48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1310</v>
       </c>
       <c r="AA48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1296</v>
       </c>
       <c r="AB48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1327</v>
       </c>
       <c r="AC48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1248</v>
       </c>
       <c r="AD48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1303</v>
       </c>
       <c r="AE48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1349</v>
       </c>
       <c r="AF48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1404</v>
       </c>
       <c r="AG48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1391</v>
       </c>
       <c r="AH48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1487</v>
       </c>
       <c r="AI48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1511</v>
       </c>
       <c r="AJ48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1573</v>
       </c>
       <c r="AK48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1510</v>
       </c>
       <c r="AL48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1625</v>
       </c>
       <c r="AM48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1585</v>
       </c>
       <c r="AN48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1735</v>
       </c>
       <c r="AO48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1707</v>
       </c>
       <c r="AP48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1751</v>
       </c>
       <c r="AQ48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1721</v>
       </c>
       <c r="AR48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1831</v>
       </c>
       <c r="AS48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1763</v>
       </c>
       <c r="AT48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1873</v>
       </c>
       <c r="AU48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1930</v>
       </c>
       <c r="AV48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>2053</v>
       </c>
       <c r="AW48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1737</v>
       </c>
       <c r="AX48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1212</v>
       </c>
       <c r="AY48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1790</v>
       </c>
       <c r="AZ48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1709</v>
       </c>
       <c r="BA48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1858</v>
       </c>
       <c r="BB48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>2132</v>
       </c>
       <c r="BC48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>2032</v>
       </c>
       <c r="BD48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>2155</v>
       </c>
       <c r="BE48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>2071</v>
       </c>
       <c r="BF48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>2233</v>
       </c>
       <c r="BG48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>2191</v>
       </c>
       <c r="BH48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>2231</v>
       </c>
       <c r="BI48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>2349</v>
       </c>
       <c r="BJ48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>2541</v>
       </c>
       <c r="BK48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>2426</v>
       </c>
       <c r="BL48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>2579</v>
       </c>
       <c r="BM48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>2648</v>
       </c>
       <c r="BN48" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>2850</v>
       </c>
       <c r="BO48" s="9">
-        <f t="shared" ref="BO48:BQ48" si="76">BO46-BO47</f>
+        <f t="shared" ref="BO48:BQ48" si="77">BO46-BO47</f>
         <v>2897</v>
       </c>
       <c r="BP48" s="9">
@@ -21591,7 +21549,7 @@
         <v>3095</v>
       </c>
       <c r="BQ48" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>3210</v>
       </c>
       <c r="BR48" s="19"/>
@@ -21602,67 +21560,67 @@
       <c r="BW48" s="19"/>
       <c r="BX48" s="19"/>
       <c r="CD48" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>5612</v>
       </c>
       <c r="CE48" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>5207</v>
       </c>
       <c r="CF48" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>4963</v>
       </c>
       <c r="CG48" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>4900</v>
       </c>
       <c r="CH48" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>4969</v>
       </c>
       <c r="CI48" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>5170</v>
       </c>
       <c r="CJ48" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>5304</v>
       </c>
       <c r="CK48" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>5962</v>
       </c>
       <c r="CL48" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>6455</v>
       </c>
       <c r="CM48" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>7010</v>
       </c>
       <c r="CN48" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>7619</v>
       </c>
       <c r="CO48" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>6448</v>
       </c>
       <c r="CP48" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>8177</v>
       </c>
       <c r="CQ48" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>8726</v>
       </c>
       <c r="CR48" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>9895</v>
       </c>
       <c r="CS48" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>11490</v>
       </c>
       <c r="CT48" s="19"/>
@@ -21925,67 +21883,67 @@
       <c r="BW49" s="19"/>
       <c r="BX49" s="19"/>
       <c r="CD49" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>2635</v>
       </c>
       <c r="CE49" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>2582</v>
       </c>
       <c r="CF49" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>2494</v>
       </c>
       <c r="CG49" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>2529</v>
       </c>
       <c r="CH49" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2678</v>
       </c>
       <c r="CI49" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>2902</v>
       </c>
       <c r="CJ49" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>2873</v>
       </c>
       <c r="CK49" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>3099</v>
       </c>
       <c r="CL49" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>3294</v>
       </c>
       <c r="CM49" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>3569</v>
       </c>
       <c r="CN49" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>3941</v>
       </c>
       <c r="CO49" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>3787</v>
       </c>
       <c r="CP49" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>4359</v>
       </c>
       <c r="CQ49" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>4520</v>
       </c>
       <c r="CR49" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>5190</v>
       </c>
       <c r="CS49" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>5984</v>
       </c>
       <c r="CT49" s="19"/>
@@ -22248,67 +22206,67 @@
       <c r="BW50" s="19"/>
       <c r="BX50" s="19"/>
       <c r="CD50" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1056</v>
       </c>
       <c r="CE50" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>939</v>
       </c>
       <c r="CF50" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>895</v>
       </c>
       <c r="CG50" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>886</v>
       </c>
       <c r="CH50" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>861</v>
       </c>
       <c r="CI50" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>817</v>
       </c>
       <c r="CJ50" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>876</v>
       </c>
       <c r="CK50" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>920</v>
       </c>
       <c r="CL50" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>997</v>
       </c>
       <c r="CM50" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1113</v>
       </c>
       <c r="CN50" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>1174</v>
       </c>
       <c r="CO50" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>1143</v>
       </c>
       <c r="CP50" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1204</v>
       </c>
       <c r="CQ50" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1323</v>
       </c>
       <c r="CR50" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1414</v>
       </c>
       <c r="CS50" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1615</v>
       </c>
       <c r="CT50" s="19"/>
@@ -22433,23 +22391,23 @@
       <c r="BW51" s="19"/>
       <c r="BX51" s="19"/>
       <c r="CO51" s="9">
-        <f t="shared" ref="CO51:CO57" si="77">SUM(AW51:AZ51)</f>
+        <f t="shared" ref="CO51:CO57" si="78">SUM(AW51:AZ51)</f>
         <v>45</v>
       </c>
       <c r="CP51" s="9">
-        <f t="shared" ref="CP51:CP57" si="78">SUM(BA51:BD51)</f>
+        <f t="shared" ref="CP51:CP57" si="79">SUM(BA51:BD51)</f>
         <v>49</v>
       </c>
       <c r="CQ51" s="9">
-        <f t="shared" ref="CQ51:CQ57" si="79">SUM(BE51:BH51)</f>
+        <f t="shared" ref="CQ51:CQ57" si="80">SUM(BE51:BH51)</f>
         <v>47</v>
       </c>
       <c r="CR51" s="9">
-        <f t="shared" ref="CR51:CR57" si="80">SUM(BI51:BL51)</f>
+        <f t="shared" ref="CR51:CR57" si="81">SUM(BI51:BL51)</f>
         <v>46</v>
       </c>
       <c r="CS51" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>33</v>
       </c>
       <c r="CT51" s="19"/>
@@ -22574,23 +22532,23 @@
       <c r="BW52" s="19"/>
       <c r="BX52" s="19"/>
       <c r="CO52" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>789</v>
       </c>
       <c r="CP52" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>741</v>
       </c>
       <c r="CQ52" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>803</v>
       </c>
       <c r="CR52" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>828</v>
       </c>
       <c r="CS52" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>856</v>
       </c>
       <c r="CT52" s="19"/>
@@ -22715,23 +22673,23 @@
       <c r="BW53" s="19"/>
       <c r="BX53" s="19"/>
       <c r="CO53" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>460</v>
       </c>
       <c r="CP53" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>370</v>
       </c>
       <c r="CQ53" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>132</v>
       </c>
       <c r="CR53" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>58</v>
       </c>
       <c r="CS53" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>386</v>
       </c>
       <c r="CT53" s="19"/>
@@ -22856,23 +22814,23 @@
       <c r="BW54" s="19"/>
       <c r="BX54" s="19"/>
       <c r="CO54" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>-100</v>
       </c>
       <c r="CP54" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>-136</v>
       </c>
       <c r="CQ54" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>35</v>
       </c>
       <c r="CR54" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>58</v>
       </c>
       <c r="CS54" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>-5</v>
       </c>
       <c r="CT54" s="19"/>
@@ -22997,19 +22955,19 @@
       <c r="BW55" s="19"/>
       <c r="BX55" s="19"/>
       <c r="CO55" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>52</v>
       </c>
       <c r="CP55" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>40</v>
       </c>
       <c r="CQ55" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>24</v>
       </c>
       <c r="CR55" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>69</v>
       </c>
       <c r="CS55" s="9">
@@ -23138,23 +23096,23 @@
       <c r="BW56" s="19"/>
       <c r="BX56" s="19"/>
       <c r="CO56" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>278</v>
       </c>
       <c r="CP56" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>430</v>
       </c>
       <c r="CQ56" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>173</v>
       </c>
       <c r="CR56" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>-111</v>
       </c>
       <c r="CS56" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="CT56" s="19"/>
@@ -23279,23 +23237,23 @@
       <c r="BW57" s="19"/>
       <c r="BX57" s="19"/>
       <c r="CO57" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>74</v>
       </c>
       <c r="CP57" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>-78</v>
       </c>
       <c r="CQ57" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>22</v>
       </c>
       <c r="CR57" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="CS57" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="CT57" s="19"/>
@@ -23483,87 +23441,87 @@
         <v>210</v>
       </c>
       <c r="AW58" s="9">
-        <f t="shared" ref="AW58:BQ58" si="81">AW48-SUM(AW49:AW57)</f>
+        <f t="shared" ref="AW58:BQ58" si="82">AW48-SUM(AW49:AW57)</f>
         <v>146</v>
       </c>
       <c r="AX58" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>-71</v>
       </c>
       <c r="AY58" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>-205</v>
       </c>
       <c r="AZ58" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>50</v>
       </c>
       <c r="BA58" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>370</v>
       </c>
       <c r="BB58" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>262</v>
       </c>
       <c r="BC58" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>387</v>
       </c>
       <c r="BD58" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>179</v>
       </c>
       <c r="BE58" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>466</v>
       </c>
       <c r="BF58" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>423</v>
       </c>
       <c r="BG58" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>358</v>
       </c>
       <c r="BH58" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>400</v>
       </c>
       <c r="BI58" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>552</v>
       </c>
       <c r="BJ58" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>514</v>
       </c>
       <c r="BK58" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>693</v>
       </c>
       <c r="BL58" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>584</v>
       </c>
       <c r="BM58" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>675</v>
       </c>
       <c r="BN58" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>520</v>
       </c>
       <c r="BO58" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>733</v>
       </c>
       <c r="BP58" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>677</v>
       </c>
       <c r="BQ58" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>921</v>
       </c>
       <c r="BR58" s="19"/>
@@ -23574,59 +23532,59 @@
       <c r="BW58" s="19"/>
       <c r="BX58" s="19"/>
       <c r="CD58" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>-894</v>
       </c>
       <c r="CE58" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>-656</v>
       </c>
       <c r="CF58" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>904</v>
       </c>
       <c r="CG58" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-3868</v>
       </c>
       <c r="CH58" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>120</v>
       </c>
       <c r="CI58" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-301</v>
       </c>
       <c r="CJ58" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-283</v>
       </c>
       <c r="CK58" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>447</v>
       </c>
       <c r="CL58" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1285</v>
       </c>
       <c r="CM58" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1506</v>
       </c>
       <c r="CN58" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>1518</v>
       </c>
       <c r="CO58" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-80</v>
       </c>
       <c r="CP58" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1198</v>
       </c>
       <c r="CQ58" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1647</v>
       </c>
       <c r="CR58" s="9">
@@ -23634,7 +23592,7 @@
         <v>2343</v>
       </c>
       <c r="CS58" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>2605</v>
       </c>
       <c r="CT58" s="19"/>
@@ -23759,7 +23717,7 @@
       <c r="BW59" s="19"/>
       <c r="BX59" s="19"/>
       <c r="CS59" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>-305</v>
       </c>
       <c r="CT59" s="19"/>
@@ -24022,67 +23980,67 @@
       <c r="BW60" s="19"/>
       <c r="BX60" s="19"/>
       <c r="CD60" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>-414</v>
       </c>
       <c r="CE60" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>-407</v>
       </c>
       <c r="CF60" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>-262</v>
       </c>
       <c r="CG60" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-239</v>
       </c>
       <c r="CH60" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-343</v>
       </c>
       <c r="CI60" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-208</v>
       </c>
       <c r="CJ60" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-367</v>
       </c>
       <c r="CK60" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>-270</v>
       </c>
       <c r="CL60" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-353</v>
       </c>
       <c r="CM60" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>-85</v>
       </c>
       <c r="CN60" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-831</v>
       </c>
       <c r="CO60" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>362</v>
       </c>
       <c r="CP60" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>218</v>
       </c>
       <c r="CQ60" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>-38</v>
       </c>
       <c r="CR60" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>-93</v>
       </c>
       <c r="CS60" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>-16</v>
       </c>
       <c r="CT60" s="19"/>
@@ -24132,235 +24090,235 @@
         <v>61</v>
       </c>
       <c r="C61" s="9">
-        <f t="shared" ref="C61:BG61" si="82">C58+C59+C60</f>
+        <f t="shared" ref="C61:BG61" si="83">C58+C59+C60</f>
         <v>100</v>
       </c>
       <c r="D61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-68</v>
       </c>
       <c r="E61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-97</v>
       </c>
       <c r="F61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>180</v>
       </c>
       <c r="G61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-44</v>
       </c>
       <c r="H61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-1347</v>
       </c>
       <c r="I61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-1575</v>
       </c>
       <c r="J61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>119</v>
       </c>
       <c r="K61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>163</v>
       </c>
       <c r="L61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>230</v>
       </c>
       <c r="M61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>273</v>
       </c>
       <c r="N61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>158</v>
       </c>
       <c r="O61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>111</v>
       </c>
       <c r="P61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>100</v>
       </c>
       <c r="Q61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>123</v>
       </c>
       <c r="R61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-3618</v>
       </c>
       <c r="S61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-663</v>
       </c>
       <c r="T61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>51</v>
       </c>
       <c r="U61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-394</v>
       </c>
       <c r="V61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>152</v>
       </c>
       <c r="W61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-40</v>
       </c>
       <c r="X61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>59</v>
       </c>
       <c r="Y61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>146</v>
       </c>
       <c r="Z61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-104</v>
       </c>
       <c r="AA61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>3</v>
       </c>
       <c r="AB61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-554</v>
       </c>
       <c r="AC61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-51</v>
       </c>
       <c r="AD61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>105</v>
       </c>
       <c r="AE61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-367</v>
       </c>
       <c r="AF61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-337</v>
       </c>
       <c r="AG61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>228</v>
       </c>
       <c r="AH61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-397</v>
       </c>
       <c r="AI61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>257</v>
       </c>
       <c r="AJ61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>89</v>
       </c>
       <c r="AK61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>305</v>
       </c>
       <c r="AL61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>91</v>
       </c>
       <c r="AM61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>309</v>
       </c>
       <c r="AN61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>227</v>
       </c>
       <c r="AO61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>323</v>
       </c>
       <c r="AP61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>347</v>
       </c>
       <c r="AQ61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>456</v>
       </c>
       <c r="AR61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>295</v>
       </c>
       <c r="AS61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>457</v>
       </c>
       <c r="AT61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>145</v>
       </c>
       <c r="AU61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>91</v>
       </c>
       <c r="AV61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-6</v>
       </c>
       <c r="AW61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>22</v>
       </c>
       <c r="AX61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-180</v>
       </c>
       <c r="AY61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-227</v>
       </c>
       <c r="AZ61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>306</v>
       </c>
       <c r="BA61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>325</v>
       </c>
       <c r="BB61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>149</v>
       </c>
       <c r="BC61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>482</v>
       </c>
       <c r="BD61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>119</v>
       </c>
       <c r="BE61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>156</v>
       </c>
       <c r="BF61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>345</v>
       </c>
       <c r="BG61" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>245</v>
       </c>
       <c r="BH61" s="9">
-        <f t="shared" ref="BH61:BQ61" si="83">BH58+BH59+BH60</f>
+        <f t="shared" ref="BH61:BQ61" si="84">BH58+BH59+BH60</f>
         <v>393</v>
       </c>
       <c r="BI61" s="9">
@@ -24368,35 +24326,35 @@
         <v>444</v>
       </c>
       <c r="BJ61" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>426</v>
       </c>
       <c r="BK61" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>610</v>
       </c>
       <c r="BL61" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>505</v>
       </c>
       <c r="BM61" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>608</v>
       </c>
       <c r="BN61" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>420</v>
       </c>
       <c r="BO61" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>668</v>
       </c>
       <c r="BP61" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>588</v>
       </c>
       <c r="BQ61" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>805</v>
       </c>
       <c r="BR61" s="19"/>
@@ -24407,67 +24365,67 @@
       <c r="BW61" s="19"/>
       <c r="BX61" s="19"/>
       <c r="CD61" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>-1308</v>
       </c>
       <c r="CE61" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>-1063</v>
       </c>
       <c r="CF61" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>642</v>
       </c>
       <c r="CG61" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-4107</v>
       </c>
       <c r="CH61" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-223</v>
       </c>
       <c r="CI61" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-509</v>
       </c>
       <c r="CJ61" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-650</v>
       </c>
       <c r="CK61" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>177</v>
       </c>
       <c r="CL61" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>932</v>
       </c>
       <c r="CM61" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1421</v>
       </c>
       <c r="CN61" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>687</v>
       </c>
       <c r="CO61" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-79</v>
       </c>
       <c r="CP61" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1075</v>
       </c>
       <c r="CQ61" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1139</v>
       </c>
       <c r="CR61" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1985</v>
       </c>
       <c r="CS61" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>2284</v>
       </c>
       <c r="CT61" s="19"/>
@@ -24730,67 +24688,67 @@
       <c r="BW62" s="19"/>
       <c r="BX62" s="19"/>
       <c r="CD62" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>-283</v>
       </c>
       <c r="CE62" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>2</v>
       </c>
       <c r="CF62" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>201</v>
       </c>
       <c r="CG62" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-39</v>
       </c>
       <c r="CH62" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-102</v>
       </c>
       <c r="CI62" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-390</v>
       </c>
       <c r="CJ62" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-411</v>
       </c>
       <c r="CK62" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>-170</v>
       </c>
       <c r="CL62" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>828</v>
       </c>
       <c r="CM62" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>-249</v>
       </c>
       <c r="CN62" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-4013</v>
       </c>
       <c r="CO62" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>2</v>
       </c>
       <c r="CP62" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>36</v>
       </c>
       <c r="CQ62" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>443</v>
       </c>
       <c r="CR62" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>393</v>
       </c>
       <c r="CS62" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>436</v>
       </c>
       <c r="CT62" s="19"/>
@@ -24840,263 +24798,263 @@
         <v>60</v>
       </c>
       <c r="C63" s="9">
-        <f t="shared" ref="C63:BN63" si="84">C61-C62</f>
+        <f t="shared" ref="C63:BN63" si="85">C61-C62</f>
         <v>98</v>
       </c>
       <c r="D63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-62</v>
       </c>
       <c r="E63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-13</v>
       </c>
       <c r="F63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>158</v>
       </c>
       <c r="G63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-94</v>
       </c>
       <c r="H63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-1076</v>
       </c>
       <c r="I63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-1589</v>
       </c>
       <c r="J63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>98</v>
       </c>
       <c r="K63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>190</v>
       </c>
       <c r="L63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>236</v>
       </c>
       <c r="M63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>46</v>
       </c>
       <c r="N63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>146</v>
       </c>
       <c r="O63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>142</v>
       </c>
       <c r="P63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>107</v>
       </c>
       <c r="Q63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>113</v>
       </c>
       <c r="R63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-3578</v>
       </c>
       <c r="S63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-664</v>
       </c>
       <c r="T63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>61</v>
       </c>
       <c r="U63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-354</v>
       </c>
       <c r="V63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>130</v>
       </c>
       <c r="W63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-5</v>
       </c>
       <c r="X63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>108</v>
       </c>
       <c r="Y63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>133</v>
       </c>
       <c r="Z63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>4</v>
       </c>
       <c r="AA63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>43</v>
       </c>
       <c r="AB63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-299</v>
       </c>
       <c r="AC63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-1</v>
       </c>
       <c r="AD63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>102</v>
       </c>
       <c r="AE63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-198</v>
       </c>
       <c r="AF63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-142</v>
       </c>
       <c r="AG63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>202</v>
       </c>
       <c r="AH63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-207</v>
       </c>
       <c r="AI63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>228</v>
       </c>
       <c r="AJ63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>124</v>
       </c>
       <c r="AK63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>290</v>
       </c>
       <c r="AL63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>146</v>
       </c>
       <c r="AM63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>283</v>
       </c>
       <c r="AN63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-615</v>
       </c>
       <c r="AO63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>297</v>
       </c>
       <c r="AP63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>556</v>
       </c>
       <c r="AQ63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>432</v>
       </c>
       <c r="AR63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>385</v>
       </c>
       <c r="AS63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>424</v>
       </c>
       <c r="AT63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>154</v>
       </c>
       <c r="AU63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>126</v>
       </c>
       <c r="AV63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>3996</v>
       </c>
       <c r="AW63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>11</v>
       </c>
       <c r="AX63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-147</v>
       </c>
       <c r="AY63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-155</v>
       </c>
       <c r="AZ63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>210</v>
       </c>
       <c r="BA63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>341</v>
       </c>
       <c r="BB63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>186</v>
       </c>
       <c r="BC63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>419</v>
       </c>
       <c r="BD63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>93</v>
       </c>
       <c r="BE63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>111</v>
       </c>
       <c r="BF63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>260</v>
       </c>
       <c r="BG63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>188</v>
       </c>
       <c r="BH63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>137</v>
       </c>
       <c r="BI63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>314</v>
       </c>
       <c r="BJ63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>270</v>
       </c>
       <c r="BK63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>504</v>
       </c>
       <c r="BL63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>504</v>
       </c>
       <c r="BM63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>493</v>
       </c>
       <c r="BN63" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>322</v>
       </c>
       <c r="BO63" s="9">
-        <f t="shared" ref="BO63:BQ63" si="85">BO61-BO62</f>
+        <f t="shared" ref="BO63:BQ63" si="86">BO61-BO62</f>
         <v>468</v>
       </c>
       <c r="BP63" s="9">
@@ -25104,7 +25062,7 @@
         <v>565</v>
       </c>
       <c r="BQ63" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>672</v>
       </c>
       <c r="BR63" s="19"/>
@@ -25119,63 +25077,63 @@
         <v>-1025</v>
       </c>
       <c r="CE63" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>-1065</v>
       </c>
       <c r="CF63" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>441</v>
       </c>
       <c r="CG63" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-4068</v>
       </c>
       <c r="CH63" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-121</v>
       </c>
       <c r="CI63" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-119</v>
       </c>
       <c r="CJ63" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-239</v>
       </c>
       <c r="CK63" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>347</v>
       </c>
       <c r="CL63" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>104</v>
       </c>
       <c r="CM63" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1670</v>
       </c>
       <c r="CN63" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>4700</v>
       </c>
       <c r="CO63" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-81</v>
       </c>
       <c r="CP63" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1039</v>
       </c>
       <c r="CQ63" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>696</v>
       </c>
       <c r="CR63" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1592</v>
       </c>
       <c r="CS63" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1848</v>
       </c>
       <c r="CT63" s="19"/>
@@ -25304,19 +25262,19 @@
         <v>-33</v>
       </c>
       <c r="CP64" s="9">
-        <f t="shared" ref="CP64:CP68" si="86">SUM(BA64:BD64)</f>
+        <f t="shared" ref="CP64:CP68" si="87">SUM(BA64:BD64)</f>
         <v>-55</v>
       </c>
       <c r="CQ64" s="9">
-        <f t="shared" ref="CQ64:CQ68" si="87">SUM(BE64:BH64)</f>
+        <f t="shared" ref="CQ64:CQ68" si="88">SUM(BE64:BH64)</f>
         <v>-55</v>
       </c>
       <c r="CR64" s="9">
-        <f t="shared" ref="CR64:CR68" si="88">SUM(BI64:BL64)</f>
+        <f t="shared" ref="CR64:CR68" si="89">SUM(BI64:BL64)</f>
         <v>-23</v>
       </c>
       <c r="CS64" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="CT64" s="19"/>
@@ -25441,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="CP65" s="9">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="CQ65" s="9">
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
-      <c r="CR65" s="9">
+      <c r="CQ65" s="9">
         <f t="shared" si="88"/>
         <v>0</v>
       </c>
+      <c r="CR65" s="9">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
       <c r="CS65" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>-4</v>
       </c>
       <c r="CT65" s="19"/>
@@ -25503,255 +25461,255 @@
         <v>167</v>
       </c>
       <c r="C66" s="10">
-        <f t="shared" ref="C66" si="89">C63+C64-C65</f>
+        <f t="shared" ref="C66" si="90">C63+C64-C65</f>
         <v>98</v>
       </c>
       <c r="D66" s="10">
-        <f t="shared" ref="D66" si="90">D63+D64-D65</f>
+        <f t="shared" ref="D66" si="91">D63+D64-D65</f>
         <v>-62</v>
       </c>
       <c r="E66" s="10">
-        <f t="shared" ref="E66" si="91">E63+E64-E65</f>
+        <f t="shared" ref="E66" si="92">E63+E64-E65</f>
         <v>-13</v>
       </c>
       <c r="F66" s="10">
-        <f t="shared" ref="F66" si="92">F63+F64-F65</f>
+        <f t="shared" ref="F66" si="93">F63+F64-F65</f>
         <v>158</v>
       </c>
       <c r="G66" s="10">
-        <f t="shared" ref="G66" si="93">G63+G64-G65</f>
+        <f t="shared" ref="G66" si="94">G63+G64-G65</f>
         <v>-94</v>
       </c>
       <c r="H66" s="10">
-        <f t="shared" ref="H66" si="94">H63+H64-H65</f>
+        <f t="shared" ref="H66" si="95">H63+H64-H65</f>
         <v>-1076</v>
       </c>
       <c r="I66" s="10">
-        <f t="shared" ref="I66" si="95">I63+I64-I65</f>
+        <f t="shared" ref="I66" si="96">I63+I64-I65</f>
         <v>-1589</v>
       </c>
       <c r="J66" s="10">
-        <f t="shared" ref="J66" si="96">J63+J64-J65</f>
+        <f t="shared" ref="J66" si="97">J63+J64-J65</f>
         <v>98</v>
       </c>
       <c r="K66" s="10">
-        <f t="shared" ref="K66" si="97">K63+K64-K65</f>
+        <f t="shared" ref="K66" si="98">K63+K64-K65</f>
         <v>190</v>
       </c>
       <c r="L66" s="10">
-        <f t="shared" ref="L66" si="98">L63+L64-L65</f>
+        <f t="shared" ref="L66" si="99">L63+L64-L65</f>
         <v>236</v>
       </c>
       <c r="M66" s="10">
-        <f t="shared" ref="M66" si="99">M63+M64-M65</f>
+        <f t="shared" ref="M66" si="100">M63+M64-M65</f>
         <v>46</v>
       </c>
       <c r="N66" s="10">
-        <f t="shared" ref="N66" si="100">N63+N64-N65</f>
+        <f t="shared" ref="N66" si="101">N63+N64-N65</f>
         <v>146</v>
       </c>
       <c r="O66" s="10">
-        <f t="shared" ref="O66" si="101">O63+O64-O65</f>
+        <f t="shared" ref="O66" si="102">O63+O64-O65</f>
         <v>142</v>
       </c>
       <c r="P66" s="10">
-        <f t="shared" ref="P66" si="102">P63+P64-P65</f>
+        <f t="shared" ref="P66" si="103">P63+P64-P65</f>
         <v>107</v>
       </c>
       <c r="Q66" s="10">
-        <f t="shared" ref="Q66" si="103">Q63+Q64-Q65</f>
+        <f t="shared" ref="Q66" si="104">Q63+Q64-Q65</f>
         <v>113</v>
       </c>
       <c r="R66" s="10">
-        <f t="shared" ref="R66" si="104">R63+R64-R65</f>
+        <f t="shared" ref="R66" si="105">R63+R64-R65</f>
         <v>-3578</v>
       </c>
       <c r="S66" s="10">
-        <f t="shared" ref="S66" si="105">S63+S64-S65</f>
+        <f t="shared" ref="S66" si="106">S63+S64-S65</f>
         <v>-664</v>
       </c>
       <c r="T66" s="10">
-        <f t="shared" ref="T66" si="106">T63+T64-T65</f>
+        <f t="shared" ref="T66" si="107">T63+T64-T65</f>
         <v>61</v>
       </c>
       <c r="U66" s="10">
-        <f t="shared" ref="U66" si="107">U63+U64-U65</f>
+        <f t="shared" ref="U66" si="108">U63+U64-U65</f>
         <v>-354</v>
       </c>
       <c r="V66" s="10">
-        <f t="shared" ref="V66" si="108">V63+V64-V65</f>
+        <f t="shared" ref="V66" si="109">V63+V64-V65</f>
         <v>130</v>
       </c>
       <c r="W66" s="10">
-        <f t="shared" ref="W66" si="109">W63+W64-W65</f>
+        <f t="shared" ref="W66" si="110">W63+W64-W65</f>
         <v>-5</v>
       </c>
       <c r="X66" s="10">
-        <f t="shared" ref="X66" si="110">X63+X64-X65</f>
+        <f t="shared" ref="X66" si="111">X63+X64-X65</f>
         <v>108</v>
       </c>
       <c r="Y66" s="10">
-        <f t="shared" ref="Y66" si="111">Y63+Y64-Y65</f>
+        <f t="shared" ref="Y66" si="112">Y63+Y64-Y65</f>
         <v>133</v>
       </c>
       <c r="Z66" s="10">
-        <f t="shared" ref="Z66" si="112">Z63+Z64-Z65</f>
+        <f t="shared" ref="Z66" si="113">Z63+Z64-Z65</f>
         <v>4</v>
       </c>
       <c r="AA66" s="10">
-        <f t="shared" ref="AA66" si="113">AA63+AA64-AA65</f>
+        <f t="shared" ref="AA66" si="114">AA63+AA64-AA65</f>
         <v>43</v>
       </c>
       <c r="AB66" s="10">
-        <f t="shared" ref="AB66" si="114">AB63+AB64-AB65</f>
+        <f t="shared" ref="AB66" si="115">AB63+AB64-AB65</f>
         <v>-299</v>
       </c>
       <c r="AC66" s="10">
-        <f t="shared" ref="AC66" si="115">AC63+AC64-AC65</f>
+        <f t="shared" ref="AC66" si="116">AC63+AC64-AC65</f>
         <v>-1</v>
       </c>
       <c r="AD66" s="10">
-        <f t="shared" ref="AD66" si="116">AD63+AD64-AD65</f>
+        <f t="shared" ref="AD66" si="117">AD63+AD64-AD65</f>
         <v>102</v>
       </c>
       <c r="AE66" s="10">
-        <f t="shared" ref="AE66" si="117">AE63+AE64-AE65</f>
+        <f t="shared" ref="AE66" si="118">AE63+AE64-AE65</f>
         <v>-198</v>
       </c>
       <c r="AF66" s="10">
-        <f t="shared" ref="AF66" si="118">AF63+AF64-AF65</f>
+        <f t="shared" ref="AF66" si="119">AF63+AF64-AF65</f>
         <v>-142</v>
       </c>
       <c r="AG66" s="10">
-        <f t="shared" ref="AG66" si="119">AG63+AG64-AG65</f>
+        <f t="shared" ref="AG66" si="120">AG63+AG64-AG65</f>
         <v>202</v>
       </c>
       <c r="AH66" s="10">
-        <f t="shared" ref="AH66" si="120">AH63+AH64-AH65</f>
+        <f t="shared" ref="AH66" si="121">AH63+AH64-AH65</f>
         <v>-207</v>
       </c>
       <c r="AI66" s="10">
-        <f t="shared" ref="AI66" si="121">AI63+AI64-AI65</f>
+        <f t="shared" ref="AI66" si="122">AI63+AI64-AI65</f>
         <v>228</v>
       </c>
       <c r="AJ66" s="10">
-        <f t="shared" ref="AJ66" si="122">AJ63+AJ64-AJ65</f>
+        <f t="shared" ref="AJ66" si="123">AJ63+AJ64-AJ65</f>
         <v>124</v>
       </c>
       <c r="AK66" s="10">
-        <f t="shared" ref="AK66" si="123">AK63+AK64-AK65</f>
+        <f t="shared" ref="AK66" si="124">AK63+AK64-AK65</f>
         <v>290</v>
       </c>
       <c r="AL66" s="10">
-        <f t="shared" ref="AL66" si="124">AL63+AL64-AL65</f>
+        <f t="shared" ref="AL66" si="125">AL63+AL64-AL65</f>
         <v>146</v>
       </c>
       <c r="AM66" s="10">
-        <f t="shared" ref="AM66" si="125">AM63+AM64-AM65</f>
+        <f t="shared" ref="AM66" si="126">AM63+AM64-AM65</f>
         <v>283</v>
       </c>
       <c r="AN66" s="10">
-        <f t="shared" ref="AN66" si="126">AN63+AN64-AN65</f>
+        <f t="shared" ref="AN66" si="127">AN63+AN64-AN65</f>
         <v>-615</v>
       </c>
       <c r="AO66" s="10">
-        <f t="shared" ref="AO66" si="127">AO63+AO64-AO65</f>
+        <f t="shared" ref="AO66" si="128">AO63+AO64-AO65</f>
         <v>297</v>
       </c>
       <c r="AP66" s="10">
-        <f t="shared" ref="AP66" si="128">AP63+AP64-AP65</f>
+        <f t="shared" ref="AP66" si="129">AP63+AP64-AP65</f>
         <v>556</v>
       </c>
       <c r="AQ66" s="10">
-        <f t="shared" ref="AQ66" si="129">AQ63+AQ64-AQ65</f>
+        <f t="shared" ref="AQ66" si="130">AQ63+AQ64-AQ65</f>
         <v>432</v>
       </c>
       <c r="AR66" s="10">
-        <f t="shared" ref="AR66" si="130">AR63+AR64-AR65</f>
+        <f t="shared" ref="AR66" si="131">AR63+AR64-AR65</f>
         <v>385</v>
       </c>
       <c r="AS66" s="10">
-        <f t="shared" ref="AS66" si="131">AS63+AS64-AS65</f>
+        <f t="shared" ref="AS66" si="132">AS63+AS64-AS65</f>
         <v>424</v>
       </c>
       <c r="AT66" s="10">
-        <f t="shared" ref="AT66" si="132">AT63+AT64-AT65</f>
+        <f t="shared" ref="AT66" si="133">AT63+AT64-AT65</f>
         <v>154</v>
       </c>
       <c r="AU66" s="10">
-        <f t="shared" ref="AU66" si="133">AU63+AU64-AU65</f>
+        <f t="shared" ref="AU66" si="134">AU63+AU64-AU65</f>
         <v>126</v>
       </c>
       <c r="AV66" s="10">
-        <f t="shared" ref="AV66" si="134">AV63+AV64-AV65</f>
+        <f t="shared" ref="AV66" si="135">AV63+AV64-AV65</f>
         <v>3996</v>
       </c>
       <c r="AW66" s="10">
-        <f t="shared" ref="AW66" si="135">AW63+AW64-AW65</f>
+        <f t="shared" ref="AW66" si="136">AW63+AW64-AW65</f>
         <v>11</v>
       </c>
       <c r="AX66" s="10">
-        <f t="shared" ref="AX66" si="136">AX63+AX64-AX65</f>
+        <f t="shared" ref="AX66" si="137">AX63+AX64-AX65</f>
         <v>-152</v>
       </c>
       <c r="AY66" s="10">
-        <f t="shared" ref="AY66:AZ66" si="137">AY63+AY64-AY65</f>
+        <f t="shared" ref="AY66:AZ66" si="138">AY63+AY64-AY65</f>
         <v>-169</v>
       </c>
       <c r="AZ66" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>196</v>
       </c>
       <c r="BA66" s="10">
-        <f t="shared" ref="BA66" si="138">BA63+BA64-BA65</f>
+        <f t="shared" ref="BA66" si="139">BA63+BA64-BA65</f>
         <v>327</v>
       </c>
       <c r="BB66" s="10">
-        <f t="shared" ref="BB66" si="139">BB63+BB64-BB65</f>
+        <f t="shared" ref="BB66" si="140">BB63+BB64-BB65</f>
         <v>172</v>
       </c>
       <c r="BC66" s="10">
-        <f t="shared" ref="BC66:BD66" si="140">BC63+BC64-BC65</f>
+        <f t="shared" ref="BC66:BD66" si="141">BC63+BC64-BC65</f>
         <v>405</v>
       </c>
       <c r="BD66" s="10">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>80</v>
       </c>
       <c r="BE66" s="10">
-        <f t="shared" ref="BE66" si="141">BE63+BE64-BE65</f>
+        <f t="shared" ref="BE66" si="142">BE63+BE64-BE65</f>
         <v>97</v>
       </c>
       <c r="BF66" s="10">
-        <f t="shared" ref="BF66" si="142">BF63+BF64-BF65</f>
+        <f t="shared" ref="BF66" si="143">BF63+BF64-BF65</f>
         <v>246</v>
       </c>
       <c r="BG66" s="10">
-        <f t="shared" ref="BG66" si="143">BG63+BG64-BG65</f>
+        <f t="shared" ref="BG66" si="144">BG63+BG64-BG65</f>
         <v>174</v>
       </c>
       <c r="BH66" s="10">
-        <f t="shared" ref="BH66:BM66" si="144">BH63+BH64-BH65</f>
+        <f t="shared" ref="BH66:BM66" si="145">BH63+BH64-BH65</f>
         <v>124</v>
       </c>
       <c r="BI66" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>300</v>
       </c>
       <c r="BJ66" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>261</v>
       </c>
       <c r="BK66" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>504</v>
       </c>
       <c r="BL66" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>504</v>
       </c>
       <c r="BM66" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>495</v>
       </c>
       <c r="BN66" s="10">
@@ -25759,15 +25717,15 @@
         <v>324</v>
       </c>
       <c r="BO66" s="10">
-        <f t="shared" ref="BO66:BQ66" si="145">BO63+BO64-BO65</f>
+        <f t="shared" ref="BO66:BQ66" si="146">BO63+BO64-BO65</f>
         <v>468</v>
       </c>
       <c r="BP66" s="10">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>565</v>
       </c>
       <c r="BQ66" s="10">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>674</v>
       </c>
       <c r="BR66" s="20"/>
@@ -25792,19 +25750,19 @@
         <v>-114</v>
       </c>
       <c r="CP66" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>984</v>
       </c>
       <c r="CQ66" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>641</v>
       </c>
       <c r="CR66" s="10">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>1569</v>
       </c>
       <c r="CS66" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1852</v>
       </c>
       <c r="CT66" s="20"/>
@@ -25928,19 +25886,19 @@
         <v>5655.9000000000005</v>
       </c>
       <c r="CP67" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>5686.1</v>
       </c>
       <c r="CQ67" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>5719.6</v>
       </c>
       <c r="CR67" s="9">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>5799.5</v>
       </c>
       <c r="CS67" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>5883.2</v>
       </c>
       <c r="CT67" s="19"/>
@@ -25990,87 +25948,87 @@
         <v>169</v>
       </c>
       <c r="AW68" s="12">
-        <f t="shared" ref="AW68:BH68" si="146">AW66/AW67</f>
+        <f t="shared" ref="AW68:BH68" si="147">AW66/AW67</f>
         <v>7.8717618434235009E-3</v>
       </c>
       <c r="AX68" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>-0.10773265291657806</v>
       </c>
       <c r="AY68" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>-0.11810748479977635</v>
       </c>
       <c r="AZ68" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0.13834968588974378</v>
       </c>
       <c r="BA68" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0.23049270458870796</v>
       </c>
       <c r="BB68" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0.12101597129388589</v>
       </c>
       <c r="BC68" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0.28445006321112515</v>
       </c>
       <c r="BD68" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>5.6246923996343949E-2</v>
       </c>
       <c r="BE68" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>6.7936685810337585E-2</v>
       </c>
       <c r="BF68" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0.1720640693851857</v>
       </c>
       <c r="BG68" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0.12154233025984913</v>
       </c>
       <c r="BH68" s="12">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>8.6682977979727363E-2</v>
       </c>
       <c r="BI68" s="12">
-        <f t="shared" ref="BI68:BQ68" si="147">BI66/BI67</f>
+        <f t="shared" ref="BI68:BQ68" si="148">BI66/BI67</f>
         <v>0.20894274968658588</v>
       </c>
       <c r="BJ68" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0.18047296362882034</v>
       </c>
       <c r="BK68" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0.34414475930351657</v>
       </c>
       <c r="BL68" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0.34686854783207155</v>
       </c>
       <c r="BM68" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0.33710160719150095</v>
       </c>
       <c r="BN68" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0.22031823745410037</v>
       </c>
       <c r="BO68" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0.31778366266041963</v>
       </c>
       <c r="BP68" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0.3839619435949711</v>
       </c>
       <c r="BQ68" s="12">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>0.45626861630111021</v>
       </c>
       <c r="BR68" s="23"/>
@@ -26086,19 +26044,19 @@
         <v>-7.9618689983187135E-2</v>
       </c>
       <c r="CP68" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0.69220566309006282</v>
       </c>
       <c r="CQ68" s="12">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0.44822606343509974</v>
       </c>
       <c r="CR68" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>1.0804290204509943</v>
       </c>
       <c r="CS68" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1.259165450900992</v>
       </c>
       <c r="CT68" s="19"/>
@@ -26266,263 +26224,263 @@
         <v>59</v>
       </c>
       <c r="C70" s="18">
-        <f t="shared" ref="C70:BN70" si="148">C48/C46</f>
+        <f t="shared" ref="C70:BN70" si="149">C48/C46</f>
         <v>0.70158102766798414</v>
       </c>
       <c r="D70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.66885743174924162</v>
       </c>
       <c r="E70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.69800995024875623</v>
       </c>
       <c r="F70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.6962391513982642</v>
       </c>
       <c r="G70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.68938271604938273</v>
       </c>
       <c r="H70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.65848965848965846</v>
       </c>
       <c r="I70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.66173469387755102</v>
       </c>
       <c r="J70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.66078838174273857</v>
       </c>
       <c r="K70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.67484342379958251</v>
       </c>
       <c r="L70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.67082917082917082</v>
       </c>
       <c r="M70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.67220779220779225</v>
       </c>
       <c r="N70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.65164556962025322</v>
       </c>
       <c r="O70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.63713980789754532</v>
       </c>
       <c r="P70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.6428571428571429</v>
       </c>
       <c r="Q70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.66184351554126475</v>
       </c>
       <c r="R70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.6838074398249453</v>
       </c>
       <c r="S70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.67838616714697408</v>
       </c>
       <c r="T70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.68021978021978025</v>
       </c>
       <c r="U70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.67177739920499713</v>
       </c>
       <c r="V70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.70702045328911001</v>
       </c>
       <c r="W70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.70605187319884721</v>
       </c>
       <c r="X70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.69749727965179542</v>
       </c>
       <c r="Y70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.69729425028184888</v>
       </c>
       <c r="Z70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.69941270688734647</v>
       </c>
       <c r="AA70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.70205850487540633</v>
       </c>
       <c r="AB70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.70323264440911504</v>
       </c>
       <c r="AC70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="AD70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.70699945740640258</v>
       </c>
       <c r="AE70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.71451271186440679</v>
       </c>
       <c r="AF70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.70980788675429729</v>
       </c>
       <c r="AG70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.7082484725050916</v>
       </c>
       <c r="AH70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.69943555973659455</v>
       </c>
       <c r="AI70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.71781472684085512</v>
       </c>
       <c r="AJ70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.71793701506161567</v>
       </c>
       <c r="AK70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.69907407407407407</v>
       </c>
       <c r="AL70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.71998227735932652</v>
       </c>
       <c r="AM70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.71332133213321336</v>
       </c>
       <c r="AN70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.72021585720215853</v>
       </c>
       <c r="AO70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.71752837326607821</v>
       </c>
       <c r="AP70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.70321285140562251</v>
       </c>
       <c r="AQ70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.7191809444212286</v>
       </c>
       <c r="AR70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.71495509566575555</v>
       </c>
       <c r="AS70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.70718010429201761</v>
       </c>
       <c r="AT70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.71189661725579623</v>
       </c>
       <c r="AU70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.71296638345031405</v>
       </c>
       <c r="AV70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.70695592286501374</v>
       </c>
       <c r="AW70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.68305151395988994</v>
       </c>
       <c r="AX70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.60509236145781331</v>
       </c>
       <c r="AY70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.67318540804813842</v>
       </c>
       <c r="AZ70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.63109305760709011</v>
       </c>
       <c r="BA70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.67514534883720934</v>
       </c>
       <c r="BB70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.69288267793305169</v>
       </c>
       <c r="BC70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.69304229195088674</v>
       </c>
       <c r="BD70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.68915893827950114</v>
       </c>
       <c r="BE70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.68440185062789161</v>
       </c>
       <c r="BF70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.68834771886559798</v>
       </c>
       <c r="BG70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.69116719242902214</v>
       </c>
       <c r="BH70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.68815545959284397</v>
       </c>
       <c r="BI70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.69312481557981709</v>
       </c>
       <c r="BJ70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.70602945262572936</v>
       </c>
       <c r="BK70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.68783668840374257</v>
       </c>
       <c r="BL70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.69234899328859056</v>
       </c>
       <c r="BM70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.68654394607207669</v>
       </c>
       <c r="BN70" s="18">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.69174757281553401</v>
       </c>
       <c r="BO70" s="18">
-        <f t="shared" ref="BO70:BQ70" si="149">BO48/BO46</f>
+        <f t="shared" ref="BO70:BQ70" si="150">BO48/BO46</f>
         <v>0.68828700403896415</v>
       </c>
       <c r="BP70" s="18">
@@ -26530,7 +26488,7 @@
         <v>0.67857925893444415</v>
       </c>
       <c r="BQ70" s="18">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.68839802702123098</v>
       </c>
       <c r="BR70" s="21"/>
@@ -26541,67 +26499,67 @@
       <c r="BW70" s="19"/>
       <c r="BX70" s="19"/>
       <c r="CD70" s="18">
-        <f t="shared" ref="CD70:CS70" si="150">CD48/CD46</f>
+        <f t="shared" ref="CD70:CS70" si="151">CD48/CD46</f>
         <v>0.6853932584269663</v>
       </c>
       <c r="CE70" s="18">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.66705098642070204</v>
       </c>
       <c r="CF70" s="18">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.65114143269483071</v>
       </c>
       <c r="CG70" s="18">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.67595530417988692</v>
       </c>
       <c r="CH70" s="18">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.69564608707825848</v>
       </c>
       <c r="CI70" s="18">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.70054200542005418</v>
       </c>
       <c r="CJ70" s="18">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.709375417948375</v>
       </c>
       <c r="CK70" s="18">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.7109468161221083</v>
       </c>
       <c r="CL70" s="18">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.71341732979664019</v>
       </c>
       <c r="CM70" s="18">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.71363127354168787</v>
       </c>
       <c r="CN70" s="18">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.70973451327433623</v>
       </c>
       <c r="CO70" s="18">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.65045899324119838</v>
       </c>
       <c r="CP70" s="18">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.68783647375504708</v>
       </c>
       <c r="CQ70" s="18">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.68806181990222359</v>
       </c>
       <c r="CR70" s="18">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.694873595505618</v>
       </c>
       <c r="CS70" s="18">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.68609303158774704</v>
       </c>
       <c r="CT70" s="46">
@@ -26671,271 +26629,271 @@
         <v>55</v>
       </c>
       <c r="C71" s="18">
-        <f t="shared" ref="C71:AH71" si="151">C49/C46</f>
+        <f t="shared" ref="C71:AH71" si="152">C49/C46</f>
         <v>0.32361660079051385</v>
       </c>
       <c r="D71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.30839231547017187</v>
       </c>
       <c r="E71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.32388059701492539</v>
       </c>
       <c r="F71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="G71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.32839506172839505</v>
       </c>
       <c r="H71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.31168831168831168</v>
       </c>
       <c r="I71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.32040816326530613</v>
       </c>
       <c r="J71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.32883817427385892</v>
       </c>
       <c r="K71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.33089770354906056</v>
       </c>
       <c r="L71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.34265734265734266</v>
       </c>
       <c r="M71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.31272727272727274</v>
       </c>
       <c r="N71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.32860759493670888</v>
       </c>
       <c r="O71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.33884738527214514</v>
       </c>
       <c r="P71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.32900432900432902</v>
       </c>
       <c r="Q71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.35852090032154343</v>
       </c>
       <c r="R71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.35503282275711162</v>
       </c>
       <c r="S71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.32795389048991352</v>
       </c>
       <c r="T71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.35274725274725277</v>
       </c>
       <c r="U71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.34525837592277114</v>
       </c>
       <c r="V71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.36539524599226092</v>
       </c>
       <c r="W71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.37925072046109509</v>
       </c>
       <c r="X71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.40859630032644179</v>
       </c>
       <c r="Y71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.37542277339346108</v>
       </c>
       <c r="Z71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.39668980245595303</v>
       </c>
       <c r="AA71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.40140845070422537</v>
       </c>
       <c r="AB71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.39851616322204558</v>
       </c>
       <c r="AC71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.37782805429864252</v>
       </c>
       <c r="AD71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.37981551817688552</v>
       </c>
       <c r="AE71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.3861228813559322</v>
       </c>
       <c r="AF71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.39231547017189078</v>
       </c>
       <c r="AG71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.36456211812627293</v>
       </c>
       <c r="AH71" s="18">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.36641580432737536</v>
       </c>
       <c r="AI71" s="18">
-        <f t="shared" ref="AI71:BQ71" si="152">AI49/AI46</f>
+        <f t="shared" ref="AI71:BQ71" si="153">AI49/AI46</f>
         <v>0.36674584323040382</v>
       </c>
       <c r="AJ71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.37973528069374712</v>
       </c>
       <c r="AK71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.36759259259259258</v>
       </c>
       <c r="AL71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.36109880372175457</v>
       </c>
       <c r="AM71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.36003600360036003</v>
       </c>
       <c r="AN71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.36737235367372356</v>
       </c>
       <c r="AO71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.36149642707019758</v>
       </c>
       <c r="AP71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.35582329317269074</v>
       </c>
       <c r="AQ71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.36356038445465944</v>
       </c>
       <c r="AR71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.37212026552128075</v>
       </c>
       <c r="AS71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.34857601283594064</v>
       </c>
       <c r="AT71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.36792094260737362</v>
       </c>
       <c r="AU71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.37384558551902475</v>
       </c>
       <c r="AV71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.37603305785123969</v>
       </c>
       <c r="AW71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.38458513566653557</v>
       </c>
       <c r="AX71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.39840239640539193</v>
       </c>
       <c r="AY71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.37006393380970287</v>
       </c>
       <c r="AZ71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.37924667651403249</v>
       </c>
       <c r="BA71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.37027616279069769</v>
       </c>
       <c r="BB71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.36431589210269744</v>
       </c>
       <c r="BC71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.36357435197817189</v>
       </c>
       <c r="BD71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.36872401662935722</v>
       </c>
       <c r="BE71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.35029742233972239</v>
       </c>
       <c r="BF71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.35912453760789148</v>
       </c>
       <c r="BG71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.35709779179810724</v>
       </c>
       <c r="BH71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.35872917951881556</v>
       </c>
       <c r="BI71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.35851283564473296</v>
       </c>
       <c r="BJ71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.37621561544873577</v>
       </c>
       <c r="BK71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.3521406294301106</v>
       </c>
       <c r="BL71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.37020134228187918</v>
       </c>
       <c r="BM71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.35364272750842624</v>
       </c>
       <c r="BN71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.35097087378640779</v>
       </c>
       <c r="BO71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.37110952720361129</v>
       </c>
       <c r="BP71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.3534312650734488</v>
       </c>
       <c r="BQ71" s="18">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.34248337979841303</v>
       </c>
       <c r="BR71" s="21"/>
@@ -26946,67 +26904,67 @@
       <c r="BW71" s="19"/>
       <c r="BX71" s="19"/>
       <c r="CD71" s="18">
-        <f t="shared" ref="CD71:CS71" si="153">CD49/CD46</f>
+        <f t="shared" ref="CD71:CS71" si="154">CD49/CD46</f>
         <v>0.32181240840254033</v>
       </c>
       <c r="CE71" s="18">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.33077120163976426</v>
       </c>
       <c r="CF71" s="18">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.32721070585148254</v>
       </c>
       <c r="CG71" s="18">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.34887570699406817</v>
       </c>
       <c r="CH71" s="18">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.37491250174996499</v>
       </c>
       <c r="CI71" s="18">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.39322493224932248</v>
       </c>
       <c r="CJ71" s="18">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.38424501805536981</v>
       </c>
       <c r="CK71" s="18">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.36954447889339376</v>
       </c>
       <c r="CL71" s="18">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.36405835543766579</v>
       </c>
       <c r="CM71" s="18">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.36333095795581799</v>
       </c>
       <c r="CN71" s="18">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.36711690731252911</v>
       </c>
       <c r="CO71" s="18">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.38202360536669022</v>
       </c>
       <c r="CP71" s="18">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.36667227456258411</v>
       </c>
       <c r="CQ71" s="18">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.35641066077905692</v>
       </c>
       <c r="CR71" s="18">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.36446629213483145</v>
       </c>
       <c r="CS71" s="18">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.35731772854839672</v>
       </c>
       <c r="CT71" s="46">
@@ -27076,263 +27034,263 @@
         <v>56</v>
       </c>
       <c r="C72" s="18">
-        <f t="shared" ref="C72:BN72" si="154">C50/C46</f>
+        <f t="shared" ref="C72:BN72" si="155">C50/C46</f>
         <v>0.13290513833992096</v>
       </c>
       <c r="D72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.12335692618806876</v>
       </c>
       <c r="E72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.12786069651741294</v>
       </c>
       <c r="F72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.13500482160077146</v>
       </c>
       <c r="G72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.12740740740740741</v>
       </c>
       <c r="H72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.12554112554112554</v>
       </c>
       <c r="I72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.12908163265306122</v>
       </c>
       <c r="J72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.12033195020746888</v>
       </c>
       <c r="K72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.12004175365344467</v>
       </c>
       <c r="L72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.11188811188811189</v>
       </c>
       <c r="M72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.11012987012987013</v>
       </c>
       <c r="N72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.11291139240506329</v>
       </c>
       <c r="O72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.12219850586979722</v>
       </c>
       <c r="P72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.125</v>
       </c>
       <c r="Q72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.11521972132904609</v>
       </c>
       <c r="R72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.11652078774617068</v>
       </c>
       <c r="S72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.12680115273775217</v>
       </c>
       <c r="T72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.13076923076923078</v>
       </c>
       <c r="U72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.11584327086882454</v>
       </c>
       <c r="V72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.12327252625760088</v>
       </c>
       <c r="W72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.12507204610951009</v>
       </c>
       <c r="X72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.11806311207834602</v>
       </c>
       <c r="Y72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.10766629086809471</v>
       </c>
       <c r="Z72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.10998398291510945</v>
       </c>
       <c r="AA72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.11484290357529794</v>
       </c>
       <c r="AB72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.11022787493375728</v>
       </c>
       <c r="AC72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.10859728506787331</v>
       </c>
       <c r="AD72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.11937059142702117</v>
       </c>
       <c r="AE72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.11705508474576271</v>
       </c>
       <c r="AF72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.12285136501516683</v>
       </c>
       <c r="AG72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.10692464358452139</v>
       </c>
       <c r="AH72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.10442144873000941</v>
       </c>
       <c r="AI72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.11021377672209026</v>
       </c>
       <c r="AJ72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.11684162482884528</v>
       </c>
       <c r="AK72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.10879629629629629</v>
       </c>
       <c r="AL72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.10810810810810811</v>
       </c>
       <c r="AM72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.11431143114311432</v>
       </c>
       <c r="AN72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.1095890410958904</v>
       </c>
       <c r="AO72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.10970996216897856</v>
       </c>
       <c r="AP72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.11044176706827309</v>
       </c>
       <c r="AQ72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.12076890931884664</v>
       </c>
       <c r="AR72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.11245607184693479</v>
       </c>
       <c r="AS72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.11231448054552748</v>
       </c>
       <c r="AT72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.1064234131508932</v>
       </c>
       <c r="AU72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.11304026597709642</v>
       </c>
       <c r="AV72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.10606060606060606</v>
       </c>
       <c r="AW72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.11797090051120723</v>
       </c>
       <c r="AX72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.12081877184223665</v>
       </c>
       <c r="AY72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.11846558856713051</v>
       </c>
       <c r="AZ72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.10561299852289513</v>
       </c>
       <c r="BA72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.1002906976744186</v>
       </c>
       <c r="BB72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>9.684757881052973E-2</v>
       </c>
       <c r="BC72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.10572987721691678</v>
       </c>
       <c r="BD72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.10233450591621363</v>
       </c>
       <c r="BE72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.10541969596827495</v>
       </c>
       <c r="BF72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.1032675709001233</v>
       </c>
       <c r="BG72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.10694006309148266</v>
       </c>
       <c r="BH72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.10178901912399753</v>
       </c>
       <c r="BI72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>9.9439362643847742E-2</v>
       </c>
       <c r="BJ72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>9.9749930536260079E-2</v>
       </c>
       <c r="BK72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.10093563935355826</v>
       </c>
       <c r="BL72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>9.7181208053691279E-2</v>
       </c>
       <c r="BM72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>9.4892403422348975E-2</v>
       </c>
       <c r="BN72" s="18">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>9.2961165048543695E-2</v>
       </c>
       <c r="BO72" s="18">
-        <f t="shared" ref="BO72:BQ72" si="155">BO50/BO46</f>
+        <f t="shared" ref="BO72:BQ72" si="156">BO50/BO46</f>
         <v>9.6697552862912803E-2</v>
       </c>
       <c r="BP72" s="18">
@@ -27340,7 +27298,7 @@
         <v>0.10063582547686911</v>
       </c>
       <c r="BQ72" s="18">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>9.5003216813210375E-2</v>
       </c>
       <c r="BR72" s="21"/>
@@ -27351,67 +27309,67 @@
       <c r="BW72" s="19"/>
       <c r="BX72" s="19"/>
       <c r="CD72" s="18">
-        <f t="shared" ref="CD72:CS72" si="156">CD50/CD46</f>
+        <f t="shared" ref="CD72:CS72" si="157">CD50/CD46</f>
         <v>0.12896922325354176</v>
       </c>
       <c r="CE72" s="18">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.12029208301306688</v>
       </c>
       <c r="CF72" s="18">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.11742324849120965</v>
       </c>
       <c r="CG72" s="18">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.12222375500068976</v>
       </c>
       <c r="CH72" s="18">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.12053758924821503</v>
       </c>
       <c r="CI72" s="18">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.11070460704607046</v>
       </c>
       <c r="CJ72" s="18">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.11715928848468637</v>
       </c>
       <c r="CK72" s="18">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.10970665394705462</v>
       </c>
       <c r="CL72" s="18">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.11019009725906277</v>
       </c>
       <c r="CM72" s="18">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.11330550748243917</v>
       </c>
       <c r="CN72" s="18">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.10936190032603633</v>
       </c>
       <c r="CO72" s="18">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.11530313729446182</v>
       </c>
       <c r="CP72" s="18">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.10127860026917901</v>
       </c>
       <c r="CQ72" s="18">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.10432108500236556</v>
       </c>
       <c r="CR72" s="18">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>9.9297752808988768E-2</v>
       </c>
       <c r="CS72" s="18">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>9.6435182420732068E-2</v>
       </c>
       <c r="CT72" s="22">
@@ -27481,263 +27439,263 @@
         <v>58</v>
       </c>
       <c r="C73" s="18">
-        <f t="shared" ref="C73:BN73" si="157">C58/C46</f>
+        <f t="shared" ref="C73:BN73" si="158">C58/C46</f>
         <v>0.14970355731225296</v>
       </c>
       <c r="D73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>1.4155712841253791E-2</v>
       </c>
       <c r="E73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>5.4726368159203984E-3</v>
       </c>
       <c r="F73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.13259402121504341</v>
       </c>
       <c r="G73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>2.5185185185185185E-2</v>
       </c>
       <c r="H73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>-0.59211159211159214</v>
       </c>
       <c r="I73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>-0.75816326530612244</v>
       </c>
       <c r="J73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.11981327800829876</v>
       </c>
       <c r="K73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.13100208768267224</v>
       </c>
       <c r="L73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.17382617382617382</v>
       </c>
       <c r="M73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.16727272727272727</v>
       </c>
       <c r="N73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.12</v>
       </c>
       <c r="O73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>9.2849519743863393E-2</v>
       </c>
       <c r="P73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>9.2532467532467536E-2</v>
       </c>
       <c r="Q73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.10503751339764202</v>
       </c>
       <c r="R73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>-1.9622538293216629</v>
       </c>
       <c r="S73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>-0.34236311239193085</v>
       </c>
       <c r="T73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>6.4285714285714279E-2</v>
       </c>
       <c r="U73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>-0.18739352640545145</v>
       </c>
       <c r="V73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.12161415146489774</v>
       </c>
       <c r="W73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>5.936599423631124E-2</v>
       </c>
       <c r="X73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>6.9096844396082699E-2</v>
       </c>
       <c r="Y73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.11104847801578353</v>
       </c>
       <c r="Z73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>-3.6839295248264813E-2</v>
       </c>
       <c r="AA73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>3.4669555796316358E-2</v>
       </c>
       <c r="AB73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>-0.26126126126126126</v>
       </c>
       <c r="AC73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>1.3574660633484163E-2</v>
       </c>
       <c r="AD73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.11882799782962561</v>
       </c>
       <c r="AE73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>-0.1583686440677966</v>
       </c>
       <c r="AF73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>-0.1147623862487361</v>
       </c>
       <c r="AG73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.14918533604887985</v>
       </c>
       <c r="AH73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>-0.15710253998118531</v>
       </c>
       <c r="AI73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.16532066508313539</v>
       </c>
       <c r="AJ73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>6.3897763578274758E-2</v>
       </c>
       <c r="AK73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.16851851851851851</v>
       </c>
       <c r="AL73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>9.9689853788214447E-2</v>
       </c>
       <c r="AM73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.16966696669666967</v>
       </c>
       <c r="AN73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.13242009132420091</v>
       </c>
       <c r="AO73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.1710802858343842</v>
       </c>
       <c r="AP73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.157429718875502</v>
       </c>
       <c r="AQ73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.16213957375679064</v>
       </c>
       <c r="AR73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.12456071846934791</v>
       </c>
       <c r="AS73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.21700762133975129</v>
       </c>
       <c r="AT73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.1459521094640821</v>
       </c>
       <c r="AU73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.14148503878832655</v>
       </c>
       <c r="AV73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>7.2314049586776855E-2</v>
       </c>
       <c r="AW73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>5.7412504915454188E-2</v>
       </c>
       <c r="AX73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>-3.5446829755366949E-2</v>
       </c>
       <c r="AY73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>-7.7096652877021443E-2</v>
       </c>
       <c r="AZ73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>1.8463810930576072E-2</v>
       </c>
       <c r="BA73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.13444767441860464</v>
       </c>
       <c r="BB73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>8.5147871303217423E-2</v>
       </c>
       <c r="BC73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.13199181446111868</v>
       </c>
       <c r="BD73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>5.7243364246881999E-2</v>
       </c>
       <c r="BE73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.15399867812293458</v>
       </c>
       <c r="BF73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.13039457459926018</v>
       </c>
       <c r="BG73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.11293375394321767</v>
       </c>
       <c r="BH73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.12338062924120913</v>
       </c>
       <c r="BI73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.16287990557686632</v>
       </c>
       <c r="BJ73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.14281744929146986</v>
       </c>
       <c r="BK73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.19648426424723561</v>
       </c>
       <c r="BL73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.15677852348993288</v>
       </c>
       <c r="BM73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.17500648172154523</v>
       </c>
       <c r="BN73" s="18">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.12621359223300971</v>
       </c>
       <c r="BO73" s="18">
-        <f t="shared" ref="BO73:BQ73" si="158">BO58/BO46</f>
+        <f t="shared" ref="BO73:BQ73" si="159">BO58/BO46</f>
         <v>0.17415062960323116</v>
       </c>
       <c r="BP73" s="18">
@@ -27745,7 +27703,7 @@
         <v>0.14843236132427098</v>
       </c>
       <c r="BQ73" s="18">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>0.19751233111730646</v>
       </c>
       <c r="BR73" s="21"/>
@@ -27756,67 +27714,67 @@
       <c r="BW73" s="19"/>
       <c r="BX73" s="19"/>
       <c r="CD73" s="18">
-        <f t="shared" ref="CD73:CS73" si="159">CD58/CD46</f>
+        <f t="shared" ref="CD73:CS73" si="160">CD58/CD46</f>
         <v>-0.10918417195896434</v>
       </c>
       <c r="CE73" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>-8.4037919549064824E-2</v>
       </c>
       <c r="CF73" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.11860404093413802</v>
       </c>
       <c r="CG73" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>-0.5335908401158781</v>
       </c>
       <c r="CH73" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>1.6799664006719867E-2</v>
       </c>
       <c r="CI73" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>-4.0785907859078589E-2</v>
       </c>
       <c r="CJ73" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>-3.7849404841513973E-2</v>
       </c>
       <c r="CK73" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>5.3303124254710232E-2</v>
       </c>
       <c r="CL73" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.14202033598585323</v>
       </c>
       <c r="CM73" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.15331365163392038</v>
       </c>
       <c r="CN73" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.14140661387983233</v>
       </c>
       <c r="CO73" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>-8.0702108342580441E-3</v>
       </c>
       <c r="CP73" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.10077388963660834</v>
       </c>
       <c r="CQ73" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.12986910581927141</v>
       </c>
       <c r="CR73" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.16453651685393259</v>
       </c>
       <c r="CS73" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.15555024780557711</v>
       </c>
       <c r="CT73" s="22">
@@ -27868,271 +27826,271 @@
         <v>2316</v>
       </c>
       <c r="C74" s="18">
-        <f t="shared" ref="C74:AK74" si="160">C62/C61</f>
+        <f t="shared" ref="C74:AK74" si="161">C62/C61</f>
         <v>0.02</v>
       </c>
       <c r="D74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="E74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>0.865979381443299</v>
       </c>
       <c r="F74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>0.12222222222222222</v>
       </c>
       <c r="G74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>-1.1363636363636365</v>
       </c>
       <c r="H74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>0.2011878247958426</v>
       </c>
       <c r="I74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>-8.8888888888888889E-3</v>
       </c>
       <c r="J74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="K74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>-0.16564417177914109</v>
       </c>
       <c r="L74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>-2.6086956521739129E-2</v>
       </c>
       <c r="M74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>0.83150183150183155</v>
       </c>
       <c r="N74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>7.5949367088607597E-2</v>
       </c>
       <c r="O74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>-0.27927927927927926</v>
       </c>
       <c r="P74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="Q74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>8.1300813008130079E-2</v>
       </c>
       <c r="R74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>1.1055831951354339E-2</v>
       </c>
       <c r="S74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>-1.5082956259426848E-3</v>
       </c>
       <c r="T74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>-0.19607843137254902</v>
       </c>
       <c r="U74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>0.10152284263959391</v>
       </c>
       <c r="V74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>0.14473684210526316</v>
       </c>
       <c r="W74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>0.875</v>
       </c>
       <c r="X74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>-0.83050847457627119</v>
       </c>
       <c r="Y74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>8.9041095890410954E-2</v>
       </c>
       <c r="Z74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>1.0384615384615385</v>
       </c>
       <c r="AA74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>-13.333333333333334</v>
       </c>
       <c r="AB74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>0.46028880866425992</v>
       </c>
       <c r="AC74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>0.98039215686274506</v>
       </c>
       <c r="AD74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="AE74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>0.46049046321525888</v>
       </c>
       <c r="AF74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>0.57863501483679525</v>
       </c>
       <c r="AG74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>0.11403508771929824</v>
       </c>
       <c r="AH74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>0.47858942065491183</v>
       </c>
       <c r="AI74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>0.11284046692607004</v>
       </c>
       <c r="AJ74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>-0.39325842696629215</v>
       </c>
       <c r="AK74" s="18">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>4.9180327868852458E-2</v>
       </c>
       <c r="AL74" s="18">
-        <f t="shared" ref="AL74:BQ74" si="161">AL62/AL61</f>
+        <f t="shared" ref="AL74:BQ74" si="162">AL62/AL61</f>
         <v>-0.60439560439560436</v>
       </c>
       <c r="AM74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>8.4142394822006472E-2</v>
       </c>
       <c r="AN74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>3.7092511013215859</v>
       </c>
       <c r="AO74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>8.0495356037151702E-2</v>
       </c>
       <c r="AP74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>-0.60230547550432278</v>
       </c>
       <c r="AQ74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>5.2631578947368418E-2</v>
       </c>
       <c r="AR74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>-0.30508474576271188</v>
       </c>
       <c r="AS74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>7.2210065645514229E-2</v>
       </c>
       <c r="AT74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>-6.2068965517241378E-2</v>
       </c>
       <c r="AU74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>-0.38461538461538464</v>
       </c>
       <c r="AV74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>667</v>
       </c>
       <c r="AW74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.5</v>
       </c>
       <c r="AX74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.18333333333333332</v>
       </c>
       <c r="AY74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.31718061674008813</v>
       </c>
       <c r="AZ74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.31372549019607843</v>
       </c>
       <c r="BA74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>-4.9230769230769231E-2</v>
       </c>
       <c r="BB74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>-0.24832214765100671</v>
       </c>
       <c r="BC74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.13070539419087138</v>
       </c>
       <c r="BD74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.21848739495798319</v>
       </c>
       <c r="BE74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.28846153846153844</v>
       </c>
       <c r="BF74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.24637681159420291</v>
       </c>
       <c r="BG74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.23265306122448978</v>
       </c>
       <c r="BH74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.65139949109414763</v>
       </c>
       <c r="BI74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.2927927927927928</v>
       </c>
       <c r="BJ74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.36619718309859156</v>
       </c>
       <c r="BK74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.17377049180327869</v>
       </c>
       <c r="BL74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>1.9801980198019802E-3</v>
       </c>
       <c r="BM74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.18914473684210525</v>
       </c>
       <c r="BN74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.23333333333333334</v>
       </c>
       <c r="BO74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.29940119760479039</v>
       </c>
       <c r="BP74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>3.9115646258503403E-2</v>
       </c>
       <c r="BQ74" s="18">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.16521739130434782</v>
       </c>
       <c r="BR74" s="21"/>
@@ -28143,63 +28101,63 @@
       <c r="BW74" s="19"/>
       <c r="BX74" s="19"/>
       <c r="CD74" s="18">
-        <f t="shared" ref="CD74:CR74" si="162">CD62/CD61</f>
+        <f t="shared" ref="CD74:CR74" si="163">CD62/CD61</f>
         <v>0.21636085626911314</v>
       </c>
       <c r="CE74" s="18">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>-1.8814675446848542E-3</v>
       </c>
       <c r="CF74" s="18">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.31308411214953269</v>
       </c>
       <c r="CG74" s="18">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>9.4959824689554422E-3</v>
       </c>
       <c r="CH74" s="18">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.45739910313901344</v>
       </c>
       <c r="CI74" s="18">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.76620825147347738</v>
       </c>
       <c r="CJ74" s="18">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.63230769230769235</v>
       </c>
       <c r="CK74" s="18">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>-0.96045197740112997</v>
       </c>
       <c r="CL74" s="18">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.88841201716738194</v>
       </c>
       <c r="CM74" s="18">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>-0.17522871217452499</v>
       </c>
       <c r="CN74" s="18">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>-5.8413391557496359</v>
       </c>
       <c r="CO74" s="18">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>-2.5316455696202531E-2</v>
       </c>
       <c r="CP74" s="18">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>3.3488372093023258E-2</v>
       </c>
       <c r="CQ74" s="18">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.38893766461808604</v>
       </c>
       <c r="CR74" s="18">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.19798488664987404</v>
       </c>
       <c r="CS74" s="18">
@@ -28253,263 +28211,263 @@
         <v>57</v>
       </c>
       <c r="C75" s="18">
-        <f t="shared" ref="C75:BN75" si="163">C63/C46</f>
+        <f t="shared" ref="C75:BN75" si="164">C63/C46</f>
         <v>4.8418972332015808E-2</v>
       </c>
       <c r="D75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>-3.1344792719919107E-2</v>
       </c>
       <c r="E75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>-6.4676616915422883E-3</v>
       </c>
       <c r="F75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>7.6181292189006752E-2</v>
       </c>
       <c r="G75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>-4.6419753086419754E-2</v>
       </c>
       <c r="H75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>-0.51755651755651755</v>
       </c>
       <c r="I75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>-0.81071428571428572</v>
       </c>
       <c r="J75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>5.0829875518672199E-2</v>
       </c>
       <c r="K75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>9.916492693110647E-2</v>
       </c>
       <c r="L75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.11788211788211789</v>
       </c>
       <c r="M75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>2.3896103896103898E-2</v>
       </c>
       <c r="N75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>7.3924050632911395E-2</v>
       </c>
       <c r="O75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>7.577374599786553E-2</v>
       </c>
       <c r="P75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>5.7900432900432904E-2</v>
       </c>
       <c r="Q75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>6.0557341907824226E-2</v>
       </c>
       <c r="R75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>-1.9573304157549234</v>
       </c>
       <c r="S75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>-0.38270893371757925</v>
       </c>
       <c r="T75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>3.3516483516483515E-2</v>
       </c>
       <c r="U75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>-0.20102214650766609</v>
       </c>
       <c r="V75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>7.1862907683803212E-2</v>
       </c>
       <c r="W75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>-2.881844380403458E-3</v>
       </c>
       <c r="X75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>5.8759521218715999E-2</v>
       </c>
       <c r="Y75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>7.4971815107102588E-2</v>
       </c>
       <c r="Z75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>2.1356113187399892E-3</v>
       </c>
       <c r="AA75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>2.3293607800650054E-2</v>
       </c>
       <c r="AB75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>-0.1584525702172761</v>
       </c>
       <c r="AC75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>-5.6561085972850684E-4</v>
       </c>
       <c r="AD75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>5.5344546934346171E-2</v>
       </c>
       <c r="AE75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>-0.1048728813559322</v>
       </c>
       <c r="AF75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>-7.1789686552072796E-2</v>
       </c>
       <c r="AG75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.10285132382892057</v>
       </c>
       <c r="AH75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>-9.7365945437441204E-2</v>
       </c>
       <c r="AI75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.10831353919239906</v>
       </c>
       <c r="AJ75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>5.6595162026471933E-2</v>
       </c>
       <c r="AK75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.13425925925925927</v>
       </c>
       <c r="AL75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>6.4687638458130262E-2</v>
       </c>
       <c r="AM75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.12736273627362737</v>
       </c>
       <c r="AN75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>-0.25529265255292655</v>
       </c>
       <c r="AO75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.12484237074401008</v>
       </c>
       <c r="AP75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.22329317269076304</v>
       </c>
       <c r="AQ75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.18052653572921021</v>
       </c>
       <c r="AR75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.15033190160093712</v>
       </c>
       <c r="AS75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.17007621339751303</v>
       </c>
       <c r="AT75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>5.8532877232991255E-2</v>
       </c>
       <c r="AU75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>4.6545991872922056E-2</v>
       </c>
       <c r="AV75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>1.3760330578512396</v>
       </c>
       <c r="AW75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>4.3255996854109323E-3</v>
       </c>
       <c r="AX75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>-7.3389915127309038E-2</v>
       </c>
       <c r="AY75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>-5.8292591199699137E-2</v>
       </c>
       <c r="AZ75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>7.7548005908419496E-2</v>
       </c>
       <c r="BA75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.12390988372093023</v>
       </c>
       <c r="BB75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>6.0448488787780308E-2</v>
       </c>
       <c r="BC75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.14290586630286495</v>
       </c>
       <c r="BD75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>2.9740965781899584E-2</v>
       </c>
       <c r="BE75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>3.6682088565763382E-2</v>
       </c>
       <c r="BF75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>8.0147965474722568E-2</v>
       </c>
       <c r="BG75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>5.9305993690851738E-2</v>
       </c>
       <c r="BH75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>4.2257865515114131E-2</v>
       </c>
       <c r="BI75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>9.2652699911478315E-2</v>
       </c>
       <c r="BJ75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>7.5020839121978322E-2</v>
       </c>
       <c r="BK75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.14289764672526226</v>
       </c>
       <c r="BL75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.13530201342281878</v>
       </c>
       <c r="BM75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.12781954887218044</v>
       </c>
       <c r="BN75" s="18">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>7.8155339805825244E-2</v>
       </c>
       <c r="BO75" s="18">
-        <f t="shared" ref="BO75:BQ75" si="164">BO63/BO46</f>
+        <f t="shared" ref="BO75:BQ75" si="165">BO63/BO46</f>
         <v>0.11119030648610122</v>
       </c>
       <c r="BP75" s="18">
@@ -28517,7 +28475,7 @@
         <v>0.12387634290725719</v>
       </c>
       <c r="BQ75" s="18">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.14411323182500535</v>
       </c>
       <c r="BR75" s="21"/>
@@ -28528,67 +28486,67 @@
       <c r="BW75" s="19"/>
       <c r="BX75" s="19"/>
       <c r="CD75" s="18">
-        <f t="shared" ref="CD75:CS75" si="165">CD63/CD46</f>
+        <f t="shared" ref="CD75:CS75" si="166">CD63/CD46</f>
         <v>-0.12518319491939423</v>
       </c>
       <c r="CE75" s="18">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>-0.13643351268255188</v>
       </c>
       <c r="CF75" s="18">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>5.7858829703489899E-2</v>
       </c>
       <c r="CG75" s="18">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>-0.56118085253138361</v>
       </c>
       <c r="CH75" s="18">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>-1.6939661206775865E-2</v>
       </c>
       <c r="CI75" s="18">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>-1.6124661246612465E-2</v>
       </c>
       <c r="CJ75" s="18">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>-3.1964691721278589E-2</v>
       </c>
       <c r="CK75" s="18">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>4.1378487956117337E-2</v>
       </c>
       <c r="CL75" s="18">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>1.1494252873563218E-2</v>
       </c>
       <c r="CM75" s="18">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0.17000916217041637</v>
       </c>
       <c r="CN75" s="18">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0.43782021425244527</v>
       </c>
       <c r="CO75" s="18">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>-8.1710884696862707E-3</v>
       </c>
       <c r="CP75" s="18">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>8.7399057873485869E-2</v>
       </c>
       <c r="CQ75" s="18">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>5.4880933606686645E-2</v>
       </c>
       <c r="CR75" s="18">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0.11179775280898877</v>
       </c>
       <c r="CS75" s="18">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0.11034812205171075</v>
       </c>
       <c r="CT75" s="22"/>
@@ -28774,23 +28732,23 @@
         <v>2693</v>
       </c>
       <c r="CO78" s="1">
-        <f t="shared" ref="CO78:CO88" si="166">AZ78</f>
+        <f t="shared" ref="CO78:CO88" si="167">AZ78</f>
         <v>1531</v>
       </c>
       <c r="CP78" s="1">
-        <f t="shared" ref="CP78:CP88" si="167">BD78</f>
+        <f t="shared" ref="CP78:CP88" si="168">BD78</f>
         <v>1778</v>
       </c>
       <c r="CQ78" s="1">
-        <f t="shared" ref="CQ78:CQ88" si="168">BH78</f>
+        <f t="shared" ref="CQ78:CQ88" si="169">BH78</f>
         <v>1970</v>
       </c>
       <c r="CR78" s="1">
-        <f t="shared" ref="CR78:CR88" si="169">BL78</f>
+        <f t="shared" ref="CR78:CR88" si="170">BL78</f>
         <v>2229</v>
       </c>
       <c r="CS78" s="1">
-        <f t="shared" ref="CS78:CS88" si="170">BP78</f>
+        <f t="shared" ref="CS78:CS88" si="171">BP78</f>
         <v>2558</v>
       </c>
     </row>
@@ -28853,23 +28811,23 @@
         <v>2867</v>
       </c>
       <c r="CO79" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>1351</v>
       </c>
       <c r="CP79" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>1610</v>
       </c>
       <c r="CQ79" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>1867</v>
       </c>
       <c r="CR79" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>2484</v>
       </c>
       <c r="CS79" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>2810</v>
       </c>
     </row>
@@ -28932,23 +28890,23 @@
         <v>294</v>
       </c>
       <c r="CO80" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>194</v>
       </c>
       <c r="CP80" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>205</v>
       </c>
       <c r="CQ80" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>264</v>
       </c>
       <c r="CR80" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>315</v>
       </c>
       <c r="CS80" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>307</v>
       </c>
     </row>
@@ -29011,7 +28969,7 @@
         <v>0</v>
       </c>
       <c r="CO81" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>1133</v>
       </c>
       <c r="CP81" s="1">
@@ -29086,23 +29044,23 @@
         <v>756</v>
       </c>
       <c r="CO82" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>751</v>
       </c>
       <c r="CP82" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>799</v>
       </c>
       <c r="CQ82" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>731</v>
       </c>
       <c r="CR82" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>621</v>
       </c>
       <c r="CS82" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>831</v>
       </c>
     </row>
@@ -29165,23 +29123,23 @@
         <v>3389</v>
       </c>
       <c r="CO83" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>2084</v>
       </c>
       <c r="CP83" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>2252</v>
       </c>
       <c r="CQ83" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>2446</v>
       </c>
       <c r="CR83" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>2859</v>
       </c>
       <c r="CS83" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>3294</v>
       </c>
     </row>
@@ -29244,23 +29202,23 @@
         <v>17340</v>
       </c>
       <c r="CO84" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>9951</v>
       </c>
       <c r="CP84" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>11988</v>
       </c>
       <c r="CQ84" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>12920</v>
       </c>
       <c r="CR84" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>14387</v>
       </c>
       <c r="CS84" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>17089</v>
       </c>
     </row>
@@ -29323,23 +29281,23 @@
         <v>6566</v>
       </c>
       <c r="CO85" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>5917</v>
       </c>
       <c r="CP85" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>6121</v>
       </c>
       <c r="CQ85" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>5902</v>
       </c>
       <c r="CR85" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>6003</v>
       </c>
       <c r="CS85" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>6684</v>
       </c>
     </row>
@@ -29402,23 +29360,23 @@
         <v>3676</v>
       </c>
       <c r="CO86" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>4210</v>
       </c>
       <c r="CP86" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>4142</v>
       </c>
       <c r="CQ86" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>3942</v>
       </c>
       <c r="CR86" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>3841</v>
       </c>
       <c r="CS86" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>3655</v>
       </c>
     </row>
@@ -29481,23 +29439,23 @@
         <v>1834</v>
       </c>
       <c r="CO87" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>1921</v>
       </c>
       <c r="CP87" s="1">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>1409</v>
       </c>
       <c r="CQ87" s="1">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>1500</v>
       </c>
       <c r="CR87" s="1">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>1531</v>
       </c>
       <c r="CS87" s="1">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>1753</v>
       </c>
     </row>
@@ -29506,67 +29464,67 @@
         <v>213</v>
       </c>
       <c r="AZ88" s="1">
-        <f t="shared" ref="AZ88:BQ88" si="171">SUM(AZ77:AZ87)</f>
+        <f t="shared" ref="AZ88:BQ88" si="172">SUM(AZ77:AZ87)</f>
         <v>30777</v>
       </c>
       <c r="BA88" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>30900</v>
       </c>
       <c r="BB88" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>31168</v>
       </c>
       <c r="BC88" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>31877</v>
       </c>
       <c r="BD88" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>32229</v>
       </c>
       <c r="BE88" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>32337</v>
       </c>
       <c r="BF88" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>32189</v>
       </c>
       <c r="BG88" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>31947</v>
       </c>
       <c r="BH88" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>32470</v>
       </c>
       <c r="BI88" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>32892</v>
       </c>
       <c r="BJ88" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>33602</v>
       </c>
       <c r="BK88" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>34042</v>
       </c>
       <c r="BL88" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>35136</v>
       </c>
       <c r="BM88" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>36669</v>
       </c>
       <c r="BN88" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>37108</v>
       </c>
       <c r="BO88" s="1">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>38079</v>
       </c>
       <c r="BP88" s="1">
@@ -29574,27 +29532,27 @@
         <v>39394</v>
       </c>
       <c r="BQ88" s="1">
+        <f t="shared" si="172"/>
+        <v>40140</v>
+      </c>
+      <c r="CO88" s="1">
+        <f t="shared" si="167"/>
+        <v>30777</v>
+      </c>
+      <c r="CP88" s="1">
+        <f t="shared" si="168"/>
+        <v>32229</v>
+      </c>
+      <c r="CQ88" s="1">
+        <f t="shared" si="169"/>
+        <v>32470</v>
+      </c>
+      <c r="CR88" s="1">
+        <f t="shared" si="170"/>
+        <v>35136</v>
+      </c>
+      <c r="CS88" s="1">
         <f t="shared" si="171"/>
-        <v>40140</v>
-      </c>
-      <c r="CO88" s="1">
-        <f t="shared" si="166"/>
-        <v>30777</v>
-      </c>
-      <c r="CP88" s="1">
-        <f t="shared" si="167"/>
-        <v>32229</v>
-      </c>
-      <c r="CQ88" s="1">
-        <f t="shared" si="168"/>
-        <v>32470</v>
-      </c>
-      <c r="CR88" s="1">
-        <f t="shared" si="169"/>
-        <v>35136</v>
-      </c>
-      <c r="CS88" s="1">
-        <f t="shared" si="170"/>
         <v>39394</v>
       </c>
     </row>
@@ -29660,23 +29618,23 @@
         <v>777</v>
       </c>
       <c r="CO90" s="1">
-        <f t="shared" ref="CO90:CO98" si="172">AZ90</f>
+        <f t="shared" ref="CO90:CO98" si="173">AZ90</f>
         <v>13</v>
       </c>
       <c r="CP90" s="1">
-        <f t="shared" ref="CP90:CP98" si="173">BD90</f>
+        <f t="shared" ref="CP90:CP98" si="174">BD90</f>
         <v>260</v>
       </c>
       <c r="CQ90" s="1">
-        <f t="shared" ref="CQ90:CQ98" si="174">BH90</f>
+        <f t="shared" ref="CQ90:CQ98" si="175">BH90</f>
         <v>20</v>
       </c>
       <c r="CR90" s="1">
-        <f t="shared" ref="CR90:CR98" si="175">BL90</f>
+        <f t="shared" ref="CR90:CR98" si="176">BL90</f>
         <v>531</v>
       </c>
       <c r="CS90" s="1">
-        <f t="shared" ref="CS90:CS98" si="176">BP90</f>
+        <f t="shared" ref="CS90:CS98" si="177">BP90</f>
         <v>1778</v>
       </c>
     </row>
@@ -29739,23 +29697,23 @@
         <v>1004</v>
       </c>
       <c r="CO91" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>513</v>
       </c>
       <c r="CP91" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>794</v>
       </c>
       <c r="CQ91" s="1">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>862</v>
       </c>
       <c r="CR91" s="1">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>943</v>
       </c>
       <c r="CS91" s="1">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>960</v>
       </c>
     </row>
@@ -29818,23 +29776,23 @@
         <v>2354</v>
       </c>
       <c r="CO92" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>2197</v>
       </c>
       <c r="CP92" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>2436</v>
       </c>
       <c r="CQ92" s="1">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>2160</v>
       </c>
       <c r="CR92" s="1">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>2646</v>
       </c>
       <c r="CS92" s="1">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>2773</v>
       </c>
     </row>
@@ -29897,23 +29855,23 @@
         <v>923</v>
       </c>
       <c r="CO93" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>958</v>
       </c>
       <c r="CP93" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>783</v>
       </c>
       <c r="CQ93" s="1">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>761</v>
       </c>
       <c r="CR93" s="1">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>814</v>
       </c>
       <c r="CS93" s="1">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>887</v>
       </c>
     </row>
@@ -29976,23 +29934,23 @@
         <v>10532</v>
       </c>
       <c r="CO94" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>9130</v>
       </c>
       <c r="CP94" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>8804</v>
       </c>
       <c r="CQ94" s="1">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>8915</v>
       </c>
       <c r="CR94" s="1">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>8571</v>
       </c>
       <c r="CS94" s="1">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>8968</v>
       </c>
     </row>
@@ -30055,23 +30013,23 @@
         <v>158</v>
       </c>
       <c r="CO95" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>330</v>
       </c>
       <c r="CP95" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>310</v>
       </c>
       <c r="CQ95" s="1">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>144</v>
       </c>
       <c r="CR95" s="1">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>134</v>
       </c>
       <c r="CS95" s="1">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>155</v>
       </c>
     </row>
@@ -30134,23 +30092,23 @@
         <v>1946</v>
       </c>
       <c r="CO96" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>2309</v>
       </c>
       <c r="CP96" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>2220</v>
       </c>
       <c r="CQ96" s="1">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>2035</v>
       </c>
       <c r="CR96" s="1">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>1967</v>
       </c>
       <c r="CS96" s="1">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>1870</v>
       </c>
     </row>
@@ -30213,23 +30171,23 @@
         <v>22446</v>
       </c>
       <c r="CO97" s="1">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>15327</v>
       </c>
       <c r="CP97" s="1">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>16622</v>
       </c>
       <c r="CQ97" s="1">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>17573</v>
       </c>
       <c r="CR97" s="1">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>19530</v>
       </c>
       <c r="CS97" s="1">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>22003</v>
       </c>
     </row>
@@ -30238,95 +30196,95 @@
         <v>222</v>
       </c>
       <c r="AZ98" s="1">
-        <f t="shared" ref="AZ98:BK98" si="177">SUM(AZ90:AZ97)</f>
+        <f t="shared" ref="AZ98:BK98" si="178">SUM(AZ90:AZ97)</f>
         <v>30777</v>
       </c>
       <c r="BA98" s="1">
+        <f t="shared" si="178"/>
+        <v>30900</v>
+      </c>
+      <c r="BB98" s="1">
+        <f t="shared" si="178"/>
+        <v>31168</v>
+      </c>
+      <c r="BC98" s="1">
+        <f t="shared" si="178"/>
+        <v>31877</v>
+      </c>
+      <c r="BD98" s="1">
+        <f t="shared" si="178"/>
+        <v>32229</v>
+      </c>
+      <c r="BE98" s="1">
+        <f t="shared" si="178"/>
+        <v>32337</v>
+      </c>
+      <c r="BF98" s="1">
+        <f t="shared" si="178"/>
+        <v>32189</v>
+      </c>
+      <c r="BG98" s="1">
+        <f t="shared" si="178"/>
+        <v>31947</v>
+      </c>
+      <c r="BH98" s="1">
+        <f t="shared" si="178"/>
+        <v>32470</v>
+      </c>
+      <c r="BI98" s="1">
+        <f t="shared" si="178"/>
+        <v>32892</v>
+      </c>
+      <c r="BJ98" s="1">
+        <f t="shared" si="178"/>
+        <v>33602</v>
+      </c>
+      <c r="BK98" s="1">
+        <f t="shared" si="178"/>
+        <v>34043</v>
+      </c>
+      <c r="BL98" s="1">
+        <f t="shared" ref="BL98:BQ98" si="179">SUM(BL90:BL97)</f>
+        <v>35136</v>
+      </c>
+      <c r="BM98" s="1">
+        <f t="shared" si="179"/>
+        <v>36669</v>
+      </c>
+      <c r="BN98" s="1">
+        <f t="shared" si="179"/>
+        <v>37108</v>
+      </c>
+      <c r="BO98" s="1">
+        <f t="shared" si="179"/>
+        <v>38079</v>
+      </c>
+      <c r="BP98" s="1">
+        <f t="shared" si="179"/>
+        <v>39394</v>
+      </c>
+      <c r="BQ98" s="1">
+        <f t="shared" si="179"/>
+        <v>40140</v>
+      </c>
+      <c r="CO98" s="1">
+        <f t="shared" si="173"/>
+        <v>30777</v>
+      </c>
+      <c r="CP98" s="1">
+        <f t="shared" si="174"/>
+        <v>32229</v>
+      </c>
+      <c r="CQ98" s="1">
+        <f t="shared" si="175"/>
+        <v>32470</v>
+      </c>
+      <c r="CR98" s="1">
+        <f t="shared" si="176"/>
+        <v>35136</v>
+      </c>
+      <c r="CS98" s="1">
         <f t="shared" si="177"/>
-        <v>30900</v>
-      </c>
-      <c r="BB98" s="1">
-        <f t="shared" si="177"/>
-        <v>31168</v>
-      </c>
-      <c r="BC98" s="1">
-        <f t="shared" si="177"/>
-        <v>31877</v>
-      </c>
-      <c r="BD98" s="1">
-        <f t="shared" si="177"/>
-        <v>32229</v>
-      </c>
-      <c r="BE98" s="1">
-        <f t="shared" si="177"/>
-        <v>32337</v>
-      </c>
-      <c r="BF98" s="1">
-        <f t="shared" si="177"/>
-        <v>32189</v>
-      </c>
-      <c r="BG98" s="1">
-        <f t="shared" si="177"/>
-        <v>31947</v>
-      </c>
-      <c r="BH98" s="1">
-        <f t="shared" si="177"/>
-        <v>32470</v>
-      </c>
-      <c r="BI98" s="1">
-        <f t="shared" si="177"/>
-        <v>32892</v>
-      </c>
-      <c r="BJ98" s="1">
-        <f t="shared" si="177"/>
-        <v>33602</v>
-      </c>
-      <c r="BK98" s="1">
-        <f t="shared" si="177"/>
-        <v>34043</v>
-      </c>
-      <c r="BL98" s="1">
-        <f t="shared" ref="BL98:BQ98" si="178">SUM(BL90:BL97)</f>
-        <v>35136</v>
-      </c>
-      <c r="BM98" s="1">
-        <f t="shared" si="178"/>
-        <v>36669</v>
-      </c>
-      <c r="BN98" s="1">
-        <f t="shared" si="178"/>
-        <v>37108</v>
-      </c>
-      <c r="BO98" s="1">
-        <f t="shared" si="178"/>
-        <v>38079</v>
-      </c>
-      <c r="BP98" s="1">
-        <f t="shared" si="178"/>
-        <v>39394</v>
-      </c>
-      <c r="BQ98" s="1">
-        <f t="shared" si="178"/>
-        <v>40140</v>
-      </c>
-      <c r="CO98" s="1">
-        <f t="shared" si="172"/>
-        <v>30777</v>
-      </c>
-      <c r="CP98" s="1">
-        <f t="shared" si="173"/>
-        <v>32229</v>
-      </c>
-      <c r="CQ98" s="1">
-        <f t="shared" si="174"/>
-        <v>32470</v>
-      </c>
-      <c r="CR98" s="1">
-        <f t="shared" si="175"/>
-        <v>35136</v>
-      </c>
-      <c r="CS98" s="1">
-        <f t="shared" si="176"/>
         <v>39394</v>
       </c>
     </row>
@@ -30462,15 +30420,15 @@
       </c>
       <c r="CN108" s="9"/>
       <c r="CO108" s="9">
-        <f t="shared" ref="CO108:CO112" si="179">SUM(AW108:AZ108)</f>
+        <f t="shared" ref="CO108:CO112" si="180">SUM(AW108:AZ108)</f>
         <v>1508</v>
       </c>
       <c r="CP108" s="9">
-        <f t="shared" ref="CP108:CP112" si="180">SUM(BA108:BD108)</f>
+        <f t="shared" ref="CP108:CP112" si="181">SUM(BA108:BD108)</f>
         <v>1870</v>
       </c>
       <c r="CQ108" s="9">
-        <f t="shared" ref="CQ108:CQ112" si="181">SUM(BE108:BH108)</f>
+        <f t="shared" ref="CQ108:CQ112" si="182">SUM(BE108:BH108)</f>
         <v>1526</v>
       </c>
       <c r="CR108" s="9">
@@ -30478,7 +30436,7 @@
         <v>1546</v>
       </c>
       <c r="CS108" s="9">
-        <f t="shared" ref="CS108:CS112" si="182">SUM(BM108:BP108)</f>
+        <f t="shared" ref="CS108:CS112" si="183">SUM(BM108:BP108)</f>
         <v>3435</v>
       </c>
     </row>
@@ -30572,15 +30530,15 @@
       </c>
       <c r="CN109" s="9"/>
       <c r="CO109" s="9">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>-364</v>
       </c>
       <c r="CP109" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>-540</v>
       </c>
       <c r="CQ109" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>-576</v>
       </c>
       <c r="CR109" s="9">
@@ -30588,7 +30546,7 @@
         <v>-440</v>
       </c>
       <c r="CS109" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>-787</v>
       </c>
     </row>
@@ -30597,11 +30555,11 @@
         <v>231</v>
       </c>
       <c r="AW110" s="1">
-        <f t="shared" ref="AW110" si="183">AW108+AW109</f>
+        <f t="shared" ref="AW110" si="184">AW108+AW109</f>
         <v>-174</v>
       </c>
       <c r="AX110" s="1">
-        <f t="shared" ref="AX110" si="184">AX108+AX109</f>
+        <f t="shared" ref="AX110" si="185">AX108+AX109</f>
         <v>202</v>
       </c>
       <c r="AY110" s="1">
@@ -30609,15 +30567,15 @@
         <v>596</v>
       </c>
       <c r="AZ110" s="1">
-        <f t="shared" ref="AZ110" si="185">AZ108+AZ109</f>
+        <f t="shared" ref="AZ110" si="186">AZ108+AZ109</f>
         <v>520</v>
       </c>
       <c r="BA110" s="1">
-        <f t="shared" ref="BA110" si="186">BA108+BA109</f>
+        <f t="shared" ref="BA110" si="187">BA108+BA109</f>
         <v>213</v>
       </c>
       <c r="BB110" s="1">
-        <f t="shared" ref="BB110" si="187">BB108+BB109</f>
+        <f t="shared" ref="BB110" si="188">BB108+BB109</f>
         <v>540</v>
       </c>
       <c r="BC110" s="1">
@@ -30625,15 +30583,15 @@
         <v>361</v>
       </c>
       <c r="BD110" s="1">
-        <f t="shared" ref="BD110" si="188">BD108+BD109</f>
+        <f t="shared" ref="BD110" si="189">BD108+BD109</f>
         <v>216</v>
       </c>
       <c r="BE110" s="1">
-        <f t="shared" ref="BE110" si="189">BE108+BE109</f>
+        <f t="shared" ref="BE110" si="190">BE108+BE109</f>
         <v>82</v>
       </c>
       <c r="BF110" s="1">
-        <f t="shared" ref="BF110" si="190">BF108+BF109</f>
+        <f t="shared" ref="BF110" si="191">BF108+BF109</f>
         <v>-50</v>
       </c>
       <c r="BG110" s="1">
@@ -30641,15 +30599,15 @@
         <v>321</v>
       </c>
       <c r="BH110" s="1">
-        <f t="shared" ref="BH110" si="191">BH108+BH109</f>
+        <f t="shared" ref="BH110" si="192">BH108+BH109</f>
         <v>597</v>
       </c>
       <c r="BI110" s="1">
-        <f t="shared" ref="BI110:BN110" si="192">BI108+BI109</f>
+        <f t="shared" ref="BI110:BN110" si="193">BI108+BI109</f>
         <v>82</v>
       </c>
       <c r="BJ110" s="1">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>515</v>
       </c>
       <c r="BK110" s="1">
@@ -30657,15 +30615,15 @@
         <v>509</v>
       </c>
       <c r="BL110" s="1">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>690</v>
       </c>
       <c r="BM110" s="1">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>-14</v>
       </c>
       <c r="BN110" s="1">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>658</v>
       </c>
       <c r="BO110" s="1">
@@ -30682,15 +30640,15 @@
       </c>
       <c r="CN110" s="9"/>
       <c r="CO110" s="9">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>1144</v>
       </c>
       <c r="CP110" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>1330</v>
       </c>
       <c r="CQ110" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>950</v>
       </c>
       <c r="CR110" s="9">
@@ -30698,7 +30656,7 @@
         <v>1106</v>
       </c>
       <c r="CS110" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>2648</v>
       </c>
     </row>
@@ -30707,100 +30665,100 @@
         <v>1</v>
       </c>
       <c r="AW111" s="1">
-        <f t="shared" ref="AW111:BQ111" si="193">AW67</f>
+        <f t="shared" ref="AW111:BQ111" si="194">AW67</f>
         <v>1397.4</v>
       </c>
       <c r="AX111" s="1">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1410.9</v>
       </c>
       <c r="AY111" s="1">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1430.9</v>
       </c>
       <c r="AZ111" s="1">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1416.7</v>
       </c>
       <c r="BA111" s="1">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1418.7</v>
       </c>
       <c r="BB111" s="1">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1421.3</v>
       </c>
       <c r="BC111" s="1">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1423.8</v>
       </c>
       <c r="BD111" s="1">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1422.3</v>
       </c>
       <c r="BE111" s="1">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1427.8</v>
       </c>
       <c r="BF111" s="1">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1429.7</v>
       </c>
       <c r="BG111" s="1">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1431.6</v>
       </c>
       <c r="BH111" s="1">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1430.5</v>
       </c>
       <c r="BI111" s="1">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1435.8</v>
       </c>
       <c r="BJ111" s="1">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1446.2</v>
       </c>
       <c r="BK111" s="1">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1464.5</v>
       </c>
       <c r="BL111" s="1">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1453</v>
       </c>
       <c r="BM111" s="1">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1468.4</v>
       </c>
       <c r="BN111" s="1">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1470.6</v>
       </c>
       <c r="BO111" s="1">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1472.7</v>
       </c>
       <c r="BP111" s="1">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1471.5</v>
       </c>
       <c r="BQ111" s="1">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1477.2</v>
       </c>
       <c r="CN111" s="9"/>
       <c r="CO111" s="9">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>5655.9000000000005</v>
       </c>
       <c r="CP111" s="9">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>5686.1</v>
       </c>
       <c r="CQ111" s="9">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>5719.6</v>
       </c>
       <c r="CR111" s="9">
@@ -30808,7 +30766,7 @@
         <v>4346.5</v>
       </c>
       <c r="CS111" s="9">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>5883.2</v>
       </c>
     </row>
@@ -30817,87 +30775,87 @@
         <v>232</v>
       </c>
       <c r="AW112" s="16">
-        <f t="shared" ref="AW112:BQ112" si="194">AW110/AW111</f>
+        <f t="shared" ref="AW112:BQ112" si="195">AW110/AW111</f>
         <v>-0.124516960068699</v>
       </c>
       <c r="AX112" s="16">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.14317102558650505</v>
       </c>
       <c r="AY112" s="16">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.41652107065483257</v>
       </c>
       <c r="AZ112" s="16">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.36705018705442222</v>
       </c>
       <c r="BA112" s="16">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.15013744977796573</v>
       </c>
       <c r="BB112" s="16">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.37993386336452545</v>
       </c>
       <c r="BC112" s="16">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.25354684646720044</v>
       </c>
       <c r="BD112" s="16">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.15186669479012868</v>
       </c>
       <c r="BE112" s="16">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>5.7431012746883316E-2</v>
       </c>
       <c r="BF112" s="16">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>-3.4972371826257252E-2</v>
       </c>
       <c r="BG112" s="16">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.2242246437552389</v>
       </c>
       <c r="BH112" s="16">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.41733659559594549</v>
       </c>
       <c r="BI112" s="16">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>5.711101824766681E-2</v>
       </c>
       <c r="BJ112" s="16">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.3561056562024616</v>
       </c>
       <c r="BK112" s="16">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.34755889382041655</v>
       </c>
       <c r="BL112" s="16">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.47487955953200273</v>
       </c>
       <c r="BM112" s="16">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>-9.5341868700626522E-3</v>
       </c>
       <c r="BN112" s="16">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.44743642050863597</v>
       </c>
       <c r="BO112" s="16">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.5588375093365926</v>
       </c>
       <c r="BP112" s="16">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.80258239891267413</v>
       </c>
       <c r="BQ112" s="16">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.239642567018684</v>
       </c>
       <c r="BR112" s="23"/>
@@ -30905,15 +30863,15 @@
       <c r="BT112" s="23"/>
       <c r="CN112" s="12"/>
       <c r="CO112" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>0.80222532322706086</v>
       </c>
       <c r="CP112" s="12">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>0.93548485439982032</v>
       </c>
       <c r="CQ112" s="12">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>0.66401988027181047</v>
       </c>
       <c r="CR112" s="12">
@@ -30921,7 +30879,7 @@
         <v>1.2356551278025476</v>
       </c>
       <c r="CS112" s="12">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>1.79932214188784</v>
       </c>
     </row>
@@ -30983,7 +30941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B620B-86E4-4271-A65B-3362B1B3C1E1}">
   <dimension ref="A1:BW2117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AG2" sqref="AG2:AH7"/>
     </sheetView>
   </sheetViews>
